--- a/wsj_scraper/wsj_data2.xlsx
+++ b/wsj_scraper/wsj_data2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2011-11-15</t>
+          <t>2011-01-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Two Populist Movements Rooted in Same Soil</t>
+          <t>MERS CEO to Leave Company</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Capital Journal</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -476,17 +476,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2011-11-22</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeb Hensarling: Why the Super Committee Failed</t>
+          <t>Chasing the Ghosts of 'Bullitt'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Opinion</t>
+          <t>Movie History</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -494,17 +494,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2011-11-22</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hamachi, Marinated with Lemon, Fennel, and Horseradish</t>
+          <t>Bloomberg Wants Meetings on the Clock</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>New York Politics</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -512,17 +512,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2011-11-22</t>
+          <t>2011-01-20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tide Shifts on Web Start-Ups</t>
+          <t>Is NFL Telegraphing Its Drug Tests?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>NFL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -530,17 +530,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2011-11-22</t>
+          <t>2011-01-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Debt Panel Folds</t>
+          <t>Mayor Pledges Tough Stance on Unions</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>New York Politics</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -548,17 +548,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2011-11-22</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sepalcure Steps Into a New Sound</t>
+          <t>Street Battles Silicon Valley for Techies</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>New York Culture</t>
+          <t>Markets</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -566,17 +566,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2011-11-25</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>James Delingpole: Yet Another Climate-Change Scandal</t>
+          <t>A Vodka Buffaloes Into U.S.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Opinion Europe</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -584,17 +584,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2011-11-15</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>U.S. Levies First Tarmac-Delay Fine</t>
+          <t>Ronald McKinnon: The Latest American Export: Inflation</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Opinion</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -602,57 +602,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2011-11-15</t>
+          <t>2011-01-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Disney Buys 'Mom' Blogs Publisher Babble</t>
+          <t>Henninger: Will Afghanistan Be a Forgotten War?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>In a deal that could further blur the line between advertising and blogs, Walt Disney Co. DIS -0.29%decrease; red down pointing triangle is buying Babble Media Inc., whose website carries news for parents and blogs written by moms and dads.Disney will offer its own cache of parenting-related content for use as links in blog posts on the five-year-old site, which carries articles by some 200 bloggers, including a few celebrity moms such as  Samantha Bee of "The Daily Show."Disney paid between $40 million and $45 million for Babble, according to a person familiar with the matter.Disney said the links would be optional. It is "Babble's call if and what they choose to use," said a spokeswoman.For example, if a blogger writes a Thanksgiving-related post about how to prepare an organic turkey, Babble's editors could include links to Disney's content about, say, festive table settings, said Brooke Chaffin, Disney Interactive Media Group's senior vice president of Moms and Family.Ms. Chaffin stressed that the deal wasn't conducted simply to create additional opportunities for product placement. "We are not enlisting these bloggers to go out and promote a 'Cars' film," she said. "If you try to censor them," she said of the bloggers, "you lose the essence of what they are.""What we really felt we needed to grow the business is that daily content, and the most authentic content that's being published is by bloggers," Ms. Chaffin said.The addition of Babble could also expand Disney's efforts to reach parents of even the youngest children. Those efforts include a recently launched line of infant and newborn clothes.Babble presents its blog posts in an edited format somewhat reminiscent of the Huffington Post. Though many of the articles are written in the first person, they aren't the kind of online free-for-all that can arise on some personal blogging websites. Babble wouldn't disclose how it compensates its bloggers.Babble's husband-and-wife founders, Rufus Griscom and Alisa Volkman, touted the deal as a way to enhance their service: "We will now be able to innovate faster, enhance the content, the product, the technology, the interactive experience," they wrote in a blog post Monday.Babble isn't the first such website acquired by Disney Interactive Media Group. In 2009 Disney spent $18.4 million for Kaboose Inc., a Canadian company that operated websites for moms and young children. In 2007 Disney acquired iParenting Media for an undisclosed sum.Before founding Babble, Mr. Griscom was a co-founder in 1997 of Nerve.com, the sex and dating website. Babble was backed by Village Ventures Inc.Write to                                     Erica Orden                 at erica.orden@wsj.com</t>
-        </is>
-      </c>
+          <t>Wonder Land</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2011-11-17</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>One Canvas, Many Masters</t>
+          <t>A Who's Who of Stanley Ho's Family</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Arts &amp; Entertainment</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Hong Kong News</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>For decades, the Ho family has dominated political, social and economic life in Macau, a special administrative region of China that is the country's only legal gambling center. Here's a look at Stanley Ho, the gambling empire's patriarch, and some of the people surrounding him. Stanley Ho, 89. A Eurasian of Dutch extraction who speaks Portuguese and Cantonese, Mr. Ho during World War II fled a Japanese invasion of Hong Kong to neutral Macau. He became wealthy trading supplies for a company owned by the Japanese military, the Portuguese government and local Chinese merchants.He and a group of investors won a gambling monopoly from the Portuguese-run colonial government in 1962. Mr. Ho ran a network of casinos, anchored by the Lisboa casino and hotel. He branched out into many parts of the Macanese economy, including a department store, hotels, a bank, housing projects and a high-speed ferry service linking Macau to nearby Hong Kong. He also opened North Korea's only casino, in the basement of a Pyongyang hotel.  The woman considered his first wife, Clementina, is deceased; their children keep a low profile. There are currently three women he and others refer to as his wives. Lucina Laam. Considered Mr. Ho's second wife, Ms. Laam has been living in Canada in recent years. She is the mother of five of Mr. Ho's children.Pansy Ho, 48. Ms. Ho, the eldest daughter of second wife Ms. Laam, is managing director of Hong Kong-listed Shun Tak Holdings, which controls Mr. Ho's transportation, retail and real-estate holdings. In her own personal capacity, she also controls half of a joint venture with MGM Mirage that operates the MGM Grand Macau casino-resort. Lawrence Ho, 33, a son of his second wife. Mr. Ho's oldest living son, the younger Mr. Ho was educated in Canada and now runs three casinos in Macau under a 50-50 joint venture with Australian casino heir James Packer.Josie Ho, 36. Ms. Ho, a sister of Pansy Ho, is a pop star in Hong Kong and Macau. In addition to releasing a handful of pop albums, she has starred in a number of televised dramas and movies, winning an acting prize at the Hong Kong Film Awards in 2004.Daisy Ho, listed as 45 in a public filing in April 2010. Ms. Ho, a younger sister of Pansy Ho, is a director at Shun Tak.Ina Chan. Mr. Ho's third wife and mother of three of his children.Angela Leong, listed as 49 in an April 2010 public filing. Mr. Ho's fourth wife, in 2005 she was elected as a legislator in Macau. Ms. Leong and Mr. Ho have five children.Write to                 Jonathan Cheng at jonathan.cheng@wsj.com</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2011-11-17</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Playing With Legos Is a Serious Business</t>
+          <t>Power Players</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Lunchbox</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -660,12 +660,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Prospects Appear to Dim for EU-Backed Gas Pipeline</t>
+          <t>Leaks Show Palestinian-Israeli Ties</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -678,17 +678,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lake-Be-Gone Woes</t>
+          <t>Judy Shelton: The Wrong Way to Double
+	Exports</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>U.S.</t>
+          <t>Opinion</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -696,17 +697,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Japan to Challenge China on Security</t>
+          <t>Johnny Munkhammar: The Swedish Model</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Opinion Europe</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -714,35 +715,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Best-Selling Books, Week Ended Nov. 13</t>
+          <t>Q&amp;A With Hu Jintao</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Best Selling Books</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>The Wall Street Journal submitted a series of questions for Chinese President Hu Jintao ahead of his visit to the U.S. from Jan. 18 to 21. The Washington Post also submitted questions. China's Foreign Ministry supplied responses from Mr. Hu to seven questions, as follows:1. How do you view the current   state of China-U.S. relationship? What do you see as the most promising areas of mutually beneficial cooperation between China and the United States? What do you see as the major challenges to the long-term, sound and steady development of China-U.S. relationship?A: Since the beginning of the 21st century, thanks to the concerted efforts of both sides, China-U.S. relationship has on the whole enjoyed steady growth. Since President Obama took office, we have maintained close contact through exchange of visits, meetings, telephone conversations and letters. We agreed to build a positive, cooperative and comprehensive China-U.S. relationship for the 21st century and together, we instituted the China-U.S. Strategic and Economic Dialogues mechanism. Over the past two years, China and the United States have carried out practical cooperation in a wide range of areas including economy and trade, energy, the environment, counterterrorism, law enforcement and culture. The two countries have maintained close contact and coordination in dealing with major international and regional hotspot issues and addressing global challenges, such as climate change and the international financial crisis. The strategic significance and global impact of China-U.S. relations have been on the rise.China and the United States have major influence in international affairs and shoulder important responsibilities in upholding world peace and promoting common development. Under the new circumstances, the common interests of our two countries have been growing and areas of cooperation expanding. There is great potential for our mutually beneficial cooperation both in advancing Asia-Pacific regional cooperation and in improving global economic governance and promoting sustainable growth of the world economy; both in expanding cooperation in economy and trade and in strengthening cooperation in new areas like new energy sources, clean energy, infrastructure development and aviation and space; and both in fighting terrorism and preventing the proliferation of weapons of mass destruction and in meeting challenges like natural disasters, food security and major communicable diseases.We both stand to gain from a sound China-U.S. relationship, and lose from confrontation. We should act in the fundamental interests of our two peoples and uphold the overall interests of world peace and development. We should rise up to challenges, remove disturbances, work for shared goals and promote continuous growth of our relations. I wish to stress the following four points. First, we should increase dialogue and contact and enhance strategic mutual trust. Second, we should abandon the zero-sum Cold War mentality, view each other's development in an objective and sensible way, respect each other's choice of development path, and pursue common development through win-win cooperation. Third, we should respect each other's sovereignty, territorial integrity and development interests and properly address each other's major concerns. And fourth, we should make constant efforts to expand our converging interests so that China and the United States will be partners for cooperation in broader areas.There is no denying that there are some differences and sensitive issues between us. Both sides should keep to the right direction in the development of our relations, increase exchanges, enhance mutual trust, seek common ground while reserving differences, properly manage differences and sensitive issues and jointly promote the long-term, sound and steady development of China-U.S. relations.2. Despite the continuous growth of foreign investment in China, some American companies have complained about China's business climate. What steps is China taking to ensure a level playing field for U.S. and other foreign companies in China?A: The use of foreign investment is an important part of China's basic state policy of opening-up. Over the past decade since its accession to the WTO, China has fully honored its commitments by abolishing all domestic laws and regulations incompatible with WTO rules and giving foreign companies national treatment. All foreign companies registered in China are Chinese enterprises. Their innovation, production and business operations in China enjoy the same treatment as Chinese enterprises. The package plan and the related policy measures that the Chinese government introduced to counter the international financial crisis have also provided good opportunities for the growth of all enterprises in China, foreign companies included.China will stay firmly committed to the basic state policy of opening-up. We will actively and effectively use foreign investment, improve its structure, diversify its form, and open up more channels and sectors so as to facilitate investment. China will continue to improve laws and regulations concerning foreign investment, strengthen IPR protection, promptly address the legitimate concerns of foreign companies and facilitate the growth of enterprises of all kinds in China by offering them a stable and transparent legal and policy environment, a consistent and open market environment as well as a standardized and efficient administrative environment.3. What lessons do you think  can be drawn from the 2008 international financial crisis? What effective measures did China adopt to counter the impact of the crisis?A: This international financial crisis has reflected the absence of regulation in financial innovation. Its root cause lies in the serious defects of the existing financial system. They are mainly as follows: First, the international financial system has not kept up with the latest development of economic and financial globalization and was incapable of tackling the risks and challenges brought about by massive financial activities. Second, international financial institutions failed to fully reflect the changing status of developing countries in the world economy and finance. The global representativeness and enforcement capabilities of these institutions need to be further strengthened. Third, the international financial system was in serious shortage of resources and means to tackle the international financial crisis and its rescue capabilities need to be built up.However, thanks to the concerted efforts of the international community and G-20 members, progress has been made in the reform of the international financial system over the past two years since the outbreak of the financial crisis. China hopes that the international community will work together to further advance the reform of the international financial system and move toward the establishment of a fair, just, inclusive and well-managed international financial order. To achieve the long-term and sound growth of the world economy, we must not only address specific issues such as managing properly the relationship between the financial sector and the real economy, between financial innovation and financial supervision and regulation, and between consumption and saving, but also, and more importantly, review those fundamental problems in the world economy on a macro level. The most prominent problem in the world's economic imbalance today is the serious development imbalance between the North and the South. The international community should make concerted efforts to build a new and more equal and balanced global partnership for development and encourage developed and developing countries to have more mutual understanding and closer coordination, so as to promote the strong, sustainable and balanced development of the world economy.The international financial crisis has inflicted on China unprecedented difficulties and challenges. To address its impact and maintain the steady and relatively fast growth of the economy, China quickly adjusted its macroeconomic policies, resolutely adopted the proactive fiscal policy and moderately easy monetary policy, put in place a package plan to boost domestic demand and stimulate economic growth, significantly increased government investment, implemented industrial readjustment and reinvigoration plans on a large scale, energetically promoted scientific innovation and technological upgrading, raised social welfare benefits by a substantial margin and introduced a more active employment policy. As a result, our economy in 2009 and 2010 maintained steady and relatively fast growth and contributed to the economic recovery of the region and the world. Looking ahead, China will take scientific development as the main theme and focus on transforming the economic development pattern at a faster pace. We will implement a proactive fiscal policy and a prudent monetary policy, speed up economic restructuring, vigorously strengthen indigenous innovation, make good progress in energy conservation and pollution reduction, continue to deepen reform and opening-up, work hard to ensure and improve people's livelihood, build on the achievements in addressing the international financial crisis, maintain steady and relatively fast economic growth, and promote social stability and harmony. China will pursue the win-win strategy of opening-up and stands ready to work with the United States and the international community as a whole to intensify practical cooperation, properly handle various risks and challenges, and make greater contribution to the overall recovery of the world economy.4. What do you think will be the U.S. dollar's future role in the world? How do you see the issue of making the RMB an international currency? Some think that RMB appreciation may curb China's inflation, what's your view on that?A: The current international currency system is the product of the past. As a major reserve currency, the U.S. dollar is used in considerable amount of global trade in commodities as well as in most of the investment and financial transactions. The monetary policy of the United States has a major impact on global liquidity and capital flows and therefore, the liquidity of the U.S. dollar should be kept at a reasonable and stable level.It takes a long time for a country's currency to be widely accepted in the world. China has made important contribution to the world economy in terms of total economic output and trade, and the RMB has played a role in the world economic development. But making the RMB an international currency will be a fairly long process. The ongoing pilot programs for RMB settlement of cross-border trade and investment transactions are a concrete step that China has taken to respond to the international financial crisis, with the purpose of promoting trade and investment facilitation. They fit in well with market demand as evidenced by the rapidly expanding scale of these transactions.China has adopted a package plan to curb inflation, including interest rate adjustment. We have adopted a managed floating exchange rate regime based on market supply and demand with reference to a basket of currencies. Changes in exchange rate are a result of multiple factors, including the balance of international payment and market supply and demand. In this sense, inflation can hardly be the main factor in determining the exchange rate policy.5. How do you comment on    China's achievements in economic and social development in the Eleventh Five-Year Plan period? Is there a risk that inflation in China could get out of control? Is China's political reform keeping up with the steps of its economic reform?A: The Eleventh Five-Year Plan period was a truly eventful one in the course of China's development. Facing the complex changes at home and abroad and the major risks and challenges, we adhered to the Scientific Outlook on Development, strengthened and improved macro-regulation, gave full play to the basic role of market in resources allocation, took proactive steps to curb the unstable and unhealthy factors in the economic operation, and maintained steady and relatively fast growth of the national economy and social stability and harmony.In the past five years, China's GDP is expected to have grown at an average annual rate of 11% and per capita GDP is expected to have reached US$4,000. Agricultural development accelerated and grain output increased on a continuous basis. Important progress was made in economic restructuring. Development of different regions became more balanced. Urbanization and development of the new countryside was steadily advanced. Good progress was achieved in energy conservation and pollution reduction. And foreign trade enjoyed stable and relatively fast growth. While developing the economy, we continued to put people's interests first and paid more attention to developing social programs and improving people's livelihood. Per capita incomes of urban and rural residents are estimated to have risen at an average annual rate of over 9.3% and around 8% respectively in the past five years. Population below poverty line in the rural areas was noticeably reduced. Education, social security, health care and other social programs developed more rapidly. In short, remarkable achievements have been made in China's socialist economic, political, cultural and social development and in the building of a conservation culture. At the same time, we are keenly aware that China is still the largest developing country in the world and we need to make long and hard efforts if we are to build a moderately prosperous society in all respects and basically achieve modernization.The rise of the overall price level has a very strong structural feature, yet it is on the whole moderate and controllable. There is a basic balance between total supply and total demand, and the material basis is strong enough to maintain market supply and stabilize the overall price level. We have the confidence, conditions and ability to stabilize the overall price level.We have always maintained that people's democracy is the life of socialism. Without democracy, there can be no socialist modernization. To develop socialist democracy is a goal we have always been committed to. China's reform is a comprehensive one, covering economic restructuring, political restructuring, cultural restructuring and social restructuring. In the past 30-plus years since reform and opening-up, notable progress has been made in China's political restructuring. The fact that China has enjoyed sustained, rapid economic growth and social stability and harmony proves that China's political system fits China's national conditions and meets the requirement of overall economic and social development.Political restructuring must deepen in the course of economic and social development and meet people's growing enthusiasm for participating in political affairs. The political restructuring we pursue in China is aimed at advancing the self-improvement and development of the socialist political system. We will continue to expand people's democracy and build a socialist country under the rule of law in keeping with China's national conditions. We will ensure that all work of the state is based on the law and that the lawful rights and interests of the people are safeguarded. We will define the institutions, standards and procedures for socialist democracy, expand people's orderly participation in political affairs at each level and in every field, mobilize and organize the people as extensively as possible to manage state and social affairs as well as economic and cultural programs in accordance with the law, and strive for continued progress in building socialist political civilization.6. China stated it is committed to peaceful development. But in the past year, China has become more assertive. Do you think this will affect China's relations with the United States and neighbors in Asia?A: To follow the path of peaceful development is a solemn commitment of the Chinese government and people to the international community. It is a policy that we will always adhere to. Specifically, it means that we will achieve national development by our hard and creative work, by reforming and improving our institutions, and by maintaining friendship and mutually beneficial cooperation with other countries.China has been committed to the independent foreign policy of peace and has developed friendship and cooperation with all countries on the basis of the Five Principles of Peaceful Coexistence. We stand for equality and mutual respect between countries. Like other countries in the world, China must uphold its own sovereignty, territorial integrity and development interests. At the same time, we are willing to properly handle differences and disagreements in state-to-state relations in accordance with the basic norms governing international relations and the principle of mutual understanding, mutual accommodation, dialogue and consultation.Over the years, relations between China and other Asia-Pacific countries, including the United States and our Asian neighbors, have grown steadily, and together we have contributed to development in the Asia-Pacific region. Mutual trust between China and other countries in this region has deepened in our common response to tough challenges, and our cooperation has continuously expanded in our pursuit of mutual benefit and win-win outcomes. At present, relations between China and other Asia-Pacific countries face unprecedented opportunities. China is ready to work with other countries to seize opportunities, meet challenges and promote peace and development in the region and beyond.7. What is China's view on the tension on the Korean peninsula? Does China believe that reunification of the Korean peninsula will bring more stability than maintaining the status quo? How do you view North Korea's goal of building nuclear weapons?A: There was high tension on the Korean peninsula a few weeks ago. China maintained close contact and coordination with other parties and made relentless efforts to help ease the tension and maintain peace and stability on the peninsula. We urged the North and the South to be calm and exercise restraint, refrain from any action which might escalate tension and undermine peace and stability on the peninsula, and enter into dialogue and contact as quickly as possible to seek an appropriate solution. We also called on relevant parties to work to ease tension and contribute to peace and stability on the peninsula. Thanks to joint efforts by China and other parties, there have been signs of relaxation. We hope that the relevant parties will seize the opportunity to engage in active interactions, resume the process of dialogue and consultation as soon as possible, and ensure that the situation on the peninsula will move forward in a positive direction.As a close neighbor and friend of both the DPRK and the ROK, China hopes that the North and the South will improve relations and achieve reconciliation and cooperation through dialogue and consultation and eventually realize independent and peaceful reunification, and we support their efforts in this regard. This is in the fundamental interests of both the North and the South and conducive to peace and stability on the peninsula.China pays a great deal of attention to the Korean nuclear issue. We stand for achieving denuclearization of the peninsula in a peaceful way through dialogue and consultation to maintain peace and stability of the peninsula and Northeast Asia. For this purpose, China actively advocates and promotes the Six-Party Talks process. We hope that proceeding from the overall interests of the denuclearization of the peninsula and regional peace and stability, the parties concerned will take active measures and create conditions for the resumption of the Six-Party Talks. I am convinced that as long as the parties respect each other, engage in consultation on an equal footing, and implement the September 19 Joint Statement in a comprehensive and balanced way through the Six-Party Talks, they will arrive at an appropriate solution to the Korean nuclear issue and contribute to lasting peace and stability on the peninsula and in Northeast Asia.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2011-11-22</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paterno Clashed Over  Punishment of Players</t>
+          <t>Obama Launches Regulatory Review</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Politics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -750,17 +755,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2011-11-25</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AT&amp;T's T-Mobile Deal Teeters</t>
+          <t>Barack Obama: Toward a 21st-Century Regulatory System</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Opinion</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -768,17 +773,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2011-11-25</t>
+          <t>2011-01-20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>'Hugo': A Dazzler, but No Victor</t>
+          <t>Key Plotter Pleads Guilty in Galleon</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Film Review</t>
+          <t>Law</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -786,17 +791,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2011-11-25</t>
+          <t>2011-01-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Harrisburg Bankruptcy Filing Voided </t>
+          <t>Walter Williams: The State Against Blacks</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>Weekend Interview</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -804,17 +809,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2011-11-15</t>
+          <t>2011-01-24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Iraq's Chalabi Takes Up New Cause</t>
+          <t>Incredible Voyage</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Bookshelf</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -822,17 +827,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hunt Slonem's Oddball Menagerie</t>
+          <t>Why You Can't Trust the Inflation Numbers</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>House Tour</t>
+          <t>R.O.I.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -840,17 +845,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Thanksgiving Dinner Goes Native</t>
+          <t>Taavo Somer: 21st-Century Man</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>20 Odd Questions</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -858,17 +863,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lost, and Found, After Zuccotti Raid</t>
+          <t>Tie One On</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>New York Region</t>
+          <t>Fashion Editor's Notebook</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -876,17 +881,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>U.N. Sees Links to Extreme Weather</t>
+          <t>Cornas Gains the Spotlight</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Environment &amp; Science</t>
+          <t>On Wine</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -894,35 +899,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tyson Chandler's Biggest Fan</t>
+          <t>Tired? Confused? B12 May Be Low</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Health Journal</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tired? Depressed? Forgetting things? Who isn't these days? Those are also symptoms of a deficiency of B12, a key nutrient needed to make red blood cells and DNA and keep the nervous system working right. Vitamin B12 deficiency is officially considered rare, affecting about 1 in 1,000 Americans, according to a 2005 study. But the incidence rises with age, to about 15% of elderly people. The rate is also much higher among  people who don't eat meat or dairy products, people with absorption problems, people taking acid-blocking medications and those with Type 2 diabetes who take the drug Metformin. "B12 deficiency is much more common than the textbooks and journal articles say it is," says Alan Pocinki, an internist in Washington D.C., who routinely tests his patients who fall into those categories. He also notes that since the Metformin connection was discovered only recently, some physicians aren't aware of it. "They assume that if patients complain of numbness and tingling in the feet, it's a diabetes issue and not a B12 issue."Other symptoms of low B12 include anemia, depression, dementia, confusion, loss of appetite and balance problems. Long-term deficiency can bring severe anemia, nerve damage and neurological changes that may be irreversible. Sometimes the symptoms are subtle. Internist Linda Assatourians, one of Dr. Pocinki's partners, says that a surprising number of her young female patients also have low levels of B12. Typically they are healthy and active, but they don't eat much meat and they have minor mood, memory or balance problems. "When I supplement their B12, they feel better," Dr. Assatourians says. "It's not a controlled study, but I see a lot of them." "I was sort of tired, but I thought, 'It's winter and I'm doing too much,' " says Jessica Riester, 27, editor of publications for a German-American think tank. Her B12 level was slightly over 200 picograms per milliliter (the normal range is considered 200 to 800 pg per ml). After several weeks of B12 injections, then 1,000 milligrams daily in pill form, her B12 is now over 600 pg per ml and she says she feels better. "My color is better and the shadows under my eyes are gone," she says. Indeed, several studies have shown that some symptoms of B12 deficiency, particularly early problems with cognitive function, can be apparent even when patients' blood levels are still in the normal range. Still, vitamin B12 isn't a miracle pick-me-up, a performance enhancer, a weight-loss aid or a quick way to sober up after a long night of drinking, as some celebrities and Internet marketers claim. For people who aren't deficient, "there's no evidence whatsoever that these injections are useful to pep you up," says Irwin H. Rosenberg, a professor and former dean of the Friedman School of Nutrition at Tufts University. Taking too much B12 is unlikely to be harmful, he adds; the excess is simply excreted.B12 is one of the newest of the human vitamins, identified in 1948. It originates in bacteria, yeast and microbes in soil. Plants can't store it, so people get their B12 almost exclusively from meat, liver, poultry, fish and dairy products. Adults need just 2.4 micrograms a day, the amount in three ounces of beef, and can generally store it in fat tissue for several years. Dr. Pocinki speculates that some of his very lean patients are B12 deficient because they don't have much fat to store it in. Some people have trouble absorbing B12 in the first place. Stomach acid is needed to release it from food particles. People who have used acid-blocking medications, particularly proton-pump inhibitors, for years may not have enough. And many elderly people naturally stop making stomach acid, so B12 deficiencies are increasingly common as people age. That's why the Institute of Medicine recommends that people over age 51 get most of their daily requirement from B12 supplements or cereals fortified with the vitamin that break down more easily in the digestive tract. Further down the digestive tract, B12 must combine with a protein called intrinsic factor to be absorbed into the body. Without intrinsic factor, people absorb much less B12, resulting in a condition called pernicious anemia, in which red blood cells don't develop properly. Left untreated, pernicious anemia can bring on neurological changes, delusions and hallucinations. The discovery that eating large amounts of liver could cure pernicious anemia led to the Nobel Prize for medicine in 1934.Other conditions can also interfere with B12 absorption, including celiac disease and Crohn's disease. "I thought I was going to die in my sleep because I had so little energy," says Ellen Icochea, a senior executive at the Federal Bureau of Investigation who had a very low B12 level along with several major medical problems. Weekly B12 injections made a dramatic difference. "It was like, 'Wow, here's energy!' " she says. David H. Johnson, a 54-year old wildlife biologist, takes B12 shots every three days to cope with the challenges of chronic fatigue syndrome. "Imagine you are on a small roller coaster," he says. "You feel up one day and the next and then you start slumping until you're really flat again."B12 comes in pill form and a new nasal spray, but injections are the fastest way to correct a severe deficiency, since it does not need to be absorbed in the digestive tract. Many patients learn to inject themselves or have a spouse do it to cut down on doctor visits. "I have world travelers who take their B12 and needles with them. It's like traveling with insulin," says Dr. Pocinki.He says he has seen low-grade depression lift when patients were given B12 supplements.Researchers are still investigating possible links between long-term B12 deficiency and other health problems. It's known, for example, that B12 and the other B vitamins help reduce homocysteine, an amino acid in the bloodstream that may be associated with heart disease. But several large prospective studies have not shown that taking B12 supplements reduces the risk. It's also not clear whether low B12 raises the risk of dementia and Alzheimer's disease, although cognitive impairment brought on by low B12 is sometimes mistaken for Alzheimer's."It's really easy to miss, and really easy to fix," says Dr. Pocinki.An additional concern: A high level of folic acid can mask symptoms of B12 deficiency, and many people are getting more folic acid than they realize. Since 1996, all enriched flour must contain folic acid to reduce the risk of neural-tube defects, a severe malformation that occurs in developing fetuses. Some studies suggest that having high folic acid can make cognitive damage from low B12 even worse. "To this day, we are concerned about the trade-off," says Dr. Rosenberg, who was on the advisory panel that recommended enriching flour.Write to                 Melinda Beck at HealthJournal@wsj.com</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021: The New Europe</t>
+          <t>Goldman Limits Facebook Deal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The Saturday Essay</t>
+          <t>Deals &amp; Deal Makers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -930,17 +939,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Verona's Small-Town Roots Prove a Draw</t>
+          <t>Airbus Wins Virgin Order</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Open House</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -948,17 +957,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2011-11-22</t>
+          <t>2011-01-20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>China Pushes Clean-Energy Agenda</t>
+          <t>Study Tracks Pearl Murder Probe</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>World News</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -966,12 +975,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2011-11-26</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AT&amp;T Bickers With FCC</t>
+          <t>Power Shifts Atop Google</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -984,17 +993,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2011-11-26</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>An Artist Amasses a Rare Collection</t>
+          <t>Pittsburgh Bleeds Black and Gold</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>NFL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1002,35 +1011,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2011-11-28</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Indonesia Bridge-Collapse Toll Hits 11</t>
+          <t>Feds Make Record Mob Sweep</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t xml:space="preserve">New York Crime </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Years after the Mafia was all but declared dead, federal agents conducted their largest ever roundup of suspected mob members and associates Thursday, charging 127 people in the Northeast with crimes ranging from execution-style slayings to illegal card games.Early-morning raids in New York, New Jersey and Rhode Island netted 119 people, charged in 16 separate indictments, that authorities say are affiliated with La Cosa Nostra. Five of those charged were in prison; three were at large.Many of the suspects charged were known, court documents say, by the kinds of nicknames aficionados of gangster films and books have come to savor: Meatball, Baby Shanks, Tony Bagels, Jimmy Gooch, Jello, Vinnie Carwash and Jack the Whack.While the mob's power has been depicted as waning in the face of competition from Asian, Latin and Eastern European gangs, U.S. Attorney General Eric Holder said the Mafia was still a "menace to our nation" that is "a major threat to the economic well-being of this country."Court documents describe internal power struggles and revenge killings, control of a concrete and cement workers' union, extortion of pornography shops and nightclubs named the Satin Doll and Cadillac Lounge, and a scheme to take money from longshoremen working the New York and New Jersey piers at Christmas."Organized crime is a shadow of what it was 20 years ago," said Bruce Mouw, a former Federal Bureau of Investigation agent who led the probe that sent former Gambino boss John Gotti to prison."But you still have five families [in New York], you have captains, you have crews; they still control a lot of labor unions, they still control a lot of the construction industry, different companies, still commit crimes and according to the indictments, they still kill people."Among the arrested were suspected members and associates of all five New York organized-crime families: the Gambinos, Genoveses, Bonannos, Lucheses and Colombos. Authorities also charged members of the DeCavalcantes in Newark, N.J., and the New England Mafia family in Providence, R.I.Attorneys for most of the people accused couldn't be reached for comment Thursday.Prosecutors wield a powerful weapon against organized crime with the Racketeer Influenced and Corrupt Organizations Act, a broad law enacted by Congress in 1970 that allows them to charge Mafia members with being part of a criminal enterprise based on the commission of certain crimes.The record of success by prosecutors has been mixed. Major figures have been convicted, but often only after setbacks to the government. Lower-level figures often plead guilty, serve time and go back to their crime-family lives.Federal officials said Thursday that they brought the multiple cases at once because the charges were ready, but a defense lawyer suggested the coordinated effort was for public consumption.Jeffrey Lichtman, an attorney who represented John Gotti Jr. in a trial where the son of Mr. Gotti was accused of various offenses including securities fraud and racketeering, said Thursday's bust represented a "pretty package" where "only a fraction" of the alleged crimes are new."When you peel back the first page of the indictment, you see lots of junk from the '80s and '90s," said Mr. Lichtman. "We hear these pronouncements every few years by the government that they've dealt a blow to the mob, but all they are doing is taking these ridiculously old crimes and presenting them as new. I don't think today's arrests are quite as significant as the government has made it out to be."The indictments Thursday laid out the hierarchical structure that has wormed its way into popular culture: bosses, or dons, and underbosses, who manage the organizations; consiglieres who give advice; and captains, or capos, who receive payments known as tributes for running crews of soldiers and associates. More than 30 official Mafia members, known as "made men," were among those charged, authorities said.The highest-ranking, according to prosecutors, were Luigi Manocchio, 83, the former boss of the New England mob; Benjamin Castellazzo, 73, the acting underboss of the Colombo family; Andrew Russo, 76, the Colombo street boss; Richard Fusco, 74, the Colombo family's consigliere; Joseph Corozzo, 69, consigliere of the Gambino family; and Bartolomeo Vernace, 61, a Gambino administrator.One reason such sweeps are not always effective, said Howard Abadinsky, a professor at St. John's University who has written about the Mafia, is that those arrested are soon replaced on the street. "You make room for up-and-comers," he said. Mr. Abadinsky said the Mafia had also continued to thrive by moving into new areas, including cyber crime, health-care fraud, and other "cutting edge" criminal areas.The charges Thursday included schemes such as one by suspected Colombo associate Michael Castellano and others to defraud MoneyGram International, a money-transfer company, of $1.5 million. One of the men allegedly posed as a MoneyGram employee and arranged for fraudulent money orders which were then picked up using false identification. Lynda Michielutti, a spokeswoman for MoneyGram, said the company had been working with authorities since 2005. "We were obviously pleased to learn today that the investigation came to fruition," she said.Mr. Castellano and others are also accused of tricking people with poor credit histories into wiring up-front payments through Western Union by promising them loans.Other charges involve more traditional Mafia activities, such as loan-sharking, gambling and murder. One was the January 2002 killing of Marty Bosshart, a member of a Gambino narcotics-trafficking crew, by a family associate, Tony LaBarca, and others, according to one of the indictments filed Thursday.Mr. Bosshart, 30 years old, was lured into a car with Mr. LaBarca and the gunman, Gennaro Bruno, and shot in the head, and his body left on the side of a road, because he wanted to cut a high-ranking family member out of their marijuana-trafficking operation, prosecutors said.Ronald Rubinstein, a lawyer for Mr. LaBarca, said the charges against his client were "very serious." He said he would be in a better position to make a bail application once he listens to conversations recorded by a cooperating witness in the case. Mr. LaBarca was detained late Thursday.Mr. Vernace, then a Gambino captain, was charged in connection with the double murder of Richard Godkin and John D'Agnese, who owned the Shamrock Bar in the Woodhaven section of Queens in 1981, prosecutors said. The two men were allegedly shot to death in a dispute with a Gambino associate close to Mr. Vernace over a spilled drink.But most of the charges relate to various kinds of scams, such as the one Colombo associate Angelo Spata is accused of running last year on the city of New York, by under-reporting income from an Italian festival called the Figli di Santa Rosalia. The festival celebrates Saint Rosalia, the so-called "Little Saint" and patron saint of Palermo, Italy.Write to                 Michael Rothfeld at michael.rothfeld@wsj.com, Sean Gardiner at sean.gardiner@wsj.com and Chad Bray at chad.bray@dowjones.com</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2011-11-15</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fred Iklé</t>
+          <t>'No Strings Attached': A Romcom With Benefits</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Review &amp; Outlook</t>
+          <t>Film Review</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1038,17 +1051,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2011-11-18</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Document Trove Exposes Surveillance Methods</t>
+          <t>Where Museums Hide Their Treasures</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>What They Know</t>
+          <t>Arts and Entertainment</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1056,17 +1069,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Occupy Moves to Fifth Avenue</t>
+          <t>China's Hottest Cuisine</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>New York Region</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1074,17 +1087,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Berkshire's NetJets Sues IRS</t>
+          <t>Best of the Web Today: Palinoia, the Destroyer</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Law</t>
+          <t>Best of the Web Today</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1092,17 +1105,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A Rare Kind of Grand Pas de Deux</t>
+          <t>U.S. Envoy in Beijing Charms, Unsettles</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1110,17 +1123,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Islamists Lead Massive Protest in Cairo</t>
+          <t>New Light Bulbs Lose a Little Shine</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1128,17 +1141,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Clearwire May Skip Big Debt Payment</t>
+          <t>Mansion Built in 1920s Up for Sale</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Spaces</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1146,17 +1159,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Decision on Fracking Postponed Again</t>
+          <t>Where Inquiring Minds Run Wild</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>New York Region</t>
+          <t>The Digital Solution</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1164,17 +1177,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>College Does Pay Off, but It's No Free Ride</t>
+          <t>Clearing Snow Is Getting Easier</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The Numbers Guy</t>
+          <t>Home &amp; Garden</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1182,17 +1195,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2011-11-21</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Levy: Occupy Wisconsin</t>
+          <t>Upgrading the World</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Opinion: Political Diary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1200,35 +1213,39 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2011-11-25</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>April Bloomfield's Hearty Root Vegetable Soup</t>
+          <t>'Black Swan' and Dance of the Clichés</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Slow Food Fast</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Earlier this week, Natalie Portman won a Golden Globe for her role in Darren Aronofsky's ballet-thriller "Black Swan." The film has grossed over $61 million in the U.S. since its release—a huge sum considering ballet is a minority art form. Relatively few people may see it live on stage, but it seems they flock to watch dance on film. They also talk about it online, with "Black Swan" prompting the scale of comment and discussion normally associated with blockbuster movies. Ms. Portman's fans, and devotees of Rodarte designers Kate and Laura Mulleavy, who created her costumes, have raved about the movie, while professional dancers could be heard groaning at its clichés and old-fashioned depiction of the art form. "There's still scope to make a good dance film," is how former Royal Ballet dancer-turned-filmmaker Michael Nunn tactfully puts it.There is little doubt that "Black Swan" peddles one ballet stereotype after the next. Ms. Portman plays the fledgling dancer Nina Sayers, who is desperate to perform the dual lead role in "Swan Lake," but, while she has the innocence to portray the white swan Odette, she lacks the dark heart for the rival black swan Odile. The film depicts Ms. Portman as frail, needy and vulnerable. She is easily manipulated by the tyrannical ballet director, who shouts at her in a foreign accent. She makes herself vomit, self-harms and has a domineering mother. She wears a pale-pink cardigan. She is surrounded by ballerinas who throw tantrums and then throw themselves under cars because they can't cope with the pressure. She only draws strength from beating her rival and outdoing her mother, rather than from the poetry of the art form or her growth from ingénue to artiste. Mr. Aronofsky may not know it, but this depiction of ballerinas has long been lampooned by Les Ballets Trockadero de Monte Carlo, or the Trocks, as they are affectionately known. The all-male spoof troupe dresses up in tutus and tiaras and gently mocks ballet—its fairy tales, its tippy-toed refinements and its supposedly frail ballerinas, who are really clear-eyed young women who only feign vulnerability to please the audience. The Trocks also mock our confusing ballerinas with the characters they portray—a trap Mr. Aronofsky has fallen into.Ballet films, it seems, are made to the template set by Michael Powell and Emeric Pressburger's 1948 classic "The Red Shoes." Based on the fairy tale by Hans Christian Andersen, it had a diabolical director Lermontov (Anton Walbrook) and a ballerina torn between life and art (Moira Shearer); only, as a dancer with the Royal Ballet, Shearer had the physique and the musicality of a ballerina. "The Red Shoes" also had exceptionally good dance scenes by Sir Robert Helpmann, and renowned dancers of the era, including Léonide Massine, in feature roles.The dance sequences in "Black Swan" have an appealing dynamism, but they don't compare to "The Red Shoes." Nor are they as good as those in last year's much more modestly budgeted BBC biopic of Dame Margot Fonteyn, directed by Otto Bathurst. The dance sections were arranged by Mr. Nunn and fellow former Royal Ballet dancer William Trevitt, who also coached the actor Anne-Marie Duff in the Fonteyn role. Ms. Portman has done more of her own dancing than Ms. Duff, but despite describing how she trained for a year—"five hours a day with a ballet teacher"—the effect is less convincing. The reason is that while Ms. Portman does some reasonable moves with her head and shoulders, she doesn't have a ballerina's physique or musicality, and despite her physical beauty and petite frame, she lacks a dancer's innate grace and downy-soft elegance. Few could doubt the clever camerawork of "Black Swan," but Ms. Portman looks static when she's moving. No doubt her fans will argue that "Black Swan" is a thriller, not a documentary, and that absolute balletic authenticity isn't important. However, that is rather like saying that poor driving doesn't matter in a race movie and that Westerns can saddle up with ordinary horsemanship.The curious thing about "Black Swan" is that despite its balletic awkwardness, it is a compelling psychological thriller, with interesting ideas about doubles and doppelgangers. Mr. Aronofsky cleverly depicts how emotional stress distorts Nina's visual and mental faculties. She experiences imaginary events, has hallucinatory visions of herself and thinks she is literally turning into a swan. Her increasing psychosis and inability to distinguish between her life and her art are unsettling, and there are moments of real menace, such as when she seems to suffocate herself. The film's horror sequences are also compelling, with Winona Ryder as an aging, psychotic ballerina and Mila Kunis a sensuously menacing rival. Dan Schrecker's special effects reinforce the tension, especially the sequences where the ever-present mirrors ratchet up Nina's growing paranoia."Black Swan" would be a much better film if its ballet scenes were as good as its psychological ones. Given its blue-chip dance team, it is surprising they aren't. As well as several eminent retired dancers, including the late Georgina Parkinson, the film enlists an able corps from the Pennsylvania Ballet, plus the New York City Ballet star Benjamin Millepied, who both appears in the film and choreographed its dance scenes. Mr. Millepied shines when he is dancing, but little of his artistic refinement has transferred to the film's representation of ballet."Swan Lake" is the most famous ballet of all time. It was made in Russia in the late 19th century with a sumptuous score by Tchaikovsky. It draws on an old German myth of a woman who is transformed into a swan by an evil sorcerer and can only be released by the promise of true love. A prince provides this promise but is duped into betraying it. The ballet is an allegory; it's about the promises we make and how easily we break them, and the transformative power of love, as well as our twin natures—the good and the bad—and the difficulty of reconciling the two. It requires exceptionally able dancers with both strong balletic technique and first-rate acting. It is both a cracking story and a robust work of art that can flex and give way to endless reworkings. Mr. Aronofsky's film is the latest of many reinterpretations, and if it weren't for the crashing balletic clichés, it would be an interesting urban update of the story. It also shows that, for all our supposed modernity, the old ballets still compel our attention best.Write to                 Sarah Frater at wsje.weekend@wsj.com</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2011-11-25</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>China's Children of the Revolution</t>
+          <t>A Monarch Dethroned</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The Saturday Essay</t>
+          <t>Bookshelf</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1236,17 +1253,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2011-11-26</t>
+          <t>2011-01-25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Spill Casts Pall Over Brazil Oil Patch</t>
+          <t>Private Equity Returns to IPOs</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Deals &amp; Deal Makers</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1254,17 +1271,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2011-11-27</t>
+          <t>2011-01-25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Euro Zone Weighs Move to Tighten Fiscal Ties</t>
+          <t>Churches Find the End Is Nigh</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Europe Business</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1272,17 +1289,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2011-11-28</t>
+          <t>2011-01-25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Stalin's Daughter Lana Peters Dies at 85</t>
+          <t>Fred Siegel: How Public Unions Took Taxpayers Hostage</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Remembrances</t>
+          <t>Opinion</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1290,17 +1307,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2011-11-28</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fitch Cuts Its Outlook on U.S. Credit</t>
+          <t xml:space="preserve">More Small Businesses Become Multinationals </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Markets</t>
+          <t>Small Business</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1308,17 +1325,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2011-11-13</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>How to Figure Internet Home Values</t>
+          <t>Matthew J. Slaughter: Comparative Advantage and American Jobs</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sunday Journal</t>
+          <t>Opinion</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1326,17 +1343,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2011-11-13</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What the Websites Get Right and Wrong</t>
+          <t>Procedure Shift Upset BP Team</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1344,17 +1361,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2011-11-13</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Best Advice From Those Who Took It</t>
+          <t>Housing Woes Fuel Apartment Surge</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Small Business</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -1362,17 +1379,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2011-11-11</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Welch to Transfer Out of Chancellor</t>
+          <t>Jenkins, Jr.: What Caused the Bubble?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Business World</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1380,35 +1397,39 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2011-11-11</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Libya Speeds Oil Output</t>
+          <t>The Duchess of Dish</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>In the 1960s I often stayed at the  Beverly Hills home of the movie star  Rosalind Russell and her husband,  producer Frederick Brisson. On sunny mornings at the patio breakfast table, amid the smell of coffee and the scent of bougainvillea, we would work our way through the stack of newspapers and "trades"—the Hollywood Reporter and Variety.Stories of interest about movies or show business, or mentions of friends (or enemies), were already marked in red ink by Mr. Brisson's secretary. Hedda Hopper's gossip column in the Los Angeles Times and Louella Parsons's competing column in the Los Angeles Examiner were invariably circled, checked, arrowed or marked with exclamation points. The golden age of Hollywood studios and stars was doing a slow dissolve, but serious attention was still paid to these  columns by thousands of film-industry Los Angelinos with career fish to fry. Millions of Americans who had no  personal stake in the movie business read the columns in syndication."Hedda Hopper's Hollywood: Celebrity Gossip and American Conservatism" by Jennifer Frost brought me back to those breakfasts with the Brissons almost 50 years ago. It also gave me indigestion.Ms. Frost covers the biographical outlines of Miss Hopper's life efficiently; it's the second part of the book's subtitle that gives the game away. The author, whose previous book was "An Interracial Movement of the Poor: Community  Organizing and the New Left of the 1960s," is most interested in tearing down Miss Hopper because of her proudly conservative views.But first let's get to the facts of Hedda Hopper's life. Born Elda Furry in 1885, she grew up with strict Quaker parents in a middle-class family of seven children in Altoona, Pa. She was pretty, smart, outgoing and strong-willed. She could hardly wait to get out of town. In her teens, she ran away to join a vaudeville troupe. She became a chorus girl and used the last name Curry because she thought "Elda Furry" made her sound like a "small blonde animal." She eventually landed as an actress on the stage in Manhattan.She married De Wolf Hopper, a well-known stage star, in 1913, when she was 28 and he was 55. De Wolf already had four ex-wives. The couple had a son, Bill (later a successful TV actor), and were divorced in 1922 when the boy was 7. By then she was using the name Hedda Hopper and had made several trips to work in Hollywood. She settled there, a single mother, in the 1920s. She did well as an actress, making 140 movies and often commanding a  salary of $1,000 a week, but she was never successful enough to insulate her career from the ups and downs of the economy. She cast about for another, more reliable, line of work. Well-known in Hollywood circles, she had the inside skinny on who was doing what to whom and so decided to write a gossip column, even if that meant competing with her friend Louella Parsons.Cissy Patterson, the owner of the Washington Herald, hired Hopper in 1935 to write a "letter from Hollywood." Three years later the column was picked by the Los Angeles Times and syndicated. Soon she had millions of fans.Louella Parsons was not among them. The conventional wisdom—that she hated Hedda Hopper—was accurate. I worked for Miss Parsons (as I still think of her) two days a week in 1962-63 at her home on North Maple Drive in Beverly Hills. One morning she flew in from her bedroom down the hall clutching a crumpled Hedda Hopper  column from the morning's Times. She was so mad that she could barely speak. She had been beaten on some story or other. All Miss Parsons could say, as she threw the ball of paper into the fireplace, was "that bitch, that bitch."Others in Hollywood disliked Hedda Hopper because she was a political and moral conservative with libertarian leanings; an anticommunist who didn't like  FDR or the welfare state or left-wing  actors like Charlie Chaplin. She loathed Chaplin for his politics and his womanizing, or more accurately his girlizing, since he preferred romancing teenagers. She was not shy about weaving her moral and political views into her columns. She was hated for it by the Hollywood left. Jennifer Frost apparently feels a similar animus. The author's curled-lip book dedication tells you what Ms. Frost thinks of her subject: "For my Mother Ann B. Frost, who—thank goodness—was nothing like Hedda Hopper either personally or politically."If you love rich prose and good story-telling and you are looking for a well-crafted narrative about the culture of Hollywood and its influence on politics, this book is not for you. Reading it is like trying to eat rice pudding at the old Brown Derby the day the cook forgot the raisins, the sugar and the cinnamon. Ms. Frost, a self-described "women's historian," brings the intellectual habits of the faculty lounge to her work, searching for evidence of racism, sexism and red-baiting under every pebble, however tiny. She was supported in these efforts by university grant money.I liked Louella Parsons and when I got to know Hedda Hopper, I liked her as well. They were both tough, funny,  colorful and ambitious women who took the gifts that God gave them and created value for themselves in the difficult, masculine and very different world of 20th-century journalism. They did it themselves. No grant money.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2011-11-11</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>For an Actor, Envy and Insecurity Don't Require Much Acting</t>
+          <t>Egypt Shuts Down Internet Services</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Theater</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1416,35 +1437,39 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2011-11-11</t>
+          <t>2011-01-17</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A Rapper Who Also Sings</t>
+          <t>Aaron Friedberg: The New Era of U.S.-China Rivalry</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The Interview</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>Opinion Asia</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>When he meets with President Barack Obama this week, China's paramount leader Hu Jintao will probably be looking to soothe concerns over his country's recent behavior. The last two years have seen a marked increase in tensions between the two Pacific powers, as well as between China and many of its Asian neighbors. In the past 12 months alone Beijing has:• Shielded North Korea from tough international sanctions, despite Pyongyang's unprovoked sinking of a South Korean naval vessel and deadly shelling of a small island;• Intensified its long-standing claim to virtually all of the resource-rich South China Sea by suggesting that the region was a "core national interest," a term previously used to refer only to areas (like Tibet and Taiwan) over which China is willing to go to war.• Declared publicly that, when it comes to resolving competing claims over this region "China is a big country and other countries are small countries, and that's just a fact."• Threatened for the first time to impose sanctions on U.S. companies that participate in arms sales to Taiwan.• Conducted unprecedentedly large and complex naval exercises in the waters of the Western Pacific.• Revealed the existence of a new stealth fighter aircraft.• Begun initial deployments of a new antiship ballistic missile targeting U.S. aircraft carriers in the Western Pacific.Not surprisingly, all of this activity has stirred anxiety across Asia, and it has begun to provoke responses from the United States as well. President Obama's recent swing through Asia included stops in India, Indonesia, South Korea and Japan, but it pointedly excluded Beijing. American and Japanese defense officials have since announced their intention to devote more resources to counter China's rising power, and the U.S. and South Korea have enhanced their military cooperation. Despite a history of animosity, Seoul and Tokyo have taken steps in the same direction.Beijing's behavior has thus triggered reactions that could make it harder to achieve its long-term goal of re-establishing China as the dominant power in East Asia. A well-timed campaign of "smile diplomacy" could help. But how meaningful will any of this week's theater be? The answer depends in large part on what lies behind China's recent assertiveness. Some Western analysts have sought to explain it away as an incidental by-product of political infighting in the run-up to the planned 2012 leadership succession, or a passing outburst of belligerence by some elements of the People's Liberation Army. Cooler heads have now prevailed, we are told, and they are now trying to put the country back on the less confrontational path it has followed for the past three decades.Unfortunately, the problem is more deeply rooted than these reassuring assertions suggest. While Chinese leaders may disagree on questions of tactics and timing, there is no reason to believe they differ over fundamental questions of strategy. Beijing may be willing to dial back its rhetoric, but it is not going to abandon its goal of regional preponderance. Since the start of the 2008-09 financial crisis, many Chinese strategists have concluded that the U.S. is declining, while China is rising much faster than expected. Belief that this is the case has fed an already powerful nationalism that appears to be increasingly widespread, especially among the young. In this view it is time for China to "stand up," to right some of the wrongs suffered when the country was relatively weak, and to reclaim its rightful role in Asia and the world. Such sentiments are not the exclusive preserve of the military, although it may seek to tap them for its own ends. The rising generation of Chinese leaders cannot afford to ignore these views, and they may well share them.If this assessment is correct, then the last two years are not a temporary deviation but a portent. Rather than signaling the start of a new interval of cooperation and stability, Hu Jintao's visit may mark the end of an era of relatively smooth relations between the U.S. and China.Mr. Friedberg is a professor at Princeton University. His new book, "A Contest for Supremacy: China, America and the Struggle for Mastery in Asia" is forthcoming from W.W. Norton.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2011-11-11</t>
+          <t>2011-01-19</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Multiple Personalities at Play</t>
+          <t>Tucson Video Shows Judge Saving Other</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Reviews</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1452,17 +1477,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2011-11-12</t>
+          <t>2011-01-25</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Best-Selling Books, Week Ended Nov. 6</t>
+          <t>Assembled Elsewhere</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Best Selling Books</t>
+          <t>Bookshelf</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1470,17 +1495,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2011-11-12</t>
+          <t>2011-01-21</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>No Need to Gripe About Tripe</t>
+          <t>Beyond Ideology</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bookshelf</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -1488,17 +1513,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2011-11-12</t>
+          <t>2011-01-22</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Skirt Steak With Spinach and Jerusalem Artichoke Smash</t>
+          <t>In Turkey, a Beauty Contest—for Camels</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Slow Food Fast</t>
+          <t>World</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -1506,17 +1531,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2011-11-12</t>
+          <t>2011-01-22</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jazzing Up the Bird</t>
+          <t>Obama Tries the GE Way</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cooking &amp; Eating</t>
+          <t>Economy</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -1524,17 +1549,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2011-11-10</t>
+          <t>2011-01-22</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sotheby's Sells Group of Clyfford Still Paintings for $114 Million</t>
+          <t>Structure Keeps Mafia Atop Crime Heap</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Art</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -1542,17 +1567,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2011-11-08</t>
+          <t>2011-01-22</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PPR Buys Menswear Brand Brioni</t>
+          <t>Chief Seeks More Agile Google</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Deals &amp; Deal Makers</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -1560,17 +1585,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2011-11-07</t>
+          <t>2011-01-24</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Disney, YouTube Team Up</t>
+          <t>Out of Office, Seeking Second Act</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Your Executive Career</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -1578,12 +1603,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2011-11-08</t>
+          <t>2011-01-26</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>China Approves Yum Brands' Deal</t>
+          <t>EU Blocks Greek Airlines' Merger</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1596,17 +1621,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-28</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Paneed Rabbit With Citrus, Sage and Caper-Butter Sauce</t>
+          <t>Luggage: An Open and Shut Case</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Slow Food Fast</t>
+          <t>Tina Gaudoin on Style</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -1614,17 +1639,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2011-11-04</t>
+          <t>2011-01-28</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>China Singled Out for Cyberspying</t>
+          <t>Goldman Star Rises in New Position</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -1632,17 +1657,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2011-11-04</t>
+          <t>2011-01-28</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A Dark Night of the Soul</t>
+          <t>Small Trader Makes Big Waves</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commodities</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -1650,17 +1675,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Drug War Boosts Ex-General</t>
+          <t xml:space="preserve">The Rehab Album </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Arts &amp; Entertainment</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -1668,17 +1693,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Best-Selling Books, Week Ended Oct. 30</t>
+          <t>Toyota Recalls Lexus Models</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Best Selling Books</t>
+          <t>Autos</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -1686,17 +1711,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tree Climbing's Natural High</t>
+          <t>Thomas, Hennessey and Holtz-Eakin: What Caused the Financial Crisis?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gear &amp; Gadgets</t>
+          <t>Opinion</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -1704,17 +1729,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2011-11-04</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kirin Takes Over Brazil's Schincariol</t>
+          <t>Charm and Do Business Over Dinner</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Asia Business</t>
+          <t>Tricks of the Trade</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -1722,17 +1747,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Post-Storm Death Toll Rises</t>
+          <t>Banks Get Tough With Municipalities</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>New York Region</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -1740,17 +1765,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Agency Names Top Global Banks</t>
+          <t>Whatever You Do, Don't Buy an Airline Ticket On …</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>The Middle Seat</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -1758,17 +1783,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ailing Italy Accepts IMF Monitoring</t>
+          <t>Chinese Firms Set Sights on U.S.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Global Finance</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -1776,39 +1801,35 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Giving Pedicabs a Shot</t>
+          <t>How to Talk Back to a Chinese Master</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Metro Money</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>The other day, a businessman braving the storm in his windbreaker was desperately trying to hail a cab on Sixth Avenue when he was approached by grinning pedicab driver. "It's raining! It's rush hour!" said the driver. "I'm your best bet!"The businessman waved him off. From the expression on his face, you'd think he'd been invited to board the Titanic.It's a familiar scenario for Gregg Zuman, a pedicab driver and owner of Revolution Rickshaws. He often pedals up to the taxi stand at Penn Station to cajole the long line of shivering commuters with his well-worn pitch: "Anywhere in Midtown in 10 minutes, or it's free!" He gets few takers—most folks would rather wait for a yellow cab than board his three-wheeled rickshaw. "It's a comedy of the absurd," he says.Mr. Zuman, who also heads the NYC Pedicab Owners' Association, blames fear of the unknown. When it comes to pedicabs, he says, folks are "insecure and freaked out." I prefer the more obvious explanation: Pedicabs are expensive, and make you look like a tourist. Also, riding a rickshaw comes off as a little one-percenty—and these days, that's not cool.Still, Mr. Zuman says the most sophisticated New Yorkers—executives who can't afford to miss a meeting or the 7:16 train to Greenwich—are his best customers. When you're in a hurry, he promises, there's no better way to get around Midtown.It's an option worth considering, especially as the holidays approach. Midtown traffic averages less than eight miles per hour, and according to DOT studies, weekdays in November and December are especially slow. So what's the best way to zip through Midtown? I mapped out three short routes to pit taxi against pedicab, and added a third test option—lacing up my sneakers and running like hell.The first test route, "Laptop Emergency," ran from The Wall Street Journal's offices at 47th and Sixth to the Apple Store on Fifth Avenue. The second, "Let Me Talk to My Lawyer," went from the Four Seasons restaurant on East 52nd to the law offices of Morgan, Lewis &amp; Bockius at Park and 40th. The final test, "Commuter's Delight," shot across town from Grand Central to Penn Station. I completed all three circuits at rush hour, wearing a Banana Republic pencil skirt and lugging a 10-pound work tote.Turns out there's a reason you don't see many runners in Midtown: The sidewalks are so crowded, it's impossible to break out of a shuffling turkey trot, and jogging with a work bag is murder on your shoulder. It took eight minutes to run three-quarters of a mile to the Apple Store.I made better time booking down Park Avenue to the law firm, despite an ill-considered shortcut through the MetLife lobby that landed me in commuter-mobbed Grand Central. The subsequent run to Penn Station felt like a video-game adventure, featuring hot dog carts, scaffolding and flyer guys.Still, jogging through Midtown is oddly thrilling, and in chilly weather, sweat is not an issue. I covered the 2.6-mile, three-stop circuit in 28 minutes, and the journey was free.Retracing the route by taxi produced an interesting finding: a cab in Midtown travels at the exact same speed as a 30-something jogger dressed for the office. But I had to wait around for the cabs, which added four minutes. The other important difference: $28 in fares.I knew the pedicabs would be even more expensive. Rickshaw rates aren't regulated, and some drivers post outrageous fares in tiny print—as much as $3 a block, per passenger, plus a $5 boarding fee. Careless tourists get stuck paying $90 for a jaunt downtown.The fares might be justified when the operator really hustles, but my first experience disappointed. The driver trundled up Sixth Avenue in a dreamy fashion as cabs, trucks, and three-toed sloths sped by on either side. I considered asking him to pick it up, but that felt a little too British Empire—this was a human being powering the bike, not a combustion engine.Besides, he was probably barely scraping by. While the pedicab business is the ultimate low-cost start-up (a used cab with a permit runs about $5,000), it's a tough, low-wage occupation. Over the last decade, the number of operators has grown 10-fold to more than 700, and industry veterans say they're up against hordes of student drivers lured from Eastern Europe by a handful of big fleets. Heidi Benedikt, the former tugboat captain behind Ponycab.com, says she's given up on street fares in favor of booking weddings and TV shoots. "They chased us old-timers out," she says. While slick operators conducting Central Park tours can make $1,000 on a double-shift Saturday, the street guys might earn $100 a day, and many pay $40 per diem to rent their cabs. When my driver dropped me off at the Apple Store and demanded $19 (triple the cost of the taxi), I felt only slightly ripped off.The second pedicab test was a bust. There was not a single rickshaw operating within a block of Park Avenue. Many pedicabs, it turns out, ply a north-south route along Fifth and Sixth avenues, with occasional stops at the train stations. It was the $13 jaunt from Grand Central to Penn Station (negotiated in advance after I finally wised up) that proved the pedicab's worth. I can barely read my notes from the ride: The bearded driver was a total maniac. He made clever use of all three lanes in his breathtaking dash along 42nd Street, cutting off cars and trucks with verve and confidence. He plowed through the pedestrian herd crossing Broadway like a bowling ball. And he got me to Penn Station in 10 minutes flat—two minutes faster than the competition. Had I been 007 speeding across town to deactivate a dirty bomb, those precious seconds would have been well worth the $13. As it stands, I made it back to the office in time for my 5:30 decaf, and that is priceless.</t>
-        </is>
-      </c>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Virgin America Reservation Changeover Creates Bumpy Ride</t>
+          <t>Hulu Plots New Script</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -1816,17 +1837,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Marathon Freeloaders Have Few Fans</t>
+          <t>Loft Living in Jersey City</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>N.Y. House of the Day</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -1834,35 +1855,39 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Beginning of the End </t>
+          <t>Fritz Lang's Western Union</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bookshelf</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>"They never stop the struggle," Fritz Lang, the towering figure in German cinema, once remarked of his characters. The 22 films in Film Forum's new retrospective "Fritz Lang in Hollywood"—which includes iconic noirs, darkly etched wartime thrillers, chiaroscuro westerns and inventive melodramas—have often been underappreciated. But many reflect Mr. Lang's superbly controlled visual style and preoccupation with a labyrinthine world in which individuals battle bleak internal and external forces.Mr. Lang tackled his Hollywood projects with characteristic intensity. Reached by phone, the director Peter Bogdanovich, whose extensive interview with Mr. Lang appears in his book "Who the Devil Made It" (1997), noted: "He saved newspaper clippings as a way of studying the country and a way of getting ideas for stories, and he was kind of a history nut. And there's no question he was a brilliant director."Born in Austria in 1890, Mr. Lang rose to fame in the Berlin film industry, where he conjured up such dark visions as his ground-breaking sound film "M" (1931). After Joseph Goebbels reportedly solicited the filmmaker's help with propaganda films, Mr. Lang fled Germany, but his wife and collaborator, Thea von Harbou, stayed behind and worked for Hitler. He directed one film in France before arriving in the U.S. under contract to MGM. Over two decades, he worked for numerous major Hollywood studios. The first movie Mr. Lang made on these shores, "Fury" (1936), stars Spencer Tracy as a man who, after nearly being lynched, lusts for revenge. The scenes depicting a raging mob and the joyfully rapt faces in the crowd watching a building burn in silence are unforgettable, as is the ambiguous role played in the events by newsreel photographers. Mr. Lang's next film, "You Only Live Once" (1937), has been called a precursor to Jean-Luc Godard's "Pierrot le Fou" (1965) and Arthur Penn's "Bonnie and Clyde" (1967). Mr. Lang's loathing of Nazism fueled a quartet of thrillers: "Man Hunt" (1941), "Hangmen Also Die!" (1943), "Ministry of Fear" (1944) and "Cloak and Dagger" (1946). In the throat-gripping "Man Hunt," warmth and savagery vie for domination. Rifleman Capt. Alan Thorndike (Walter Pidgeon) tries to assassinate "strutting little Caesar" Adolf Hitler, and is tortured (the violence, typically for Mr. Lang, taking place offscreen). He escapes to England only to flee ever-present fascists with the aid of a Cockney girl played indelibly by Joan Bennett.As wartime shadows lengthened, fatalistic fables like "The Woman in the Window" (1944) and "Scarlet Street" (1945), both starring Ms. Bennett and Edward G. Robinson, increasingly defined the noir style. "The Big Heat" (1953) is an explosive masterpiece, with Glenn Ford as a detective whose beloved dies in an inferno, and Gloria Grahame as a gangster's girl who is heartbreakingly insouciant even after her boyfriend (Lee Marvin) scars her face with hot coffee.Mr. Lang especially relished making westerns. In "The Return of Frank James" (1940), "Western Union" (1941) and "Rancho Notorious" (1952), he approached the genre with an immigrant's sensitivity to the stark landscapes and moral code associated with Western mythology, which he conveyed through color and shadow. "He associated the Western with the myths of Germany," Mr. Bogdanovich said. "He thought that it was like the American Nibelungen." Perhaps the most intriguing is "Rancho Notorious," starring Marlene Dietrich as the proprietress of the outlaw haven Chuck-a-Luck. The lyrics of its recurring ballad, Mr. Bogdanovich said, "basically could apply to almost any Lang film: 'Listen to the legend of Chuck-a-Luck. Listen to the wheel of fate, as round and round with a whispering sound it spins the old, old story of hate, murder and revenge.' Well, almost all of his pictures were about fate, hate, murder and revenge."Film Forum's series, which starts a two-week run on Friday, also includes "Moonfleet" (1955), a swashbuckler shot in CinemaScope—which Mr. Lang famously said was good only for snakes and funerals—as well as flawed, haunting tales that deserve another look, such as "Secret Beyond the Door" (1948) and "The Blue Gardenia" (1953). One of Mr. Lang's last stateside films, "While the City Sleeps" (1956)—about cynically competitive newspapermen pursuing a glassy-eyed serial killer—was also one of his most scathing. He would soon abandon filmmaking in Hollywood, a passionate perfectionist frustrated by battling for control. He died in 1976 at age 85. Mr. Bogdanovich recalls Mr. Lang as a lonely man toward the end: "When Hitchcock first came to prominence, he was called the English Fritz Lang. And in later days Lang was referred to as the German Hitchcock."</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Oppenheimers Farewell DeBeers</t>
+          <t>Larry Summers vs. the Tiger Mom</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Deals &amp; Deal Makers</t>
+          <t>Davos Dispatch</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -1870,17 +1895,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dippin' Dots Tries to Avoid Meltdown</t>
+          <t>Soaking the Rich: An American Tradition</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Life &amp; Style</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -1888,17 +1913,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-29</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Portrait of a General</t>
+          <t xml:space="preserve">Allysia Finley: 'The City With a Bright Future'—$80 Million in the Hole </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Graphics</t>
+          <t>Cross Country</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -1906,17 +1931,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2011-11-05</t>
+          <t>2011-01-31</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Guys Enthralled by 'My Little Pony'</t>
+          <t>Unrest Rattles U.S. Approach in Region</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Life &amp; Culture</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -1924,17 +1949,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2011-11-06</t>
+          <t>2011-01-31</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pipeline Protesters Encircle White House</t>
+          <t>Massey Sale Marks End of an Era</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Deals</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -1942,17 +1967,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2011-11-02</t>
+          <t>2011-01-31</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Douglas J. Feith: Israel Should Be a U.S. Campaign Issue</t>
+          <t>Syria Strongman: Time for 'Reform'</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Opinion</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -1960,17 +1985,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2011-11-02</t>
+          <t>2011-01-31</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>At Jazz Standard, New Orleans's Loss Is New York's Gain</t>
+          <t>What Happens in the Dark</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>New York Culture</t>
+          <t>Bookshelf</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -1978,35 +2003,39 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2011-11-02</t>
+          <t>2011-01-31</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Many Rich Chinese Consider Leaving</t>
+          <t>Morgan Stanley CEO Survives a Rough First Year</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>Boss Talk</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Gorman, chief executive of Morgan Stanley MS -2.32%decrease; red down pointing triangle, can be a dark optimist."We'll all end up in the ground, so you might as well enjoy the ride," Mr. Gorman said in an interview last week while raising the blinds in his 40th-floor office at the securities firm's New York headquarters.The ride for Mr. Gorman has been bumpy since he took over as CEO at the start of 2010. The 52-year-old Australian has gotten an earful from skeptics who don't believe he can fix Morgan Stanley's bond-trading operation or rev up earnings with the retail-brokerage joint venture formed with Citigroup Inc.'s C -2.80%decrease; red down pointing triangle Smith Barney unit in 2009."My confidence isn't diminished," he said while sitting near of a pair of boxing gloves signed by Muhammad Ali and a framed 2001 newspaper profile dubbing him "Mr. Optimistic."A 35% profit jump in the fourth quarter was seen by many analysts as a sign of progress in turnaround efforts that include shuffling top executives and shedding lackluster businesses.Mr. Gorman cautioned that the most important parts of his strategy still face a tough slog. The brokerage operation must ride out choppy markets and difficult integration before it can hit his goal of 20% profit margins. "If we had a six- to nine-month delay and end up with a well-integrated, world-class, largest wealth manager in the world, I could care less whether people think that somehow we missed a beat," he said. Other excerpts of the interview:WSJ: You just completed your first year as CEO. How did you feel about the results?Mr. Gorman: I feel pretty good. Clearly, there's a lot more to be done, but I don't mind the cards we're playing with.WSJ: Why is your stock trailing peers?Mr. Gorman: The investor base has had a pretty difficult few years with this industry. So you can't fault them for being guarded. And then we had a loss in the third quarter. The Street wants to see consistency, no new mistakes. They want to see Smith Barney is a smart move, and they want to see evidence of progress across our fixed-income businesses.WSJ: Why has fixed income been so tough to turn around?Mr. Gorman: We have never had the kind of foreign-exchange business that the global [commercial] banks have had. And we've focused less on building pure flow, client-driven businesses where you need more people. We've reasserted our identity around those client businesses. What we're doing strategically is going back to the future. It's a sweet spot where we're very comfortable.WSJ:What's the time frame to get the business where you want it?Mr. Gorman: We're expecting it to be one to two years from now.WSJ: How do you respond to those who say Morgan Stanley can't compete against the global commercial banks?Mr. Gorman: They don't actually understand our business. That kind of thinking has led to impulsive transactions that you wouldn't applaud at this point. Shareholders don't care about the total size of the institution. They care about the return they're getting.WSJ: You've recently been critical of Wall Street pay packages. Where do you stand now?Mr. Gorman: They got out of balance. They're back in balance. I'm perfectly happy with people making a lot of money if they're talented and they generate real revenues.WSJ: How do you respond to politicians and others who claim traders make too much money for the social utility they  provide?Mr. Gorman: Trying to define specific jobs as social utilities is a little spurious. There are lots of industries—pure entertainment industries—that some would argue are not socially useful at all, and we should all be out digging trenches all day long.That I kind of dismiss as political rhetoric. People who say trading activities don't have social utility don't understand the fundamentals. Is it not a good outcome for the airline industry to be able to hedge its fuel costs? The trader can help them.WSJ: Are regulators too involved in compensation?Mr. Gorman: They're trying to ensure that you don't compensate people such that it threatens your safety and soundness. It's appropriate. We're in this together.WSJ: What do you think of the Volcker Rule?Mr. Gorman: I'm not a fan. I think the way to achieve what the Volcker group is trying to achieve is through capital requirements. My concern there is that it doesn't get interpreted so broadly that it affects legitimate client business.WSJ: What was your reaction to the burst of investor interest in the recent private-share sale by Facebook?Mr. Gorman: Honestly, I didn't spend very long thinking about it. Facebook is a fascinating institution. They had a creative transaction, but it proved to be challenging given the market environment. Either the appearance of the transaction or its demise or reconstitution didn't feel like that big a deal.WSJ: You made a big bet on the U.S. retail investor with the Smith Barney joint venture. Are you still bullish on the U.S. stock market?Mr. Gorman: Absolutely. We've had a rough spot and we have a deficit problem, but it is still the harbor of entrepreneurialism and innovation.During the last year or two, different people have told me the retail investor is gone for 10 years. It's ridiculous. Investors need to protect their retirement. They need a balanced portfolio to get them there.WSJ: Some traders have questioned why brokerage businesses pay a higher percentage of their revenues to employees than trading desks do.Mr. Gorman: I'm shocked. For better or for worse, the brokerage business is a lower capital, more stable revenue model. It's been that way forever. In fact, it's the reason brokerage businesses have tended to trade at higher multiples.Brokerage also has an enormous number of support staff who have to be paid, and that also goes into the percentage.WSJ: You are Morgan Stanley's chief executive, while John Mack, the former CEO, is chairman. Do you recommend a CEO/chairman split for other banks?Mr. Gorman: It's a pretty exceptional circumstance. I was a brand new CEO, so it helped me. And we like each other.Here was a guy who'd been at the firm for 30 or 40 years and had tremendous relationships. I'd only been here for four years. If it weren't John, it might not have worked. So I wouldn't say this is necessarily a good model for financial institutions.WSJ: Mr. Mack has said he'll stay chairman as long as you want him. How long do you want him to stay?Mr. Gorman: I'm collaborative by style. I'm not going to walk in and say your number's up. We initially said it would be probably two years, and we're halfway through that period. When he's in the office, we talk every day or we have lunch. It's all good.WSJ: How big of a challenge is it to meet everyone who wants to meet you as CEO?Mr. Gorman: I pitched for 450 client meetings last year. I flew to China for a 20-minute meeting and then got on a plane and flew back. It was right for me to do it, and we got the deal.WSJ: How does the recent financial crisis shape your thinking?Mr. Gorman: We're very focused on making sure that whatever happens, whatever scenario, we have a fortress-type operation. I don't think that was the mindset in the mid-2000s anywhere on the Street. </t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2011-11-03</t>
+          <t>2011-01-31</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>High-Stakes Move by Greek Leader</t>
+          <t>Designers Whip Up Fashions Out of Food</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Fashion</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -2014,20 +2043,2778 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2011-11-03</t>
+          <t>2011-01-31</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MF Global CEO Corzine Hires Lawyer</t>
+          <t>Interview With Syrian President Bashar al-Assad</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>Middle East</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2011-01-31</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Recovering a Legacy Lost in the 'Fire'</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Culture City</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>David Wojnarowicz's film "A Fire in My Belly" (1986-87) has been discussed at a macro level for months. Since November, when the National Portrait Gallery bowed to pressure and removed the work—or, more accurately, an excerpt with scenes depicting ants crawling over a crucifix—from its show "Hide/Seek: Difference and Desire in American Portraiture," the central issues have been censorship, the government's role in the arts and taxpayer funding.By now, the work, which is regarded as an expression of the artist's outrage and grief over the AIDS epidemic, has been viewed widely: Soon after the secretary of the Smithsonian, G. Wayne Clough, pulled the film from "Hide/Seek," art institutions around the country requested loaner DVDs from New York's PPOW Gallery, which represents the artist, and displayed them in a show of solidarity. The Museum of Modern Art then acquired the work and put it on view earlier this month.Amid the controversy, the people closest to the artist's estate say the film and its creator have been too narrowly interpreted. So it's time for the micro: Why did Mr. Wojnarowicz make the film—which has circulated in three different versions—and when? Mr. Wojnarowicz's papers are housed in the Downtown Collection of New York University's Fales Library. Head librarian Marvin Taylor acquired the artist's estate for the library in 1997, and he has overseen its preservation with media specialist Brent Phillips. In consultation with the executor of the estate, Tom Rauffenbart, they have created a fact sheet to address a series of alleged inaccuracies that have been "reported and reprinted/posted."According to their research, "A Fire in My Belly"—which was made on Super8 mm film and is not, contrary to media reports, a "video"—predates Mr. Wojnarowicz's discovery that he was HIV positive, which Mr. Rauffenbart said occurred in March 1988. "The film was shot before David was diagnosed and before he got involved with the AIDS movement," said Mr. Rauffenbart, who was the artist's partner for seven years.Considered in a broader context, the film's footage of street scenes in Mexico and of various forms of fighting reflects the artist addressing themes of violence, individuality and the effect of culture on a child. "There is a tendency to limit his work to the anger over AIDS," Mr. Taylor said. "David talked about the 'One-Tribe Nation' in his writing. Anyone who stands outside that is alienated. If you don't fit in, then there are problems. That theme runs through his works. It became intensified in the work that is about AIDS.""Fire in My Belly" has two parts: The 13-minute reel and an additional seven-minute excerpt. The work as a whole came to be seen as solely reactive to the AIDS crisis, said  Messrs. Taylor and Phillips, due to the later uses of the seven-minute excerpt in another film—Rosa von Praunheim's "Silence=Death" (1989)—as well as the truncated version shown at the National Portrait Gallery and a subsequent version posted on YouTube.The version of the film shown at the Smithsonian was a four-minute edit of the seven-minute segment—with a soundtrack from a June 1989 audiocassette of an ACT-UP demonstration found in Mr. Wojnarowicz's papers. Smithsonian curators Jonathan Katz and Bart Everly made the changes with permission from Mr. Rauffenbart."In some ways, I'm OK with it. A great deal of it is his voice," said Mr. Rauffenbart, who was pleased that the National Portrait Gallery was putting up the show and that it included Mr. Wojnarowicz's work. This portion also includes the scenes of ants crawling on a crucifix that ultimately drew objections from the Catholic League and Rep. John Boehner, the speaker of the House.Regarding the crucifix scenes, Mr. Rauffenbart said they should be viewed in terms of Mr. Wojnarowicz's extensive use of Catholic imagery: "He had a positive image of Christ and had his own version of what Christ represents. He was tied to saints, too, that suffered and were martyred."Emphasizing the various ways the work can be interpreted, Mr. Taylor pointed out that these sections of film were listed (in a companion cutting script for the film) under the heading "Prostitution."The version on YouTube—with added music from "Plague Mass" by Diamanda Galas—was taken from "Silence=Death," but the master footage with the music was not among the artist's papers. "People went on YouTube and listened to the version with the 'Plague Mass,' which makes it a very different work," said Mr. Taylor.According to the library's fact sheet: "The most we can accurately say is that the footage [depicting the crucifix] was removed by Wojnarowicz from 'A Fire in My Belly' and given to [producer] Michael Lupetin for use in 'Silence=Death.'"Further linking "A Fire in My Belly" to the AIDS crisis was the popular belief that the film was intended as an homage to artist Peter Hujar, who died from AIDS complications on Nov. 26, 1987. Although Mr. Wojnarowicz was planning a film tribute to Mr. Hujar, the timing of "Fire in My Belly" raises questions about the artist's intentions: "David took a lot of the footage in 1986 before Peter got sick," Mr. Rauffenbart said. According to the fact sheet, the film "was not created as an homage to Peter Hujar. In fact, it is questionable if it was created as a response to AIDS."But at MoMA, the wall text that accompanies the film describes the history of AIDS and artists' responses, as well as the following: "Completed after the artist was diagnosed with HIV, the two-part project A Fire in My Belly is a meditation on mortality and suffering, referring, often in graphic detail, to death, social inequality, faith, and desire."Sabine Breitwieser, chief curator of media and performance art (who was traveling, but responded via e-mail), said the text is based on previously published information about Mr. Wojnarowicz's life.We may never know what the artist truly intended. What we do know is that this film has come a long way—from the fragile original 8 millimeter, to 16 millimeter, to DVD and archival master tape, to streaming video with additions and edited versions. Far from pigeonholing the artist, the protest has sparked widespread interest in his full body of work—early, late and repurposed.Write to                 Pia Catton at                 Pia.Catton@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2011-01-31</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Ho Drama Illuminates Hong Kong-Canada Ties</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Hong Kong News</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>As Hong Kong's media scrambled over the family feud that has beset the Ho gambling empire this week, the drama took on a different slant 8,000 miles away in Toronto. For Canada's leading national newspaper, The Globe and Mail, the story angle was clear: "Ho's Canadian kids set to take over casinos" read a headline on the front page of the paper's business section.Parochial? Maybe. But the tangled transfer of wealth from one generation to another highlights a Canadian quirk among the city's demographic. Thanks in part to a favorable immigration policy, a significant portion of Hong Kong's wealthy elite are Canadian passport holders or have strong ties to Canada, including two key players in the battle over Stanley Ho's inheritance.Pansy and Lawrence Ho, children of Mr. Ho's second wife, emigrated to Canada with their mother, Luucina Nam King-ying, in the 1980s. Lawrence Ho, who attended an elite Toronto private school, has a particular affection for the country's largest city -- he's a fan of the Toronto Maple Leafs, and in Hong Kong he's a regular participant in a local ice hockey league. Both he and another sister, Daisy Ho, are also among a number of high-profile Hong Kongers sitting on the board of governors of the Canadian Chamber of Commerce in Hong Kong.In fact, among the estimated 220,000-strong Canadian community in Hong Kong are several of the former British colony's most prominent business people. Most notable is the family ports to telecoms tycoon Li Ka-shing. Mr. Li, a Canadian citizen and reputedly the richest man in Asia, has significant business ties to Canada through investments in real estate and oil and gas in particular, though he has also been a major investor in the country's financial services sector. His sons Victor and Richard Li are also Canadian citizens. Richard, chairman of Hong Kong telecom giant PCCW, is a regular visitor to Canada, a significant donor to Canadian charities (in 2006, he gave 1 million Canadian dollars [about USD$998,951] to Canada's National Arts Centre, for instance), and his son Ethan was born there in 2009. Other prominent Hong Kong business people with connections to Canada include Michael Chan, chairman of ubiquitous fast-food retailer Café de Coral, who holds a degree from the University of Manitoba and spent much of his early career in Canada; and Allan Zeman, the "father" of the city's Lan Kwai Fong entertainment district, who was raised in Montreal, though he gave up his Canadian citizenship in 2008 when he became one of the few foreigners to take Chinese citizenship. In total, the size of the Canadian population here ranks Hong Kong as Canada's 17th largest city, just ahead of Saskatoon and Regina, the two largest cities in the province of Saskatchewan. The number of Canadian citizens in the city was boosted in the early and mid-1990s in the run-up to the handover of Hong Kong to China. At that time, Canada's immigration laws were favorable to people who invested significant funds in Canada.While holding two passports is tolerated by authorities in Hong Kong -- unlike in mainland China -- the practice led to political uproar in 2008 when Hong Kong-Canadian lawyer Gregory So was appointed to a key economic position in the city's government. Under intense media pressure, Mr. So was forced to forego his Canadian citizenship.Write to                                     Duncan Mavin                 at duncan.mavin@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2011-01-31</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Rarity on West End Road</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>N.Y. House of the Day</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2011-01-16</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Why Apple's Best Days May Be Over</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Common Sense</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can things get any better for Apple?The stock has been a mainstay of my portfolio since I recommended it during the depths of the financial crisis. I have owned Apple shares and long-term options, including those I bought in 2009 with a strike price of just $50. I recommended Apple again last April, when shares were at $272. This week they hit $345. With Apple up nearly 80% since last February—and more than 400% since its 2009 low—the stock has single-handedly guaranteed that my portfolio has outperformed the major averages.This week, Verizon Communications announced that its 93 million subscribers will be able to buy the iPhone in February. I plan to be one of them. This development should bring a gusher of sales for Apple, which has been blowing away analyst estimates already. Its recent year-over-year earnings growth was 70%, on revenue gains of 67%. Its operating margin was 27%. Analysts are nearly unanimous in recommending the stock, even as it reaches new highs.The Apple-centric world I hypothesized when first recommending Apple shares has largely materialized, at least for me. I tote around my iPad and my MacBook Air, own an iPod and am typing this column at a work station with a large Apple desktop screen. I'm intrigued by Apple TV, and, as I said, hope soon to be brandishing an iPhone.I see only one problem: I'm not sure what worlds are left for Apple to conquer.I realize I'm in a minority, and that there are plenty of customers still to be wooed by Apple. But competition is stirring. At last week's Consumer Electronics Show in Las Vegas, a resurgent Motorola—which this month split into Motorola Solutions and Motorola Mobility Holdings—trumped Apple. Motorola Mobility's new Xoom tablet computer, designed to rival the iPad, was named "Best of Show," and the Motorola Atrix was named the best smartphone.Motorola's Xoom will be the first tablet to use Google's "Honeycomb" version of its Android operating system, designed specifically for the tablet market. CNET called it a potentially "disruptive technology" that "can literally and figuratively measure up against the iPad."The Atrix, which Motorola calls "the world's most powerful smartphone," docks into a laptop computer. It, too, has Google DNA, since it's powered by Android, though it will be available only with AT&amp;T.I haven't seen or used either product. But as much as I love the iPad, I can't say it is flawless. The screen has a lot of glare and collects fingerprints, and I'm still struggling to type emails on the oversensitive touch-screen interface. Having once written off Amazon's Kindle, I find I'm now lugging around a Kindle (for book reading), the iPad (for newspapers, magazines and lots of other wonderful apps), and the laptop (for email and writing). All of this has made me nervous as an Apple investor. As with any long-term holding, I'm always trying to assess threats from competitors, which in this case seem all too real. Nor am I convinced Apple enjoys a natural monopoly. I love Apple's products, but the company basically is a hardware company, and hardware companies are vulnerable to competition. So I realized the gains on my Apple options, which are expiring this month.I haven't given up on Apple. I still own shares and another set of call options that expire in January 2012. But the market recently hit one of my selling thresholds, and I feel comfortable taking some profits.The promising new products from Motorola Mobility could make it a good candidate for some of the proceeds. And I remain a strong believer in Google, which I own and have recommended in the past. </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2011-01-16</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>In Defense of the Western Mom</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>The Saturday Essay</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2011-01-17</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>U.K. in Marathon Session on Voting Bill</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LONDON—Makeshift beds and all-night refreshments are being set up in the U.K.'s House of Lords Monday, as peers in the upper chamber continue  a marathon session scrutinizing the coalition government's bill to hold a referendum on voting reform. Peers from the opposition Labour Party are trying to hold the bill up—a tactic known as a filibuster—because it also involves the redrawing of parliamentary boundaries, which the party says will favour the ruling Conservative Party.The government wants the upper house to approve the Parliamentary Voting and Constituencies Bill to ensure the legislation is passed in time for the referendum to be held May 5. The upper house has so far spent eight days trawling through the legislation, and at least three more days—potentially including all night sittings—are expected this week. According to the Electoral Commission, the bill must have received Royal Assent—the final step in the process of a bill becoming law—by Feb. 16, if the referendum is to be held on May 5. The progress of the bill is being closely watched because the referendum on electoral reform is at the heart of the coalition agreement between the Conservatives and their junior partners, the Liberal Democrats. The referendum will ask voters if they want to switch from the current first-past-the-post system, to the alternative-vote system where voters rank constituency candidates in order of preference. The Conservatives, the majority of whom are opposed to a change to the alternative vote, allowed the referendum as part of their power-sharing arrangement. However, it is the bill's second purpose—the resetting of boundaries—that has caused the most controversy. Many Labour lawmakers and peers in the  upper house favor voting reform, but won't support the bill because the redrawing of the boundaries will reduce the number of lawmakers in the House of Commons to 600 from 650, which they say is a major constitutional change. "This whole issue will be hard fought," Clive Soley, a Labour peer in the  upper house, wrote on his blog. "I think the government should also bear in mind that if we begin changing the number of MPs in Parliament without all-party agreement then other governments will do it in future—this is a slippery slope we are on." The  has taken the rare step of providing camp beds and refreshments for peers in need of a respite from the epic session—the last time such measures were needed was in 2003 during the passage of the Health and Social Care Bill, the upper chamber's information office said. Meanwhile, a ComRes poll for Sunday Mirror and The Independent on Sunday newspapers Sunday found 36% of those polled thought the alternative vote should be used instead of first-past-the-post, while 30% said it shouldn't and 34% were undecided. The poll also found that 61% of people could be persuaded to support changing the voting system when they had heard more of the arguments for and against. </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2011-01-18</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Yum Plans to Sell Seafood Chain, A&amp;W</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Asia Business</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Yum Brands Inc. is looking to sell its Long John Silver's and A&amp;W All-American Food Restaurants chains so that it can focus more on the international growth of its three larger brands—Taco Bell, KFC and Pizza Hut. Yum, which has more than 37,000 restaurants in its global system, plans to focus more on its flagship brands and their growth in China, India, South Africa and Russia. The company said Long John's, a seafood chain, and A&amp;W, which is known for its root beer, don't fit in with that long-term growth strategy, and it doesn't expect the eventual sale to have a material impact on its earnings or cash flow. Yum acquired Long John Silver's and A&amp;W in 2002 for $320 million. It's now shopping for a buyer for the two chains, which will likely be a private-equity firm. Analysts expect the price tag to be in the range of six times its operating income. The company didn't break out earnings for the brands and a representative wasn't immediately for comment. Steve West, restaurant analyst at Stifel Financial Corp., estimates Yum is getting less than $80 million in annual operating revenue and about $10 million in operating profit, which is less than 1% of its total operating profit, from Long John's and A&amp;W. The two brands also contribute just $1 billion in sales, Mr. West said. Mr. West said the decision to sell the two brands is "a good thing in that allows Yum to focus on their core brands and on their international growth." KFC and Pizza Hut, specifically, have much more international success and potential, he noted. "But overall, the sale isn't really a big deal. Not because the brands aren't worthwhile, but because it's Yum. They are so big they don't really need Long John's and A&amp;W distracting them." Yum's chairman and chief executive, David C. Novak, said, "We do not believe Long John Silver's and A&amp;W-All American Food restaurants fit into our long-term growth strategy."Long John's and A&amp;W account for 1,630 restaurants, and are largely U.S.-focused. Facing a ho-hum forecast in the U.S., Yum has been eyeing international expansion, particularly in China. Yum gets about 65% of its profit from China and its international division, up from 22% in 1998 when it was spun off from PepsiCo Inc. PEP -0.77%decrease; red down pointing triangle It expects that percentage to grow to 75% by 2015. Private-equity firms have been making waves in the restaurant sector, with acquisitions of Burger King, Carl's Jr. and Hardee's recently. Long John Silver's and A&amp;W are both all franchised, and that could make the chains an attractive investment for private equity since restaurant experience isn't necessarily required and there is a consistent revenue stream from royalty fees. The two brands, being similar in size and structure, will most likely be purchased together. But both are older brands, and could probably use some refreshing. A&amp;W dates back to 1919, and Long John Silver's was launched in 1969. "From a restaurant standpoint, neither has really reached its full potential," said Mark Kalinowski, restaurant analyst at Janney Capital Markets. "Maybe another owner could revamp it, but that's not necessarily easy." Long John Silver's is the only major seafood quick-service chain. "If new ownership could figure out a way to grow that category in general, Long John's in particular would hugely benefit," Mr. Kalinowski said. Yum reported in October that its fiscal third-quarter earnings rose 6.9% and the fast-food company raised its full-year outlook again. Write to                 Annie Gasparro at annie.gasparro@dowjones.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2011-01-20</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>A Short History of RICO</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>New York Politics</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2011-01-20</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Biogen, Elan Boost Prices Of MS Drugs</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2011-01-20</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Modern Living in Silicon Valley</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Photos</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2011-01-22</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>The Long History of British Disdain for America</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2011-01-21</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>China Increases Uranium Imports</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Asia Business</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2011-01-21</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Insider's Guide to Palm Beach, Fla.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Journal Concierge</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2011-01-22</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Avoiding the Road to PowerPoint Hell</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Word Craft</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2011-01-22</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Near a Small Island, a Gigantic Naval Clash</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2011-01-22</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surprise: Banks Ease Card Fees  </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Personal Finance</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2011-01-22</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Bjørn Lomborg: Does Helping the Planet Hurt the Poor?</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>The Saturday Essay</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2011-01-22</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Does Helping the Planet Hurt the Poor?</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Essay</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2011-01-22</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Criticism Dying? Not Online</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2011-01-22</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Pumpkin Soup With Mascarpone</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Slow Food Fast</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Since its 1987 opening, London restaurant River Café has been a gathering spot for the city's Who's Who (Tony Blair, Paul Smith). Yet it's the food that stands out.Ms. Rogers and her co-founder Rose Gray, who died last February, came into the restaurant business later than most. The two mothers with a shared a passion for authentic Italian cuisine started a venture that is credited with changing English dining. Ms. Rogers, originally from Woodstock, N.Y., says freshness is at the heart of everything the restaurant does. Produce is brought in twice a week from the central Milan market, menus are written twice daily and an open kitchen unites cooks and diners. "Whenever cooks comes to us with lots of experience we know they need to be taught to do things our way," explains Ms. Rogers. River Café has become a breeding ground for England's brightest culinary stars (Jamie Oliver and Hugh Fearnley-Whittingstall among them). Teaching staff about Italian food and culture is important at River Café. Each year, Ms. Rogers takes a group to Italy for the first olive oil pressing. "It is essential to everything we do," she says.For her second of four Slow Food Fast recipes, Ms. Rogers has adapted a pumpkin soup recipe from one of her and Ms. Gray's many cookbooks, "Italian Two Easy." Described by Ms. Rogers as "a sludge of smashed pumpkin and potato," the soup is in fact harmonious and deeply flavored.Ms. Rogers prefers roughly textured soups to silky ones. Here, pockets of peppery olive oil and dollops of creamy mascarpone dot the dish. In the thick of winter, an extra drizzle of grassy olive oil livens things up. The few ingredients Ms. Rogers calls for—canned tomato, potato and fennel seeds—work to enhance the pumpkin's musky-sweet flavor (note: butternut squash is a good substitute). The final dish should be thick enough to be eaten with a fork. A controlled amount of cooking liquid ensures that it is. To achieve the desired consistency, it's essential that you add just enough broth to cover the vegetables as they cook; any more liquid will dilute the soup's intensity and risotto-like consistency. Ms. Rogers simply instructs readers to make absolute sure all the vegetables are soft before mashing. Hardier and more satisfying than most soups, this dish only needs a salad or some bread to make a meal. Another word of advice: while it can be eaten with a fork, spoons are better for scraping.  2 tablespoons extra-virgin olive oil, plus more oil for finishing					
+					3 cloves garlic, peeled and smashed					
+					1 teaspoon fennel seeds, coarsely ground with a mortar and pestle or spice grinder					
+					7 whole canned San Marzano tomatoes, drained					
+					1 1½-2 pounds pumpkin or butternut squash, peeled, seeded and cut into ¾-inch cubes (yields 5¼ cups)					
+					3 medium potatoes, peeled and cut into ¾-inch cubes					
+					1¾ cup chicken stock					
+					½ cup grated Parmesan cheese					
+					2/3 cup mascarpone cheese1. In a medium pot set over low heat, heat 2 tablespoons olive oil with garlic and fennel seeds.2. Squeeze the tomatoes over the pot so as to break up the flesh and catch all juices in the pot. Cook over low heat, stirring often, for 8 minutes or until tomatoes begin to turn dark red.3. Turn the heat to medium-high and stir in squash and potatoes. Add enough chicken stock to just cover the vegetables and bring to a boil. Lower the heat and simmer for 35-40 minutes, stirring occasionally and checking that the vegetables are just submerged.4. Once vegetables are tender, remove pot from heat and mash with a potato masher. The soup should be thick and creamy, the consistency of risotto. 5. Ladle soup into four shallow bowls. Garnish with grated Parmesan, a few dollops of mascarpone cheese and a generous drizzle of good olive oil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2011-01-24</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Qualified Success Claimed Against Computer Worm</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2011-01-26</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Boeing Upbeat on 787s</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Earnings</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Boeing Co. BA 1.61%increase; green up pointing triangle executives on Wednesday said they were confident that they would deliver between 25 and 40 new 787 and 747-8 aircraft this year, despite persistent delays that have set both programs back by years.The pledge came alongside Boeing's fourth-quarter earnings report. The company reported a decline in fourth-quarter profit and gave a 2011 earnings estimate short of analysts' expectations, as the company is weighed by higher pension costs, the 787 delays and cuts in Pentagon spending.Top Boeing executives said the 787 program remained profitable, despite being more than three years behind schedule, and indicated it likely plans to revamp its best-selling 737 with a new plane that would arrive in 2020.Boeing Chairman and Chief Executive Jim McNerney spent much of the post-earnings conference call trying to convince analysts that the latest delivery and production predictions for the 787 Dreamliner—now three years behind schedule—wouldn't incur additional costs or delays.He was also confident that Boeing could meet its production goal to build 10 Dreamliners per month by the end of 2013 even though current production stands at two 787s per month. Boeing is building a new facility in South Carolina to add a second Dreamliner assembly line in addition to the current factory in Everett, Wash. There are 847 Dreamliners on order from 57 customers.Mr. McNerney said Boeing was "leaning towards" a 737 replacement for its best-selling narrow-body jet, rather than simply updating the plane with new engines.European rival Airbus is revamping its competing A320 with new engines and other upgrades that are expected to enter service in 2016. If Boeing introduces an all-new replacement for the 737, that plane would likely enter service by 2020, the company said."We think our customers will wait" for an all-new 737, Mr. McNerney said. He also said that Boeing wouldn't seek to re-do the 737 at the same time as planned improvements or even replacement of its wide-body 777 range, in part to prevent the sort of engineering, production and supply-chain problems that beset the Dreamliner and the 747-8.James Bell, chief financial officer, said on the conference call that the 787 program wasn't in a so-called "forward-loss position" at the end of the fourth quarter, indicating that Boeing still expects to make a profit on the project. But that analysis is spread over the delivery of a large number of planes and it could be years before the company sees an actual profit on the Dreamliner program.However, the 787 and 747-8 deliveries this year will have a "zero margin" and Mr. Bell said that talks about compensating customers and suppliers hit by the delays continued, but payments so far were in line with expectations.Analysts in the past have estimated those payments already exceed $5 billion.Chicago-based Boeing said 2011 revenue will be between $68 billion and $71 billion, up from $64.3 billion in 2010, reflecting the expected delivery of more higher-value wide-body planes.The company plans to deliver between 485 and 500 new commercial jets this year compared with 462 last year, and the promise of up to 40 787s and 747-8s arriving was higher than what most analysts expected.Boeing said this month that the first 787 will be delivered in the third quarter after its seventh official delay left it more than three years late. The 747-8 is due to make its debut by midyear, and is three years late.Boeing has already built nearly 30 Dreamliners at its suburban Seattle factory and those jets remain parked at the adjacent airport awaiting the installation of engines and hours of re-work that will be required prior to delivery.The company's 2011 earnings estimate of $3.80 to $4 a share compares with earnings of $4.45 a share in 2010 and analysts' average earnings estimate of $4.56 a share. Boeing said that stripping out additional pension expenses and tax adjustments would push per-share earnings this year up 6%.Shares of Boeing were down 3% at $70.19 in early afternoon trading Wednesday on the New York Stock Exchange, weighed by the outlook and the absence of an estimate on further charges that may arise from the 787 program. The company has already taken substantial write-downs on both the 787 and the 747-8 programs.The company reported a profit of $1.16 billion, or $1.56 a share, for the fourth quarter, compared with $1.27 billion, or $1.75 a share, a year earlier.Earnings for the latest quarter were in line with analysts' average estimate of $1.11 a share when stripped of one-time tax and pension costs. Margins fell in the commercial business during the quarter because of lower deliveries, but rose at its defense unit.Write to                 Peter Sanders at peter.sanders@wsj.com and Doug Cameron at doug.cameron@dowjones.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2011-01-26</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>The Top 10 NFL Games of 2010</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Photos</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2011-01-27</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Hotel Dining</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Photos</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2011-01-28</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Communications Severed in Egypt</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>Business</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2011-01-29</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Clint Eastwood: A Hollywood Icon Lays Down the Law</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>The Weekend Interview</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2011-01-29</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Voices Support for Mubarak</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>World News</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2011-01-30</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Hackers Caught in Carbon-Credits Theft</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Law</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2011-01-30</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Hoarding Cotton</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Photos</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2011-01-31</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Warehouse Giants to Merge</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Commercial Real Estate</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2011-01-01</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CVS to Buy Universal American Unit</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Between a Rock and a Waterfall</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>New Prize in Cold War: Cuban Doctors</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Stepping Into Luxury</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Fashion</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Pack Mentality Grips Hedge Funds</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Markets</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Last Call at a D.C. Power Lounge</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Reporter's Journal</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>A Glimpse at India, Minus the Red Tape</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>AHMEDABAD, India—Western India's Gujarat state has transformed itself into one of the country's economic and export engines by presenting an alternative to the red tape and widespread corruption that have stymied big projects elsewhere in the country, turning it into a springboard for the apparent national political ambitions of its controversial leader.Under the direction of Chief Minister Narendra Modi, Gujarat has tackled several problems that often frustrate both foreign and domestic businesses here. Investors characterize Gujarat's civil service as a disciplined force that approves land purchases and environmental permits quickly. The state invests heavily in modern road and power infrastructure. It has set up a Web portal that lets foreign investors track their government requests and complain about delays."Our progress was not delayed by even a single day by the government," says Asutosh Shah, managing director of Duravit India Pvt. Ltd., a unit of Germany's Duravit AG, which began making ceramic toilets and sinks here in September. "It was a 100% corruption-free process. You have to experience it to believe it."Gujarat has India's two largest oil refineries and plants set up by global names such as General Motors Co. and Mitsubishi Heavy Industries Ltd. It has averaged more than 11% economic growth in recent years, well outpacing the national rate. It accounts for 5% of India's 1.2 billion people but 22% of the country's exports. Gujarat's approach—mirrored in a handful of other business-friendly states such as Tamil Nadu—offers one model for how India can fulfill its economic potential in the next decade and pave the way for hundreds of millions of poor Indians to move from subsistence living to an industrialized economy that will be a potent rival to China's."To me, good governance means minimum government and maximum governance," Mr. Modi said at Gujarat's biennial investment summit this week. Invitations to the event went to people from all of India's 28 states. The event's 10,000 attendees included Indian industrialists Ratan Tata and Mukesh Ambani, delegates from Indian states and government officials from more than 70 countries. Mr. Modi, 60 years old, became chief minister, the state's top executive office, in 2001. The year before, Gujarat's economic output shrank by almost 5%.His turnaround of the state's economic fortunes has come amid controversy. In February 2002, 58 Hindu pilgrims died in a mysterious fire aboard the train carrying them home from a holy site. Hindus believed Muslims were behind the fire. The incident sparked a backlash by Hindu mobs against Muslims. A spiral of sectarian killing left more than 1,000 people dead.Mr. Modi's fiercest critics believe he encouraged or at least countenanced the anti-Muslim violence through instructions to police to stand down and allow Hindu fundamentalists to carry out attacks. These allegations are still under investigation by a special committee appointed by India's Supreme Court. Mr. Modi, who declined repeated interview requests, has vigorously insisted he had no role in fomenting the riots.Others say his intense focus on attracting big business hasn't benefited ordinary Gujaratis enough for the state to be considered a positive example. "He's consolidated his power by delivering a dream wish list to business. But there's a point at which governments have a responsibility to constituents other than business," said Mira Kamdar, a senior fellow at the New York-based World Policy Institute who is based in Paris.Gujarat has made progress in some human-development areas under Mr. Modi, but like the rest of India is still struggling to overcome many poverty-linked problems. According to India's national family health survey in 2006, 41.1% of children under three years of age in Gujarat were underweight, virtually unchanged from the 1999 survey and slightly higher than the national average of 40.4%. More recent figures weren't available.Still, Mr. Modi's performance in delivering economic growth and attracting development has put the national government on the defensive. Mr. Modi's BJP, a Hindu nationalist party, is the main opposition to the Congress party that leads the coalition government in New Delhi.When Rahul Gandhi, heir to the Gandhi-Nehru dynasty and a leading candidate to be the next Congress prime minister, visited Gujarat in late November to speak to college students, he responded to praise of Gujarat's economic record by comparing Mr. Modi to China's Mao Zedong. "Many evil leaders have done great development work," local news reports cited him as saying. Students believed it was an apparent reference to the 2002 violence.Questions about that time could temper Mr. Modi's prospects of winning a high-profile national office based on Gujarat's economic record, some observers say. "Modi cannot be a statesman who would command respect from all sections of society," said political analyst Chintamani Mahapatra at New Delhi's Jawaharlal Nehru University.Others say Mr. Modi's repeated re-election to office proves that the electorate has moved beyond the issues of his past and is giving him credit for Gujarat's development.Gujarat's 1,000-mile coastline—the longest in India—has made it the leading entry port for crude oil and heavy-industry imports. Mr. Modi's regime has further encouraged investment. In 2009, Gujarat set up "special investment regions" where the government reserves swaths of land for industries like petrochemicals or textiles and then pays for the infrastructure to be built there.Among the biggest such projects is in Dholera, a port south of the capital of Ahmedabad, where the state hopes to attract $20 billion in investments to develop a center for biotechnology, software development and light manufacturing in coming years.The state has plans to open an international airport nearby and add high-speed rail service.Canada's Bombardier Inc., which won a €500 million ($650 million) contract to manufacture coaches for New Delhi's new metro train network, located its production facility in an industrial park in Gujarat after scouting several options."We were looking at a very rapid rollout and wanted a government system that would allow for no roadblocks," said Rajeev Jyoti, managing director of Bombardier's India transportation subsidiary. After contacting Gujarat in August 2007, Bombardier got a 50-acre plot of land within weeks and set up its entire plant within 15 months, one of the fastest rollouts in the company's history, Mr. Jyoti said.In some sectors, Gujarat is more welcoming of foreign firms than the central government. The state is attracting international solar-power companies partly because its subsidy regime allows power generators to purchase their solar panels from foreign manufacturers; India's multibillion-dollar national solar-power subsidy program deters foreign participation.Gujarat's investment in an extensive natural-gas pipeline is what initially persuaded Duravit, the German ceramics maker, to set up manufacturing for its Indian subsidiary here, says Mr. Shah, the unit's managing director.  Natural gas is required in the production of ceramics.In 2009, Mr. Shah settled on Gujarat and began identifying possible sites. He homed in on 41 acres of land zoned for agricultural uses about 45 miles from Ahmedabad, Gujarat's largest city. The land was owned by 21 families, requiring signatures of 130 people to complete the sale. The process of signing the documents and registering the sale took just three weeks, largely because of the land-registration department's professionalism, he says.Write to                 Geeta Anand at geeta.anand@wsj.com and Amol Sharma at amol.sharma@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>McCourty Twins Tackle the Pros</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Ex-Girlfriend Recalls Loughner as 'Normal'</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>A Tonic, Humane and Civilizing Force</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>'As an adolescent," the distinguished critic, editor and anthologist John Gross wrote in his memoir, "A Double Thread: Growing up English and Jewish in London" (2001), "I believed that one day I would find time to read everything." Many of his friends and admirers assumed that he had long since achieved his ambition. Last year, Bevis Hillier, writing in the Spectator, called him "the best-read man in Britain." Earlier this week, when I wrote to tell the literary scholar John Ellis, who had been at the City of London School with Gross in the 1940s and early 1950s, that our friend had died, age 75, he passed along a story about Gross at school. The headmaster used to compose a 250-point general-knowledge quiz for the entire school, masters as well as pupils. The questions ranged over art, history, literature, science and politics. Occasionally some of the older boys placed among the masters with the top scores. But in 1950, the astonished headmaster announced that the winner was a mere fourth-former—what we would call a sophomore. Gross was 14. In his memoir, Gross casually cited "curiosity" as the prod for his reading. "Taste wasn't allowed to get in the way." Mysteries as well as 17th-century poetry, potboilers as well as serious novels, Eliot and Joyce but also "the incomparable Simenon": literary, historical, biographical, political lore of all sorts were his goad. One evening after dinner in Manhattan, my wife and Gross began singing the Rodgers and Hart song "I Wish I Were in Love Again." My wife, no slouch in these matters, knew a couple of verses. Gross knew them all.One of our favorite pastimes when in London was going on tours with Gross. He knew the city as well as any London taxi driver—better, because he could take you to any address you named and also knew what had happened there from the time of Julius Caesar until the day before yesterday. He sat on the English Heritage committee that dispensed new Blue Plaques to the clamoring line of worthy (and sometimes not-so-worthy) dead, and he introduced us to some delicious conjunctions. At Hyde Park Gate, for example, you can see not only the plaque for Robert Baden-Powell, "Chief Scout of the World," but also the one for Winston Churchill and the 19th-century man of letters Leslie Stephen and his daughter, the future Virginia Woolf. Just around the corner, in De Vere Gardens, Henry James lived for some 15 years. Like Stephen before him, Gross was a distinguished representative of that vanishing race he wrote about in his most famous book, "The Rise and Fall of the Man of Letters" (1969). The title, he noted, was something of an exaggeration. Homo litteratus was not, is not (not quite), extinct. But it belongs on the list of endangered cultural species. In a new afterword for the 1991 American edition, Gross delicately acknowledged that "some of the more extreme developments inside universities have gone further than I would have dared predict in demonstrating the dire effects that might follow if literary studies ever became an academic monopoly." "Rise and Fall"—indeed, Gross's entire career—was a quiet, good-humored battle against that reader-proof leviathan. These days academics use the phrase "belle lettrist" as a term of diminishment. Gross gloried in it, noting that "the belittling of the belle lettrist, the person who writes as he pleases, is at bottom a demand for ideological conformity."He had brief stints teaching, but his real career was in the world of live literary endeavor. He worked briefly at the late, great Encounter magazine in London and had a distinguished tenure as editor of the Times Literary Supplement (1974-81). He was a book critic for the New York Times back when the paper had critics and a theater reviewer for the Sunday Telegraph in London. One of the first people he called when he took over the TLS was the poet and critic William Empson. "'Oh, it's you,' came [Empson's] strange sing-song voice over the phone. 'Are you in the chair already?' 'Yes.' A long pause. 'Does it swivel?' " Before Gross's editorship, reviewers for the TLS had been anonymous, a pleasing system for disinterested expertise in theory but one that in practice invited all sorts of abuses, from score-settling to self-serving. Gross remembered a long essay on the state of comparative literature that began by asking whether there were any heirs to the great European practitioners of the genre, men like E.R. Curtius and Erich Auerbach. Only, intoned the anonymous reviewer, perhaps George Steiner . . . Gross, from his new swivel chair, looked up the piece. It was by George Steiner. Gross loved to tell such stories. And he had so many by heart that he was the natural person to edit the "Oxford Book of Literary Anecdotes." "The urge to exchange anecdotes," he wrote in the introduction, "is as deeply implanted in human beings as the urge to gossip." It was an urge he indulged with innocent zest. "We value anecdotes about a writer, beyond their immediate point, because they bear the stamp of his or her personality." Oxford was on to a good thing with John Gross, anthologist. He turned out a short shelf of them: of essays, aphorisms, comic verse, quotations by and about Shakespeare and, most recently, parodies. All are distinguished by a commanding erudition lightly worn and an intellectual impresario's talent for balancing the serious and the amusing. His anthology of essays, for example, begins with Francis Bacon and includes such worthy and entertaining figures as Sir Thomas Browne, Dryden, Swift, Hume, Oliver Goldsmith, William Hazlitt, Matthew Arnold, the James brothers (William and Henry), Oscar Wilde, John Jay Chapman, H.L. Mencken and many others. He ends with one of the funniest reviews I have ever read, Clive James on Judith Krantz's novel "Princess Daisy." ("To be a really lousy writer," Mr. James began, "takes energy.")In his introduction to the volume, Gross remarked that the 18th-century editor and essayist Joseph Addison "transformed the essay into a civilizing force, an engine against coarseness and pedantry." Gross was himself such an engine over the course of his career. His friends lost something precious with his passing; our cultural life lost an engaging, tonic, humane and civilizing force.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Rabbi Shmuley Boteach: Sarah Palin Is Right About 'Blood Libel'</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Houses of Worship</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>U.S. Banks Loosen Purse Strings</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>New York's Top Cop Cut From a Different Cloth</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A New New York State of Mind</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Why Regulators Can't Keep 'Safe' Bond Funds From Sinking</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>The Intelligent Investor</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Stores Fret Over Outlook</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Broad Tack Seen for 'Volcker Rule'</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Rivals Join in Baffinland Offer</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Europe Business</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>(Please see Corrections and Amplifications below.)After a three-month-long takeover battle for an iron mine in arctic Canada, rivals ArcelorMittal SA and Nunavut Iron Ore Acquisition Inc. joined forces in all-cash bid valued at 588 million Canadian dollars ($594 million) for Baffinland Iron Ore Mines Corp.It may not, however, be the last chapter in the story, as Baffinland Chief Executive and Chairman Richard McCloskey said he doesn't support the new joint bid because he believes it is unfair to the company's other shareholders. The offer is C$1.50 for each common share outstanding, for 100% ownership. Baffinland has approximately 391,915,272 common shares outstanding. Baffinland shareholders have until Jan 24 to accept the joint bid. The companies wouldn't provide a dollar figure for the deal. "Together with Nunavut Iron, we are providing a more attractive offer to Baffinland shareholders than either of us were prepared to provide on our own," said Peter Kukielski, head of mining at ArcelorMittal, in a statement. Both companies want access to Baffinland's Mary River Project, an undeveloped deposit of iron ore locked in the sparsely populated North Baffin Island located in the Arctic. It will cost about $4 billion to develop the mine, which will require rail lines and other infrastructure to get the iron ore out. ArcelorMittal said it would likely use that iron ore to feed its mills in Europe and North America. Steelmakers have been keenly interested in capturing more of their resources, especially iron ore and coal—two key ingredients in the production of steel—as prices for both have risen over the years.Chinese steelmakers have been exploring Africa for resources. And Brazilian steelmakers have been buying iron-ore assets in South America to shore up their resources. ArcelorMittal said that it produces about 50 million metric tons of its own iron ore and hopes by 2015 to produce 100 million metric tons. It bid on Baffinland because, the company said, it has special expertise in mining in the Arctic, which has tough weather conditions and months of no sunlight that hamper mining operations. The Baffinland open-pit mine is expected to be under construction until 2014. Once fully operational, the mine is scheduled to produce about 18 million tons of iron ore annually. ArcelorMittal said that it already has 25% of shareholders locked up in support of the offer. And Nunavut and its affiliates already hold about 10% of the shares. The deal would require a total of 66 2/3% of shareholders to approve of the proposed deal. Previous to this week, ArcelorMittal was offering C$1.40 a share for 100% of the company, while Nunavut was offering C$1.45 a share for 60% of the company. But the two sides this week decided to join forces when Nunavut executives approached ArcelorMittal to end the bidding war, according to people familiar with the matter. ArcelorMittal would hold 70% of Baffinland and Nunavut will hold 30%. Baffinland's Mr. McCloskey said it is unfair that Nunavut Iron will get a 30% ownership stake in the project, while other shareholders will get just cash for their shares. "The No. 1 responsibility for a director is to make sure that all shareholders are treated equally—and in this case they're not, in my opinion," said Mr. McCloskey, one of eight directors on Baffinland. Baffinland has five days to review the new offer. The new joint bid expires Jan. 24, and two-thirds of shareholders must vote in favor for the deal to be approved. Corrections and AmplificationsThe name of Nunavut Iron Ore Acquisition Inc., which has joined in a bid for Baffinland Iron Ore Mines Corp., was misspelled as Nunavet in an earlier version of this article.Write to                 Robert Guy Matthews at robertguy.matthews@wsj.com and Edward Welsch at edward.welsch@dowjones.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>A World Fiercely Observed</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>The Greatest of Them All</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Ruth Rogers's Roasted Sea Bass With Potatoes, Capers and Olives</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Slow Food Fast</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">London chef Ruth Rogers is culinary royalty. She and partner Rose Gray (who passed away last February), opened River Café in 1987. The restaurant started as an employee cafe for her husband's architectural firm (Ms. Rogers is married to Lord Richard Rogers, who worked on the Centre Pompidou and the European Court of Human Rights), then opened to the public. The restaurant's commitment to simple Italian cuisine made with fresh ingredients revolutionized English dining. It earned its first Michelin star the same year it opened. Kitchen alums include Jamie Oliver and April Bloomfield. For her first Slow Food Fast dish, Ms. Rogers shares a recipe for roasted sea bass with potatoes, olives and capers. It represents the sort of rustic elegance that's come to define River Café. A native of Woodstock, N.Y., Ms. Rogers travels to Italy every two months. This particular recipe was inspired by a meal she and Ms. Gray enjoyed on the Tuscan coast years back. Done the Italian way (they altered the original only slightly by adding olives into the caper and thyme mix), it's served whole and presented simply at the table. This time of year, Ms. Rogers says, sea bass is especially popular. While the restaurant will serve a large fish to a table of four, individual fish, which are easier to find, work just as well. Roasting them whole—bones, head and all—slows down the cooking and preserves texture and depth of flavor. Top off with a drizzle of good olive oil and a lemon wedge. </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Do You Need a Chinese Bank Account?</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>R.O.I.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>An Ivory Saint Resurfaces</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Icons</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>(See Correction &amp; Amplification below.)After several centuries out of the public eye, an ivory carving of Saint Sebastian that's impressed experts with its emotional power and large scale is about to make a reappearance. The scholar-dealer offering the work, created around 1638 by an obscure Germanic artist, is asking $4.75 million.At 25.2 inches from right foot to left index finger, the carving is "amongst the largest ivory ﬁgures ever made" in Renaissance and Baroque times, writes ivory expert Eike Schmidt, head of the Minneapolis Institute of Art's Department of Decorative Arts, Textiles &amp; Sculpture, in an essay commissioned for a catalogue on the work. It's "a powerful, expressive work invested with an extraordinary understanding of anatomy," says Nicholas Penny, director of the National Gallery in London. The curvature of the raw material, elephant tusks, crimped the ambitions of ivory carvers, and only about a dozen ivories of this size and period are known to exist. Most were crucifixes made for princes or other wealthy patrons.Where this Saint Sebastian has been for the last few centuries is unknown, but dealer Andrew Butterfield, who is offering it, bought it from a South American dealer last year. (Mr. Butterfield declines to say what he paid for it.) It was unattributed and needed cleaning. Mr. Butterfield, a Renaissance and Baroque scholar, researched the sculpture, pinning the attribution to Jacobus Agnesius, and paid New York's Metropolitan Museum of Art to clean it. Only two other works by Agnesius, who was known to have worked in Italy for much of his life, have been universally recognized by historians: Another "Saint Sebastian" is owned by Paris's Louvre museum, and the "Martyrdom of Saint Bartholomew," is in a museum in Albi, France. Both are much smaller.  The known record for an ivory, a private sale, is about $7 million.  Size alone would not make the work desirable, of course. In carving this nearly naked martyr-saint, who was tied to a tree and shot with arrows in the third century, Agnesius used the curvature of the tusk to create an arced, anguished body, supplementing it with two pieces for the arms.  The piece will be on view, Jan. 21 through Feb. 4, at Moretti Fine Art in New York.Correction &amp; AmplificationThe work will be on view, Jan. 21 through Feb. 4, at Moretti Fine Art in New York. An earlier version of this article incorrectly said the  piece would be on view starting Jan. 26.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Noonan: Obama Rises to the Challenge</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Declarations</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>The Tiger Mother Talks Back</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Life &amp; Style</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Mother Inferior?</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Life &amp; Style</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2011-01-13</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>U.S. Said Unlikely To Recoup GM Bailout</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Autos</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>The U.S. government is unlikely to recover its entire $50 billion investment in General Motors Co., GM 0.86%increase; green up pointing triangle in part because the Obama administration unloaded a big block of shares in the company's initial public offering at $33 a share rather than wait for a higher price, a federal panel said Wednesday.The Treasury Department, which took majority ownership of GM in 2009 as part of the company's bankruptcy reorganization, sold $13.5 billion worth of GM shares in November, cutting its stake from 61% to about 33%. The U.S.'s stake is down to 26.5% on a fully-diluted basis.The decision to sell such a large stake, rather than hold onto the shares until their value appreciated further, "greatly reduced" the likelihood that taxpayers would be repaid in full, said the Congressional Oversight Panel, a body of outside experts that monitors bailout programs.The Treasury has recovered about $23 billion in bailout funds it extended to GM. For the Treasury to break even, GM shares would have to reach about $53, the Congressional Oversight Panel said. GM shares were at $38.62, off 13 cents, in 4 p.m. New York Stock Exchange composite trading Tuesday. In all, the government pumped about $81 billion into rescues of GM, Chrysler Group LLC and their affiliated credit arms, the report says, and has about $51 billion left to recover following GM's IPO.The White House has said it is hopeful it will be able to recoup all the taxpayer money in GM through future sales. The Treasury's point person on the auto bailouts, Ron Bloom, said Tuesday the government welcomes the recent rise in GM's share price, and said the administration wants to sell its remaining shares "as soon as practicable."Former Sen. Ted Kaufman, a Delaware Democrat who is the Congressional Oversight Panel chairman, said the administration should more clearly define its goals regarding GM so taxpayers can properly analyze the bailout efforts. The administration should define whether its top priority is to sell its shares quickly or to recoup taxpayer funds, he said. The administration has said only that it is balancing those goals.The report said GM is on the path to financial stability but that its future business plans raise concerns. Those include what the report characterized as lackluster product launches planned for the U.S., a planned restructuring of European operations that is lagging and increasing competition in emerging markets abroad.GM said in a statement that the report was about a period it was "committed not to repeat."GM put much of its product spending on hold in the year leading up to bankruptcy, delaying critical vehicle launches such as a new line of high-margin pickup trucks and SUVs. Chief Executive Daniel Akerson and others acknowledged the impending product gap this week at the Detroit auto show. The auto maker is racing to speed up development of new vehicles and refresh existing models, but is limited in its ability to bring vehicles to market quickly."With the bankruptcy, we lost roughly a year in terms of development," Mr. Akerson said at an industry event on Tuesday. Major new launches will come in 2012 and 2013, Mr. Akerson indicated. Write to                 Josh Mitchell at joshua.mitchell@dowjones.com and Sharon Terlep at sharon.terlep@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2011-01-13</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Buy-and-Hold Empire Sells a Piece</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>New York Real Estate</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>The heir to the William Gottlieb estate, which controls a giant swath of Manhattan real estate, has broken with his family's traditional buy-and-hold strategy by selling a downtown building.The sale of the townhouse at 79 Horatio St. marks the beginning of a repositioning of the family's holdings of more than 100 downtown properties that brokers have estimated to be worth as much as $1 billion. The townhouse, along with a building on East 10th Street, were listed in May by Neil Bender, the nephew of Mr. Gottlieb. A spokesman for Mr. Bender said the estate has no other planned sales but was planning to add properties."We are currently disposing of two properties that do not fit with the company's development and growth plans," said Gregg Sullivan. "We anticipate the addition of significant and strategic properties to the portfolio in 2011 and beyond."The two buildings were listed last year shortly after Mr. Bender won a favorable New York court ruling following a bitter dispute with his sister that had divided the family. Downtown real-estate agents suggest the battle had discouraged Mr. Bender from putting other properties up for sale. Some brokers remain hopeful that the estate will put more  select property on the market. "The Gottliebs own some of the city's most prized property downtown," said Jonathan Isaacs, a co-founder of broker Aligned Real Estate. "The West Village inventory is extremely limited. I would love nothing more than to hear they are selling more property." The Horatio Street property, a white-brick townhouse built around 1880, is at a coveted Meatpacking District location, near the West Village and the High Line. But people who  viewed the 6,750-square-foot property said it was in poor condition and would require gut renovations. It was listed for $8.5 million and its sale closed late last month for less than $7 million, according to a person familiar with the matter. The buyer's identity wasn't made known. Some have wondered if the sale and the break with Gottlieb tradition of holding onto properties, especially during a period when prices remain well below recent highs, suggested that Mr. Bender was trying to raise cash.  Tax experts say many owners were motivated to sell high-priced property by year-end because they feared an increase in capital gains taxes in 2011, though lawmakers reached a mid-December compromise to avoid any increase.But Mr. Sullivan said the sale wasn't done to raise cash or for tax purposes.The three-story East 10th Street property remains for sale at $6 million. Both properties were listed by Jonathan Phillips and Ginnie Gardiner of Halstead Property. Neither could be reached for comment.The long-running feud among Mr. Gottlieb's heirs often spilled into the public spotlight. Retail and residential tenants sometimes complained that they were caught in the cross fire because, they said, during the dispute the buildings fell into disrepair.Mr. Gottlieb started buying up downtown Manhattan property in the 1950s. When he died as a bachelor in 1999, he left his estate to his sister, Mollie Bender. After Ms. Bender broke her hip, she petitioned to resign as executor to the will and requested her son Neil be named as the estate's administrator. Before that happened, Ms. Bender died in 2007.Her will left the Gottlieb estate to her son and her husband and excluded her daughter, Cheryl Dier. Three days after Ms. Bender's death, Ms. Dier filed objections to her mother's will and to the appointment of Neil and Irving Bender as preliminary executors of the estate.She alleged that Neil was unfit to serve as the estate's administrator and that he was a "habitual drunkard," according to court records. A New York surrogate court had ruled there was no evidence that he couldn't handle estate affairs. In May, the appellate court upheld that opinion.Write to                 Craig Karmin at craig.karmin@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2011-01-12</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Goldman Bankers, Ascendant Again</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2011-01-12</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Push to Make Yuan Global Currency</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Markets</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2011-01-12</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Mysteries of the Offensive Line </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2011-01-13</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Rove: Why Obama Chose Bill Daley</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Rahm Emanuel, Barack Obama's first chief of staff, was treated like a rock star by journalists. He made good copy with vivid quotes and manic energy. He also oversaw a clearly dysfunctional White House.Mr. Emanuel's interim successor, Pete Rouse, was the anti-Emanuel: self-effacing and calm. He did the president a great service by convincing Mr. Obama to pick a new chief of staff from outside his personal and ideological circles. A veteran congressional staffer who joined Mr. Obama when he came to the Senate, Mr. Rouse appears to have gone so far as to tell the president that to strengthen the White House, he must cast off long-time aides who wanted more authority but weren't up to it.For example, last April the Washington Post reported that White House Press Secretary Robert Gibbs was "eager" for "a senior advisor role." On Jan. 5, Mr. Gibbs announced he was leaving the administration—though he was quick to say he'd help on the president's re-election and remain a trusted adviser.But when someone leaves the White House, the idea of continuing, influential input is a polite fiction. Mr. Gibbs was a powerful insider. Now he will become one distant voice among many. There may be something to be said for an expensive suite on K Street, but in terms of influence it can't compete with a West Wing office. Mr. Gibbs signed on with Mr. Obama at the start of his 2004 U.S. Senate campaign. So Mr. Rouse, who likely told the president he must deny Mr. Gibbs a larger White House policy role and instead ease the acerbic press secretary out, was suggesting a tough but necessary move. If he did, Mr. Rouse is owed thanks by Mr. Obama for candor in pushing him to do what no president likes to do: reshape his White House.Mr. Rouse also apparently convinced the president that his new chief of staff should have stature and centrist credentials. Hence the selection of William Daley, who was President Bill Clinton's Commerce Secretary. Big changes are in store. Mr. Daley is unlikely to constantly outsource the drafting of legislation to Congress. He'll also end the West Wing's habit of only talking to Democrats and instead speak often with senior congressional Republicans. During the president's first two years in office, GOP leaders were more objects of contempt than conversation.Mr. Daley already has an extraordinary number of staff posts to fill and may force even more departures. If the rumor mill is correct, by spring there could be only seven people in the 23 to 25 seats at the morning senior staff meeting who were there a year ago. Nor is the White House likely to be nearly so insular and arrogant, certain that all wisdom resides within its 18 acres. When faced with a challenge, Mr. Daley's instincts will be to draw in outsiders who possess practical experience.Mr. Daley will probably streamline the West Wing's unwieldy decision-making structure while expanding the range of opinions the president hears. There are likely to be fewer senior aides, including perhaps an end to the (unwise) practice of the president's top people having their own individual "chiefs of staff." It's also hard to believe that class warfare will make it into the president's speeches now that draft remarks have to pass through Mr. Daley's hands. The days of portraying successful business people as leeches and robber barons are hopefully at an end.Some of these changes will be forced by the new circumstances of a GOP House and a much-reduced Democratic margin in the Senate. It's no longer possible for Mr. Obama to pass legislation with only the votes of congressional Democrats. Perhaps the most intriguing question is how much Mr. Daley's centrist credentials will influence the course of the Obama presidency. Mr. Daley, after all, helped Mr. Clinton pass the North American Free Trade Agreement, told the New York Times that Mr. Obama "miscalculated on health care," and  opposed the administration's  financial-regulation bill. All this angers—not enthuses—union bosses, liberal activists and left-wing bloggers. It's doubtful that Mr. Obama really shares Mr. Daley's centrist impulses. Over his political career, Mr. Obama has proved himself to be both very liberal and highly partisan. But he is also up for re-election in 2012. He understands he must regain the support of independents who voted for GOP congressional candidates last November by 59% to 38%.Mr. Obama's best chance of success 22 months from now rests on reclaiming his image as a reasonable, bipartisan and unifying figure. It won't be easy, given his track record as president. That can't be airbrushed from history. But the selection of Mr. Daley as chief of staff indicates that Mr. Obama is willing to give it a try. It makes sense. After all, what he was doing nearly wrecked his party and has imperiled his presidency. Mr. Rove is the former senior adviser and deputy chief of staff to President George W. Bush.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2011-01-13</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ITT Plans Breakup as Bigness Loses Favor </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>ITT Corp. ITT 1.88%increase; green up pointing triangle said it plans to break itself into three more-specialized companies, marking another stage in the dismantling of conglomerates that were once stock-market darlings but have lost favor in an era when investors tend to value focus.The breakup plan for the 90-year-old company, once the epitome of industrial diversification, came amid pressure from some of its shareholders, who were dissatisfied with its performance and its stock price.Over the past two decades, many investors have grown disenchanted with the notion that some executives are capable of running a vast array of businesses simultaneously. In ITT's case, those businesses once ranged from Sheraton hotels and Hartford Insurance to the maker of Wonder bread and Hostess Twinkies. The breakup unveiled Wednesday is its second major splintering in the past 16 years. "Companies generally are not very efficient diversifiers," said Barry Knapp, head of U.S. equity strategy at Barclays Capital in New York. "Investors usually can do a better job of that" by purchasing stock in a variety of companies.Wednesday's announcement, which prompted a 17% leap in ITT's stock price, could put pressure on other conglomerates, such as Illinois Tool Works Inc. ITW 0.20%increase; green up pointing triangle and Tyco International Ltd., at least to consider spinning off some operations, some Wall Street analysts said. A spokeswoman for Illinois Tool Works said the company isn't considering selling any of its major businesses, which include industrial packaging, construction tools, food-service equipment and adhesives. A Tyco spokesman said the company already has focused itself on three core businesses through spinoffs and sales of operations.Other diversified companies recently have been breaking into more specialized parts. In December, Fortune Brands Inc. announced plans to spin off its home-and-security business and spin off or sell its golf division, while continuing to run its liquor business as a publicly traded entity. General Electric Co. GE 0.83%increase; green up pointing triangle plans to sell its 51% stake in NBC Universal, a producer of television shows and movies, to Comcast Corp. CMCSA -3.51%decrease; red down pointing triangle ITT's blueprint calls for it to divide itself before the end of the year into three publicly traded companies, through a tax-free spinoff of two of its businesses to shareholders. The shareholders would then have shares in ITT Corp., which would retain a range of industrial lines, including pumps, valves, shock absorbers and brake pads; a company making equipment used in transporting, testing and treating water; and a company selling military equipment for such uses as night vision, electronic warfare, radar, reconnaissance and satellite imaging.ITT said the massive restructuring would help it "unlock" value in the various businesses and make them "more nimble." By announcing the plan, said people familiar with the matter, ITT likely avoided a proxy fight with Relational Investors LLC, which had threatened such a battle. In November, the investment fund nominated three directors to the company's board, one of whom was intended to replace ITT Chairman and Chief Executive Steven Loranger. In a Nov. 24 letter to ITT, Relational co-founder Ralph Whitworth wrote that the fund was nominating Mr. Whitworth, fellow co-founder David Batchelder and Relational principal Jay Winship to the board at ITT's 2011 annual meeting. Relational, along with other investors, viewed ITT's stock as undervalued, dragged down by its defense business, people familiar with the matter said.Relational was also skeptical of ITT's previously announced plans for more diversification. It wanted ITT to sell its defense unit and break up the rest of the company or keep it intact but not spend new capital on different lines of business. The two sides were to meet Thursday at ITT's White Plains, N.Y., headquarters to discuss the issue, the people familiar with the matter said. Relational is satisfied with the planned breakup, but is still deciding whether to withdraw its director nominations, said a person familiar with the fund.  Mr. Loranger said in an interview Wednesday that the breakup had been under consideration for about six months and didn't stem from investor pressure. The stock market's reaction suggests that to "de-conglomerate" is today's fashion, and CEOs are likely to take note of that, said Richard Sylla, an economics professor and financial historian at New York University's Stern School of Business.Conglomerates "never made sense from the point of view of investors," Mr. Sylla said. "Investors could always buy a bunch of different stocks" if they wanted exposure to diverse businesses. Though many conglomerates promised superior management, they usually didn't deliver that in the long run, he added.For the most part, conglomerates "were an unholy mix opportunistic investment bankers, misguided consultants and the vanities of CEOs," said Jeffrey Sonnenfeld, senior associate dean at the Yale School of Management. But he said it sometimes can make sense to combine businesses that rely on similar technology or are in markets that are starting to overlap.Even some relatively focused companies are moving further in that direction. Earlier this month, Motorola Inc. split itself into Motorola Mobility Inc., MMI -2.81%decrease; red down pointing triangle a maker of smartphones and tablet computers for consumers, and Motorola Solutions Inc., MSI 0.76%increase; green up pointing triangle which sells a variety of communications devices to companies and government agencies.ITT's stock has lagged behind the market in recent months because of investor worries that lower U.S. defense spending will hurt its sales of military equipment. On Tuesday, before the announcement, ITT's stock was up about 4% from a year earlier. In the same period, the S&amp;P 500-stock index gained 11%. In 4 p.m. composite trading on the New York Stock Exchange, ITT shares were up $8.72 at $61.50."ITT has some excellent assets but was just not getting credit" from them in the stock market, amid the defense worries, said Scott Davis, an analyst at Morgan Stanley. He said the company's water-treatment and desalination equipment will do well amid a global shortage of potable water.As long as investors welcome such spinoffs, "that's an incentive for [more] companies to consider this," said Barclays's Mr. Knapp. After battling for survival during the recession, many companies now are taking stock of their strategies, Mr. Knapp said. "There are a lot of companies doing a lot of strategic thinking about whether they are in the right spot," he said. If they find shareholders aren't rewarding them for having a diverse array of businesses, companies are more likely to look at spinoffs, he added.For ITT—whose current stock-market value is about $11.3 billion, up from Tuesday's $9.69 billion—the breakup marks a long-running retreat from  conglomeration. Founded in the 1920s to provide telephone service in Cuba and Puerto Rico, it became voraciously acquisitive in the 1960s under CEO Harold Geneen. At its peak, ITT owned companies building homes, providing Avis car rentals and making telephone gear, among many other things.In the 1970s, ITT started to narrow its focus, but it continued to morph through acquisitions, including at one point a stake in the New York Knicks basketball team.In June 1995, the company tried to follow the growing fashion for focused businesses by dividing itself into three companies: an insurer; a maker of automotive, defense and electronic items; and a hotel-and-casino operator.Over the past five years, ITT has had generally rising profits, with a recession-related drop in 2009. The company has said it expects to report adjusted earnings per share of $4.28 to $4.32 for 2010, up 15% from 2009, and projects earnings growth of 7% to 12% for 2011.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2011-01-13</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SABMiller Taps Ethiopia's 'Holy Water'</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Africa Rising</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2011-01-12</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Lenore Skenazy: Eek! A Male!</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2011-01-13</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Audits Add Shine to Firms</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2011-01-13</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Hegseth and Zirke: A Fifth Star for David Petraeus</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2011-01-12</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>U.S. man is a legal record holder in his own mind</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Life &amp; Style</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Some records never make it into the record books, despite the best efforts of the people who try to set them. Consider the case of Jonathan Lee Riches. Since drawing a 10-year sentence for wire fraud in 2004, this 34-year-old inmate at the Federal Medical Center in Lexington, Kentucky, has filed thousands of lawsuits—targeting, among other people, NFL quarterback Michael Vick, musicians Stevie Wonder and Dave Matthews, former U.S. President George W. Bush and ancient Greek philosopher Plato.Legal officials calculate Mr. Riches has filed more than 5,000 of his handwritten lawsuits, some under the names of other people, such as jailed financier Bernard Madoff or al Qaeda leader Ayman al-Zawahiri, and some naming defendants that can't really be sued, such as the former planet Pluto or the continent Africa.Mr. Riches previously has said his legal work helps him pass the time.Then, in 2009, Mr. Riches won himself some international notoriety by suing the Guinness Book of World Records for allegedly planning to list him as the world's most-litigious man. He said in his complaint that the nicknames he has earned over the years, such as "the Patrick Ewing of Suing"  and "Johnny Sue-nami," have "hurt my feelings and violated my civil rights.""I've filed so many lawsuits with my pen and right hand that I got arthritis in my fingers, numbness in my wrists, crooked fingers. I got bags under my eyes for sleepless nights suing the world," he wrote in his complaint, Riches vs. the Guinness Book of World Records, filed with a district court in the state of Washington.The legal action, which was dismissed, turned Mr. Riches into something of a B-list Internet celebrity and made him subject of dozens of media reports.There was just one problem: The compilers of the Guinness Book of World Records say they had never heard of Mr. Riches, and don't track such records."He's not listed, and there's no records for anybody filing the most lawsuits," a Guinness spokeswoman said. As for the congratulations that Mr. Riches claimed he received in the mail from Guinness, she said, "We think he must have written that letter himself."Worse, at least for Mr. Riches, is that U.S. authorities appear to have had enough of his deluge. Last September federal prosecutors asked a judge to prevent his filing any more actions.In October U.S. District Judge Karl Forester agreed, the Associated Press reported, ruling that the U.S. Bureau of Prisons can reject any legal communications sent by Mr. Riches, a decision that could effectively end his legal career.Mr. Riches, who is scheduled to be released in March 2012, couldn't immediately be reached for comment. Write to                 James Hookway at james.hookway@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2011-01-12</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>An Urgency to Restart Alaskan Pipeline</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2011-01-12</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Morgan Stanley Fund Raises Nearly $1 Billion</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2011-01-12</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Gates, China Discuss Nuclear Strategy</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>BEIJING—U.S. Defense Secretary Robert Gates held talks with commanders of China's nuclear arsenal, as he wrapped up a trip to Beijing that he called a success despite China's defiant move to test its new stealth fighter. Mr. Gates on Wednesday visited the headquarters of the People's Liberation Army's Second Artillery Corps, which commands China's nuclear missile force. In brief comments to reporters afterward, Mr. Gates said he discussed nuclear strategy with military leaders there and secured an agreement from a senior Chinese general to visit the U.S."I felt it was a pretty wide-ranging conversation and pretty open," Mr. Gates said in Beijing afterward. He said Gen. Jing Zhiyuan, commander of China's nuclear arms, had accepted his invitation to visit U.S. Strategic Command in Omaha, Nebraska, which oversees American nuclear weapons. U.S. officials say such visits are important to prevent dangerous misunderstandings.China's foreign and defense ministries didn't respond to requests for comment. Mr. Gates pronounced his trip to China a success, saying he had expected evolutionary progress in building the military-to-military relationship, rather than headline-grabbing breakthroughs.But the visit also exposed divisions in the Chinese government about pursuing closer relations with the Pentagon. The People's Liberation Army, or PLA, conducted its test flight of the J-20 stealth fighter just hours before Mr. Gates met with Chinese President Hu Jintao on Tuesday—a brash display of military might that fueled doubts about the extent of Mr. Hu's authority just a week before his state visit to the U.S.Mr. Gates on Wednesday confirmed the earlier account of a U.S. defense official that China's civilian leadership didn't seem to know about the J-20 test before he asked Mr. Hu about it in Tuesday's meeting. "The civilian leadership seemed surprised by the test and assured me it had nothing to do with my visit," Mr. Gates said.China's state media had largely sidestepped reports of runway tests of the J-20 over the last several weeks, but on Wednesday they gave prominent coverage to the test flight. China Central Television aired photos of the J-20 in flight, and carried the first public comments by China's military on the episode. Gen. Guan Youfei, deputy director of the foreign affairs office of the Ministry of National Defense, echoed Mr. Hu's remarks that the test flight wasn't aimed at any country and wasn't related to Mr. Gates' visit. Mr. Guan said the test was part of a "normal working schedule."Mr. Gates' nuclear talks Wednesday represented an improvement over the silence between the two sides last year, when China's military refused to talk to the U.S. in protest over its weapons sales to Taiwan. But the latest discussions didn't appear to go beyond previous advances the two sides have achieved.Gen. Xu Caihou, a senior officer who is one of two vice chairmen of the Central Military Commission that oversees the PLA, visited U.S. Strategic Command in October 2009. And former U.S. Defense Secretary Donald Rumsfeld visited the Second Artillery headquarters in 2005.U.S. officials said Mr. Gates' visit was important as a part of a renewed effort to convince the Chinese military to be more open about its nuclear arsenal. Chinese officials have been reluctant to discuss the subject, potentially because they have been nervous about revealing any new details about the size of their arsenal, U.S. defense officials have said.Although Mr. Gates appeared to acknowledge that there were some in the Chinese military skeptical of building ties with the Pentagon, he also emphasized that the military leaders he sat down with were open to improving ties.There "are those who have issues, possibly, but I certainly didn't meet them on my trip," he said.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Best of the Web Today: The Authoritarian Media</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Best of the Web Today</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Clothing Tags: Please Do Remove</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Ask Teri</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cholesterol Worries? Order Your Own Tests </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Heart Beat</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheryl Lassiter likes to keep a close eye on her cholesterol levels, but with a high-deductible insurance plan, she doesn't want to pay the fees for repeated checkups by her doctor. So a few times a year, she orders up a lab test herself, using an online service that charges about $40."You cut out the middleman," says Ms. Lassiter, 56, a writer who lives in Hampton, N.H.Most people get lab tests after a doctor recommends them during a visit. Now, a small but growing number of consumers are skipping the time and expense of seeing a physician and are ordering up their own tests, with heart-related assays among the most popular. For some, it's a way to keep track of measures that they want to regularly monitor, such as cholesterol levels or the blood-sugar indicator known as hemoglobin A1C, which is important to people with diabetes. For others, a broad-based panel of tests may provide a quick snapshot of overall health, or a particular test could address worries about the presence of a possible condition such as hepatitis C.Doctors say consumers should be careful about which testing services they trust, especially online companies. They also shouldn't cut their physicians out of the loop. Doctors say they can provide key guidance before a patient orders a test about whether it is worthwhile and can explain the numbers after the results are in. "There are a host of factors that go into whether a test is needed, warranted, or a waste of money," says Roland Goertz, president of the American Academy of Family Physicians.  Online testing services typically charge $30 to $50 for a full lipid panel, including cholesterol and triglycerides. A hemoglobin A1C test costs about $25 to $40.  Consumers wanting to get their own tests have a number of options. Online services contract with national networks of labs to perform a range of assays. For simple tests, such as cholesterol, there have long been quick-service sites in places such as drugstore clinics and health fairs. Consumers can purchase kits to do some basic tests themselves, including ones for cholesterol from companies including Polymer Technology Systems Inc., which sells a reusable lipid-testing device called CardioChek for $99, and First Check Diagnostics, a unit of Alere Inc., which sells for $13.99 the First Check Cholesterol Home Test, a single use kit that measures only total cholesterol. A few local labs will perform tests directly for consumers, but this is relatively rare, partly because of state restrictions. The lagging economy, which has left some people without insurance coverage, has also helped fuel the direct-to-consumer testing market, testing companies say. Even many people with coverage are facing bigger deductibles and other out-of-pocket expenses.Ms. Lassiter and her husband, who bought their own health plan, have a $5,000 annual deductible. Doctor visits tend to cost around $150 or more, so she only goes for a checkup once a year. She uses the online testing service to more frequently keep track of her cholesterol, which she describes as in the high range of normal, and to monitor a thyroid condition. She says she would call her doctor if she got a worrisome test result.  For people with more generous health-insurance coverage, the traditional doctor-ordered testing route makes sense financially, since big insurers say they often only cover tests that are requested by a patient's doctor. Direct-to-consumer lab tests are a small but growing part of the overall lab industry, according to research firm Washington G-2 Reports, a unit of publisher BNA Inc. In a 2009 report, the company estimated people were spending about $20 million a year for such tests, and the segment was growing at 15% to 20% annually. Spending on self-ordered testing totaled about $100 million a year with the inclusion of the high-profile and controversial category of genetic testing.The online testing services, which include companies such as Direct Laboratory Services Inc., Health One Inc., PrivateMD Labs LLC and Personalabs LLC, typically don't own labs themselves. Instead, they allow consumers to order tests online, then direct them to a lab that contracts with the firm, such as Laboratory Corp. of America Holdings. The lab draws the patient's blood and performs the actual test. To meet state requirements, the Web firms generally have doctors on staff who sign the orders without seeing the patients. Lab-testing giant Quest Diagnostics Inc. plans to relaunch its Blueprint for Wellness consumer service, which will charge about $60 for a group of four or five tests. Gary Procop, chairman of molecular pathology at the Cleveland Clinic, says consumers should check that the labs performing work for online companies are certified under CLIA, or the federal Clinical Laboratory Improvement Amendments, and accredited by an established entity such as the College of American Pathologists. The college maintains a list of the labs it checks at www.cap.org. He says consumers should watch out for Web sites that market  treatments based on test results.  Certain quick-result tests offered at drugstore clinics and other places for flu and respiratory syncytial virus, or RSV, are less sensitive than the more-advanced versions performed at some labs, says Dr. Procop. Still, he says, if done properly, the rapid versions of basic tests like cholesterol should be as accurate as those from a lab.The Food and Drug Administration, which has approved some home-use cholesterol tests, says on its website that they should be as accurate as those available at a doctor's office, if users follow the directions. The agency offers some information on how to interpret test results at fda.gov (find "in vitro diagnostics" in the alphabetical search, and on that page click "home use tests"). Direct-to-consumer online testing services say they aim to help consumers understand results. John Bell, president of Direct Laboratory Services, says the company sends email alerts to consumers whose results are significantly outside normal ranges, recommending they visit a doctor, and will phone anyone whose findings signal urgent risk. Still, doctors say interpreting test results is more than reading a number. Heart-related lab findings, for instance, should be evaluated as part of a broader health profile that would include factors such as family history and blood pressure. "No test should be interpreted in isolation," says Thomas Behrenbeck, a cardiologist at the Mayo Clinic. That's because tests like those for cholesterol "denote risk factors, they do not diagnose disease."Test results also can vary. Alfred Bove, past president of the American College of Cardiology, says the results of tests for c-reactive protein, which has been linked to heart-attack risk, can be elevated if patients have a bad cold or a bladder infection. </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>A Gifted Hockey Coach and His Dream Machine</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>New York Sports</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>This Pizza War Is a Tale of Joe</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Pino Pozzuoli says he is no ordinary Joe when it comes to making pizzas. For more than 35 years, the 73-year-old native of Italy has owned Joe's Pizza, a Greenwich Village institution."Joe's my name, pizza's my game," said Mr. Pozzuoli on a recent day at the Carmine Street pizzeria he has operated since the 1990s. He closed his original Bleecker Street location about five years ago."We've had dozens of pizzaiolos walk through here but there's only one Joe," proclaimed his son, Pino Pozzuoli Jr.And herein lies the conflict, now the source of a federal court lawsuit. There is another "Joe": Mr. Pozzuoli's former son-in-law, Guiseppe Vitale. Mr. Vitale worked with Mr. Pozzuoli at both locations, leaving the business shortly after he divorced Mr. Pozzuoli's daughter in 2004, according to court papers.Mr. Vitale owns three restaurants called "Joe's Pizza of Bleecker Street," one in Brooklyn, and two in California. He also trademarked the names "Joe's Pizza" and "Joe's Pizza of Bleecker Street."Now, the once family members are battling over who has the right to claim the fame and name of Joe's Pizza in a legal case that highlights the intense competition in the world of pizza branding.Singas Famous Pizza, a Long Island-based franchise, is waging a similar battle. In November, it filed a suit in federal court against a former franchisee holder for opening up a "Famous Pizza" in Jackson Heights, less than two miles from three Singas stores. The suit alleges that the defendants are using a similar logo and menu, breaching a franchise and noncompetition agreement.The defendants couldn't be reached for comment. In a court filing, their attorney said they changed the name of their store to "Queens NY Famous Pizza" and "never used any of the Singas trademarks" after negotiations broke down with the Singas.Singas Famous Pizza has had numerous similar "famous" pizza places open up before but rarely do they resort to litigation, said Enrique Almela, director of operations for the company. "The food business is very competitive, especially the pizza business in New York," he said. "You have to weigh whether it's worth the financial effort to move towards closing a store down… or allowing them to just open and fail."The most famous pizza name case goes back to 1991 when three rival Ray's Pizzas banded together to trademark their name in a quest to eliminate competitors of the same name. In that case, none of the men in question were actually named Ray. In the Joe's Pizza lawsuit, the ultimate question is: Who is Joe and who deserves credit for its fame?"It's a family squabble and lawsuit all rolled up into one big ball of pizza dough," said William Hochberg, Mr. Vitale's California-based attorney.Mr. Vitale didn't return calls for comment.Mr. Hochberg says that his client had been the manager of both Joe's Pizzas and was instrumental in their success. He also said his client's former father-in-law was long aware that Mr. Vitale had his own restaurants.Mr. Pozzuoli's suit against Mr. Vitale's pizza parlors alleges trademark infringement, and unfair competition, among other things.Last month a judge issued a preliminary injunction prohibiting the defendants from using photographs and reviews of the original Joe's Pizza—as well as its address—on its website, pizza boxes and other promotional materials. The court found that some of the defendants' actions, including uses of photos and marketing materials, were "intended to deceive the public" and that they were causing "actual confusion."The injunction, however, didn't prohibit the defendants from using the name "Joe's Pizza" or "Joe's Pizza of Bleecker Street."The injunction also says that "the plaintiff has not established that the very generic name of 'Joe's Pizza' is protectable."Nevertheless, shortly after the suit was filed the defendant changed the name on its website, dropping the Bleecker Street reference. It also removed the Carmine location from its Web site. Its press kit, which once included reviews and photographs from the Manhattan locations, is now empty.Mr. Hochberg said his client was happy with the injunction's terms. "The lawsuit was completely unnecessary," he said, "especially when you consider my client's sons work at the pizza restaurants of both the plaintiff and the defendant."Mr. Pozzuoli and his son say they became aware of the full extent of Mr. Vitale's business operations last year when they were exploring a business deal. Until then Mr. Pozzuoli said he had never even been on the Internet. "After so many years I'm entitled to this," he said of the trademark. "Joe is my name."Write to                 Sumathi Reddy at sumathi.reddy@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Shut Hotel Mirrors Detroit's Woes</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Economy</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>David Pryce-Jones: Taking a Separate Path</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>'Spain is different" was a slogan during the  dictatorial regime of Gen. Francisco Franco. Stanley G. Payne, a professor at the University of Wisconsin, has made a name for himself writing about Franco, Franco's brand of fascism and the  Spanish Civil War. With "Spain: A Unique History," he ranges far further over the centuries to see if there is anything to this assertion of Spanish difference. Writers about Spanish history and identity have  developed what Mr. Payne calls a Grand Narrative, which varies depending upon the standpoint of the writer. Some, he says, subscribe to a "Black Legend" that depicts the country as a "stereotype of cruelty,  fanaticism, and lust for power and destruction." This idea has cultivated, at times, "a kind of national  inferiority complex." Quite the opposite, but equally misleading, is a traditionalist stereotype of "Romantic Spain,"  portraying Spaniards as premodern  people  "motivated by honor, personal courage, and an archaic style of life," veering  toward a kind of superiority  complex.In a Grand Narrative of his own, Mr. Payne holds that Spain is not really so  different from other  European countries.  Incorporation into the Roman Empire, and then the invasion of foreigners and the arrival of Christianity, were  experiences paralleled elsewhere on the Continent.  Almost uninterrupted warfare and gradual  centralization under a single monarchy are by no means singular to Spain.Furthermore, Muslims threatened France, Austria, Hungary, Sicily and to some extent mainland Italy, so the occupation that turned Spain into Muslim Andalus, from the eighth century to the 15th, was exceptional only in its duration. The cities of Andalus, Mr. Payne comments, rivaled the great Muslim centers of the Middle East. The native population became  overwhelmingly Muslim, but the Reconquest of Spain, completed in 1492, was nevertheless primarily a healthy reaction to the "rigid, intolerant and anti- intellectual tendencies in Islamic religion and culture." From the 17th century onward, Spain participated  unevenly in Europe's wider struggle to modernize. The Catholic religion did much to prevent the formation of the national and liberal state that would have assured Spain's pre-eminence.As learned professors often do, Mr. Payne writes at a high level of generalization, taking the reader's knowledge for granted. Chapters leap from topic to topic without much concern for sequence, as though they were separate and self-contained essays. Words like "retrodictive," "sexennium," "defascistization" and "mesocratic" act as brakes on Mr. Payne's prose. New  universities have a "localist and endogamic character," whatever that may mean. "Spain: A Unique History" opens unusually, too, with a chapter of nearly 30  autobiographical pages closely describing the stages by which Mr. Payne became a Hispanist and professor. Such self-indulgence sits uneasily with the scholarly tone of the rest of the book. Footnotes refer to sources in at least six  languages, among them Polish and Russian.It is far from obvious why Mr. Payne leaves out much that is familiar and that would have served  either to reinforce or to refute stereotypes. No  mention of El Cid, for instance, the personification of the  European and Christian warrior-hero whose  victory over Muslims is still a component of national identity. No mention of Torquemada, who made the Spanish Inquisition a precursor of modern ideological  persecution; or of Holy Week in Seville, with its special cult of penance; or of St. John of the Cross and St.  Teresa of Avila, standard-bearers of Spanish  Christianity.The Jewish community in the Spanish Middle Ages produced gifted and influential men, only one of whom is named in "Spain: A Unique History," and then only in passing. No mention either of the expulsion of the Jews in 1492, surely a contribution to the Black Legend. No mention of the Aztecs or the Incas and hardly  anything about the Spanish Empire or its rulers, even so great an emperor as Charles V (1500-58). As for  Romantic Spain,  Velázquez and El Greco are ignored; and  Cervantes and Goya, two geniuses central to  Spanish identity, each have to make do with a fleeting subclause. The final 100 or so pages of "Spain: A Unique  History" deal with Franco and the Civil War, Mr. Payne's speciality, and he deals with them thoroughly. The  popular perception has been that democracy and  fascism fought it out in Spain in a curtain-raiser for the approaching world war. For Mr. Payne, the international politics of the day are open to more complex interpretations. Stalin's main objective in intervening in Spain was not to win the war but to keep it going until France and Britain were ready to join with him in an anti-Hitler coalition. With typical duplicity, he was already putting out the feelers to Hitler that led to their mutual pact in 1939. Stalin, Mr. Payne concludes, had been too  Machiavellian for his own good. Nor did Hitler extract the rewards that he expected for dispatching forces to Spain. By nature, Franco was an equivocator; his terms for joining the Nazi war effort were so high that Hitler was left complaining angrily of his ally's ingratitude. Whether or not Spaniards can be pressed to fit into broad stereotypes seems almost moot now.  Membership in the European Union has drained Spain's historic identity and rendered national  differences meaningless. For better or worse, even the concept of a Grand Narrative now belongs to the  irrevocable past.Mr. Pryce-Jones's next book, "Treason of the Heart: From Tom Paine to Kim Philby," will be published in May by Encounter Books.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Taking the Helm to Change City Landscape</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>New York Real Estate</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Nations Look Beyond GDP</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Outlook</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Nintendo's Chief Defends 3DS</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Best of the Web Today: 'We Don't Have Proof Yet'</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Best of the Web Today</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>With Win, Jets Get Mojo Back</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>New York Sports</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Treating Mental Illness With Electricity</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Health Journal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Dr. Paul A. Offit: Junk Science Isn't a Victimless Crime</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>In 1998, a British surgeon named Andrew Wakefield published a paper claiming that the measles-mumps-rubella (MMR) vaccine might cause autism. To support his case, Dr. Wakefield reported the stories of eight children who had developed symptoms of autism within one month of receiving MMR. He proposed that measles vaccine virus travels to the intestine, causes intestinal damage, and allows for brain-damaging proteins to enter children's blood streams. The problem with Dr. Wakefield's study—published in the Lancet, a leading medical journal—was that it didn't study the question. To prove his hypothesis, he should have examined the incidence of autism in hundreds of thousands of children who had or hadn't received MMR. This kind of study has now been performed 14 times on several continents by many investigators. The studies have shown that MMR doesn't cause autism. As several different investigations—summed up in a British Medical Journal (BMJ) editorial this month—have shown, not a single aspect of Dr. Wakefield's notion of how MMR causes autism has proven correct. He wasn't just wrong, he was spectacularly wrong. Moreover, some of the children in his report had developed symptoms of autism before they had received the vaccine—and others never actually had autism.In addition, as journalist Brian Deer found, Dr. Wakefield received tens of thousands of pounds from a personal-injury lawyer in the midst of suing pharmaceutical companies over MMR. (After Mr. Deer's discovery, Dr. Wakefield admitted to receiving the money.) Last year, when the Lancet found out about the money, it retracted his paper. But it was far too late.Dr. Wakefield's paper created a firestorm. Thousands of parents in the United Kingdom and Ireland chose not to vaccinate their children. Hundreds of children were hospitalized and four killed by measles. In 2008, for the first time in 14 years, measles was declared endemic in England and Wales. Dr. Wakefield's claim sparked a general distrust of vaccines. In recent years—as more parents chose not to vaccinate their children—epidemics of measles, mumps, bacterial meningitis and whooping cough swept across the United States. The whooping cough epidemic currently raging in California is larger than any since 1955.Although it's easy to blame Andrew Wakefield, he's not the only one with dirty hands. The editor of the Lancet, Richard Horton, sent Dr. Wakefield's paper to six reviewers, four of whom rejected it. That should have been enough to preclude publication. But Mr. Horton thought the paper was provocative and published it anyway.Many others in the media showed similar poor judgment, proclaiming Dr. Wakefield's paper an important study even though it was merely a report of eight children that, at best, raised an untested hypothesis. Meanwhile, public-health officials and scientists were slow to explain in clear, emphatic terms that Dr. Wakefield's hypothesis didn't make a bit of sense. Even today, important voices aren't drawing the right conclusions. The BMJ, for example, wrote in its editorial that "clear evidence of falsification of data should now close the door on this damaging vaccine scare." But it's not Dr. Wakefield's lapses that matter—it's that his hypothesis was so wrong.Even if Dr. Wakefield hadn't been fraudulent, his hypothesis would have been no less incorrect or damaging. Indeed, by continuing to focus on Dr. Wakefield's indiscretions rather than on the serious studies that have proved him wrong, we only elevate his status among antivaccine groups as a countercultural hero.The American astronomer and astrophysicist Carl Sagan once wrote that, "Extraordinary claims should be backed by extraordinary evidence." Dr. Wakefield made an extraordinary claim backed by scant evidence. Undoubtedly, bad science will continue to be submitted for publication. Next time, one can only hope that journal editors and the media will be far more circumspect.Dr. Offit, the chief of infectious diseases at the Children's Hospital of Philadelphia, is the author of "Deadly Choices: How the Anti-Vaccine Movement Threatens Us All" (Basic Books, 2011).</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Stephens: Haiti, Sudan, Côte d'Ivoire: Who Cares?</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Global View</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Home Truths, Marching On</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Book Review</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Downturn's Ugly Trademark: Lasting Drop in Wages</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Economy</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Resignation, with Six-Months Notice?</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Careers Q&amp;A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Key Suspect in Doping Probe Found Dead</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Suspect Bought Bullets Hours Before Rampage</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2011-01-10</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Wife of White House Aide Found Dead</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2011-01-11</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Evergreen Solar to Close Plant</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2011-01-07</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hanging With Spider-Man's Mary Jane </t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Heard &amp; Scene</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>As Mary Jane Watson in the Broadway juggernaut "Spider-Man: Turn Off the Dark," 19-year-old Jennifer Damiano has her work cut out for her. Besides living up to everyone's expectations, including her own, working on this extremely expensive musical, she has had to deal with a tumultuous production under constant scrutiny by the media and the public, one that's been going through daily changes since previews started in late November. (Bono and the Edge have been at performances this week implementing musical fixes.) But a girl's still got to eat, right?After a recent performance, Ms. Damiano packed up her things from her dressing room, and armed with a Sharpie signed a few autographs in the frigid cold. "That's it, we're done," she said, when she got through the line. Then she piled into a Cadillac Escalade waiting outside the Foxwoods Theatre with two of her co-stars—Gideon Glick, whom she met while they appeared together in "Spring Awakening" on Broadway four years ago and she warmly refers to as her "stage mom," and Isabel Keating, who stars as Aunt May. On the ride downtown to dinner, talk turned, as it does, to musical theater. Mr. Glick, who is in his early 20s, said when he was a young child, he and his family used to listen to the "Sweeney Todd" soundtrack on road trips. "No wonder you're crazy," Ms. Damiano joked. The SUV reached the Fat Radish, a quaint foodie spot on the Lower East Side, and the three piled off their heavy coats and tucked into a quiet side table. "I love the Feng Shui in here," Ms. Damiano said. "It's really nice to be out. Every night, I'm like, 'Where's the party?' and then it's cut to me on the couch with the remote control watching repeats of 'That 70's Show' and 'Boy Meets World.'" (For the moment, she is living with her parents in Westchester.)A waitress came over and announced that, for the occasion, the restaurant had concocted a special non-alcoholic beverage for Ms. Damiano. They were calling it the Mary Jane. "It's made with English elderflower, lemonade, fresh lemon and mint," the waitress said."This is your drink!" Ms. Keating said.Ms. Damiano was clearly touched. "Does it taste like Mary Jane?" Mr. Glick asked."Yum," she said, her eyes widening. "Yum. It kind of does. Mary Jane is young and fresh, but she's got a little bit of tang. She's spicy, she's got punch. I can't believe they did that."Course upon course of food started to arrive, beginning with a few of the restaurant's namesake radishes. Ms. Damiano sheepishly said she had never had a radish before, which perhaps was more surprising than it should have been."Well, maybe I've had shaved radishes in a salad," Ms. Damiano said, as she tried one of the fatter ones."You're going to see radishes everywhere now," Ms. Keating told her. "Do you like them?""Yeah, I like them," she said, as the waitress brought over the next course. This was three-day chicken soup, a dish just perfect for a group of actors over-exercising their voices. The difficulties of performing in "Spider-Man," as everyone knows now, far exceed the threat of laryngitis. "I can now put 'experienced aerialist' on my résumé," said Ms. Damiano as she finished her soup. "Hanging there seven feet off the floor was really scary the first time. The second time I thought, 'I have to do this every night?' The third time, I started to wish I could do even bigger stunts."The incidents of the last few weeks, including the replacement of a lead actress and a major injury suffered by the acrobat Chris Tierney, have not made work easy. "It's obviously very scary when something like that happens, but we've all done our best," Ms. Damiano said. "I feel completely safe in this show. I do, truthfully." "Every night we try to tell the story a little better," she added, "and we do." Digging into the celery-root pot pie, Ms. Damiano explained that the experience of "Spider-man" has been a complete about face from her last show, "Next to Normal," which earned her a Tony nomination at 17. "I went from one extreme to the other," she said. "There were six people in that cast." Talk moved to "Black Swan," which Mr. Glick advised Ms. Damiano not to see; she might relate too much. Then, as most conversations do, it shifted to reality television, which none of the performers admitted to watching too much."They could have an incredible reality-show backstage," Ms. Damiano said. Usually crew members get to sit around reading or watch television, but not the ones working on "Spider-Man.""Hey, I would watch it," she said. Write to                 Marshall Heyman at marshall.heyman@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2011-01-07</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Obama Moves to Make Peace With Business</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2011-01-07</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Inside a $60 Million Dream House</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Photos</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2011-01-07</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Former Tyson Foods Chairman Dies</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Remembrances</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2011-01-07</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>The $60 Million Dream House</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Property</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Its asking price: $60 million. Three years into the housing bust, at a time when home values are hitting new lows in many markets, a small group of developers has plunged into the risky business of betting millions on high-end speculative homes. They are erecting amenity-rich mansions for wealthy buyers that they hope will materialize. While the vast majority of the "spec" market remains moribund, some developers, pointing to a handful of big sales and the recent recovery of the stock market, believe the world's wealthiest buyers are out again shopping for trophy mansions, often as second, third or fourth homes. While there aren't any national sales statistics for homes in this range, there are signs that purchases by the super-rich have begun to rebound. Though down from the peak three or four years ago, art auctions in New York and London in 2010 brought in total sales that far surpassed 2009, including an all-time auction record of $104.3 million for sale of a Giacometti sculpture in February, topped in May by a $106.5 million sale of a Picasso painting. The current crop of newly built spec mansions on the market includes a five-bedroom, seven-bathroom ski home on 1.2 acres of land in Aspen, Colo.'s Red Mountain neighborhood. Built by a group of investors last year, it has hand-scraped wide-plank ash floors, an onyx-and-steel chandelier in the dining room and a garage that has a dock for charging hybrid or electric vehicles as well as a dog-washing facility. Price tag: $23.9 million. In New York's Hamptons, an eight-bedroom farmhouse-style home in Sagaponack, built last year, is on the market for $26 million. In Los Angeles, a minimalist house with a 26-foot-long fire trough and a home theater with stadium seating is on the market for $13.7 million. Real-estate agents say brand-new construction appeals to those who may already have other homes around the world to maintain. Rob Giem, a broker based in Newport Beach, Calif., says new houses are the most attractive listings for his wealthiest clients, some of whom are older and don't want to spend years dealing with construction headaches. "They've worked very hard and the greatest commodity to them is time," he says. No mega-mansion is complete without the latest in high-tech gadgetry. Lighting, televisions, heat, hot-tub temperature and security systems can be controlled remotely via an iPad or cellphone, an important convenience for long-distance owners. Some incorporate green technology like hidden solar panels and geothermal heating. Though amenities like bowling alleys, massage rooms and master-suite kitchenettes have become relatively common, the latest crop incorporate a few new ones as well, like in-home beauty salons with manicure, pedicure and hairdressing stations; virtual golf rooms, dockage for super yachts and movie-theater-size screening rooms.The developers of the $60 million Miami Beach house say the estate, which has cost them $30 million so far, has one of the state's first in-home projection 3-D movie theaters. The home, which was built by developers Shlomi Alexander and Felix Cohen, also has a hidden art vault, an elaborate security system and a wine room that can be accessed only via fingerprint identification. Materials like mother of pearl, rare marble and Austrian oak are used throughout. To find the right gold-flecked marble for the master bathroom, the developers say they flew to Italy to personally pick it out from a quarry. To get inspiration for the home's waterscape and pool, which has a waterfall cascading from the second floor, they visited the Amanyara resort in the Turks and Caicos Islands.  Constructed on Indian Creek Island across a series of limestone pavilions, the 30,000-square-foot glass-fronted home is divided by waterways and koi ponds. Its architect, Rene Gonzalez, who was also a project designer on the Getty Museum in Los Angeles, describes it as a "conceptual" house that's supposed to feel like a private resort. There's a central courtyard with landscaped walls and a beach with several tons of sand imported from the Bahamas (chosen over local Florida sand for its pinkish color). Since the potential buyer likely will already own several homes, Oren Alexander, the developer's son and New York-based broker who is marketing the listing to buyers outside Miami, says the home's inclusion of furniture will be a big selling point. "The house is such a unique style I think only the developers can furnish it," he says. "And when somebody's buying a property they want it to be instant satisfaction." The developers of the Miami home say they're confident that they will not only sell the home for close to asking price, it will be off their hands by the end of the month. The elder Mr. Alexander says, "For this, you need just one guy who believes in it, and wants to buy it for his wife." Baseball player Alex Rodriguez toured the home while it was under construction, says Mr. Alexander, and responded so well to the design that it prompted him and Mr. Cohen to raise the asking price from what they initially planned. Nelson Gonzalez, a Miami Beach-based broker who handles high-end listings, including Jennifer Lopez's former home, says he has clients looking for newly built homes in the area but doesn't think the house will sell for nearly what the developers are asking. "I think it's very high-priced for what the market is," he says. "I don't think we're there yet." In Los Angeles, one of the most aggressive spec mansion builders is Mohamed Hadid, who sold an estate in the Bel Air section of Los Angeles for $50 million, one of the highest-priced residential-real-estate transactions in the U.S. last year. Public records listed the buyer as Sarp Turanligil, the owner of a Turkey-based yacht and furniture production company. A representative for Mr. Turnanligil said he was managing some business for a company that bought the home and is no longer affiliated with the property. The home, which Mr. Hadid lived in before it was sold, was initially listed for $85 million.Though he says he's building spec estates at a slower pace than he was several years ago, Mr. Hadid's current crop includes a 100-acre gated community on a mountain ridge in the Beverly Hills Post Office area of Los Angeles that will have six spec homes, each priced between $30 million and $40 million. The development will be heavily secured, he says, and include its own vineyard. Construction is nearly complete on a 32,000-square-foot, three-story French château-style mansion on 1.2 acres across the street from the Beverly Hills Hotel, which he plans to officially put on the market for about $60 million in March. The house will have three swimming pools (including an Olympic-size one indoors), a ballroom that can hold 150 and a Moroccan-style room meant for entertaining and socializing after relaxing in the home's spa. A home theater will seat 60. "It will have to be managed like a small hotel," explains Mr. Hadid, who estimates monthly operating costs for the buyer to be around $50,000 to $100,000 in addition to annual taxes.  Another big bet sits on a winding, wooded lot on California's Belvedere Island, just across the bay from San Francisco. During a tour of the home's site a few months ago, Olivia Hsu Decker, the home's listing broker, pointed out a bullet-shaped yacht anchored in the water few hundred feet away. "That could be our buyer," said Ms. Decker, optimistically. (The Phillipe Starck-designed vessel is owned by Russian billionaire Andrey Melnichenko.)  When it's completed next summer, the three-story home, which the developer says likely will list for $45 million, will have a projection-screen theater, a gym with a steam room and sauna and an elevator and sliding glass doors that will open almost the entire back of the house. "People at this end of the market always have money," says Jeff Paster, an investment manager who retired in 2008 and has been building luxury homes for eight years, including the Belvedere Island mansion. But the competition is steep: There are at least five mansions priced around $20 million and above that are officially listed as for sale on Belvedere Island, a rocky landmass that measures less than one square mile. The risks for speculators are huge. Developers generally have to foot annual tax bills and carrying costs while the home waits for a buyer, which can sometimes take months and run into hundreds of thousands of dollars annually. A number of multimillion-dollar homes built during boom times have taken years for investors to unload, with dozens still left over on the market today at reduced prices. A mansion in the Brentwood neighborhood of Los Angeles now priced at $14 million has been on the market for more than two years and seen several cuts from its original asking price in 2008 of $21.5 million. In Newport Beach, Calif., a Pennsylvania Dutch Colonial-style home on just under an acre with elaborate manicured gardens is listed for $23 million, down from its original asking price of $29 million in 2007. Last month, one of Los Angeles's best-known spec homes sold for $23.5 million, about half its initial asking price of $50 million in 2007. Broker Mauricio Umansky said the singer Prince rented the home for two years while it was on the market, and that he wasn't able to show it often during that time.     Despite the jaw-dropping price tags on these supermansions, many developers aren't asking nearly what they would have during the market's peak. In Palm Beach, Fla., builder Dan Swanson currently has an $84 million home adjacent to a large nature preserve that's been on the market since May. The project began three years ago, when he tore down two homes on a cul-de-sac and built a 27,000-square-foot house that has parking for more than 50 cars, a 60-foot swimming pool and six juice bars spread across the main and guest quarters. The asking price, he says, could have been more than $100 million several years ago. Write to                 Candace Jackson at candace.jackson@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2011-01-07</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Exploring Sushi on the Seine</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The universal sushi/yakitori craze has provoked the proliferation of pseudo-Japanese restaurants in the French capital—from the recycled Chinese corner dive to the trendy sushi bar and the "highly recommended" expensive establishment—that do an injustice to one of the most refined culinary traditions in the world. All the more reason to follow us from the simply delicious Takara, the oldest Japanese restaurant in Paris, to the simply sublime Aida, the first to be graced with a Michelin star. On our way we correct one misstep—the overrated Kinugawa—with lunch at Toraya, a haven of sweet tranquility.  Takara (www.takaraparis.com), established in 1958 on rue Molière, a few steps from avenue de l'Opéra in the second arrondissement, on the fringe of what later became "little Tokyo," has consistently maintained a reputation for authentic Japanese cuisine. Owned and operated by two generations of the founding family until it was sold in 2005, Takara has a faithful clientele of cognoscenti; be sure to make reservations. The traditional décor is warm and muted, with wood-block ukiyo-e prints on wood-paneled walls, and wooden tables and chairs. Beaded curtains separate the dining room into sections of two or three tables to add a sense of discretion. Attentive, graceful service is ensured by the hostess, in silk kimono, and waitresses in cotton yucata. We savor tempura, sashimi, unagi—grilled eel with a rich sauce that drips into its bed of rice, served in a jubako (lacquered box)—and a sushi assortment in lieu of desert. The tempura is a perfect balance of smooth crispy coating and tasty jumbo ebi (shrimp). The sashimi and sushi are first class: a noble assortment of brightly fresh fish in a smooth harmony of shape, temperature and flavors. The sushi rice has exactly the right consistency. Except for the bland European-style salad, everything rings true. Takara offers the widest variety of traditional Japanese dishes, including dozens of vegetable specialties, fried oysters, tonkatsu, shabu shabu and their specialty, sukiyaki. Prices are modest for this level of refinement; our lunch for two, with beverages, came to €86. This is a restaurant to come back to with friendly regularity.Kinugawa (kinugawa.free.fr), ensconced in the heart of the luxury district—near Hôtel Meurice, the glitzy Westin, Place Vendôme and rue du Faubourg St. Honoré—is a disappointment. Featured on every "Best Japanese Restaurants in Paris" list, Kinugawa only offers us impersonal service; inflated prices; tasteless, odorless food; unattractive tableware; cheap, throwaway hashi (never say chopsticks) that splinter on separation…even the acoustics are bad. We are a party of five, anticipating a fabulous taste adventure, and are unanimously displeased. Sushi is a miserable assortment of nondescript fish on refrigerator-cold rice. The tempura is a scraggly coating on tasteless vegetables and skimpy shrimp. Soggy sukiyaki, incorrectly but aptly translated as "pot au feu" (the homeliest of French stews), is brought to the table ready-made in an iron pot. Shabu shabu, swished in a tasteless broth, is dipped in watery sauce. Throwing good money after bad, two members of our party conclude with a shabby fruit salad. I pay €115; my unfortunate companions fork up €60 each. We feel like we have been robbed. Properly executed, Japanese cuisine is a holistic experience that leaves indelible memories. False notes or total disasters are repaired by kuchi na oshi (change the taste in the mouth), so the next day I meet a friend for lunch in the Toraya tea room (www.toraya-group.co.jp/paris) on rue St. Florentin, around the corner from the upscale rue du Faubourg St. Honoré boutiques. We are met with a distinctive Japanese culinary perfume—soothing rice base notes, heady maritime accents, a whiff of sesame and a waft of traditional sweets. The atmosphere is quiet and subdued, the service is impeccable, the food is fresh and tasty, light but satisfying. And for those of us who love Japanese sweets, Toraya has an elegant selection, to enjoy with sencha (clear green tea) or matcha (whipped green tea). Lunch sets, from €13, and pastries (wagashi), at €5.40 (€4.50 in the boutique), change with the seasons. Where better to take a break from the joys of shopping (bargain sales start next week) than the sleek but cozy tea room with its plumply comfortable armchairs? Chef Koji Aida richly deserves the Michelin star his eponymous restaurant (www.aidaparis.com) was awarded in 2008. He has elaborated a teppanyaki variation on the theme of kaiseki ryoori—the ultimate in refined Japanese cuisine—that can only be enjoyed in France. This isn't Japanese food adapted to European taste; it is a virtuoso exercise in the kaiseki tradition of choosing the best local, seasonable raw materials and refining them to the highest degree, while remaining simple and unpretentious. Nothing is over-cooked, over-seasoned or over-dramatized. Seating is available at tables in a small dining area or in the washitsu (tatami room), but dinner at the counter is the best choice for a total cultural experience. Our 12-course omakasse ("whatever the chef decides") menu  is orchestrated to a beautiful rhythm of alternating pleasures: observing the choreography of the chef's agile hands, tasting each dish first with the eyes then with the mouth and retaining the sensation in a deliciously lingering memory. Pleasure in each separate taste sensation is multiplied by the chromatic harmony of the full sequence, the balance of temperatures, textures and flavors. Though I opt for sake this time, I will try the chef's fancy on my next visit—starting with Champagne, followed by one of my favorite Burgundy wines selected from a sterling list. Our two-hour culinary adventure opens with a cup of steamed custard flavored with crab meat. This is followed by two dashing creations: Fresh foie gras, grilled with slices of parboiled turnip and served with a succulent miso sauce. Then veal and scallop tartare with a wine-flavored, silky light gelée served in cut-glass stemware. A subtle interval of almond tofu prepares the palate for new flavors: thin slices of oyster and sea urchin fingers slightly cooked in a thick bonito nabe (broth) flavored with ginger and kombu, followed by pressed mackerel sushi flambé. The passage from one creation to the next keeps the senses awake; the appetite is stimulated by observing the meticulous preparation and satisfied without satiation by the modest portions of each distinctive dish. Every course has a delicate flavor and a note of surprise: Flatfish sashimi with freshly grated wasabi and a sliver of engawa (the prized flesh of the dorsal fin); a thin slice of fish, stuffed with chestnuts, floating in a flavorful bouillon; and a tilapia filet grilled to perfection with an elegant sauce that heightens its natural flavor while adding a subtle counterpoint. Instead of the typical paper-thin slices of beef used in Japanese cuisine, the chef grills a very French, thick filet, diced and served with two sauces, slivers of roasted garlic and a shaved salad. His variation on the traditional bowl of rice that concludes a kaiseki ryori sequence is an exquisite chahan (Chinese fried rice), with thin slivers of girolle mushrooms. Dessert is sesame ice cream with an intriguing cake-like texture and green tea-flavored langue de chat cookies. The omakasse menu—€140 plus alcoholic beverages—changes with the seasons and varies with the availability of products on the market. If you appreciate fine Japanese cuisine, you owe it to yourself to discover Aida. Dinner in this intimate restaurant—total capacity 18 guests—on an unassuming side street in the seventh arrondissement, is more than dining out…it is dining into a fascinating culture that makes a lively art of everyday necessities. </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Celebrating by Donating</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Donor of the Day</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Jamestown Snaps Up New Property</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Commercial Real Estate</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Reflections on the 'Toilet Bowl'</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Bernanke Rules Out State Bailouts</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Economy</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>A Maecenas for the Internet Age</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Denis Dutton was one of the most prominent patrons of the arts of the 21st century. This fact has only become apparent in the past 10 days, as writers and editors have begun to think about his legacy in the wake of his death from prostate cancer at the age of 66.The unexpected news of Dutton's passing left many of us feeling stunned and guiltily remiss. The shock came in part because Dutton had kept his illness private and had never given any obvious sign of weakening powers. The guilt was due to the realization that his contributions to contemporary intellectual life had never been properly esteemed during his lifetime.Most readers knew of Denis Dutton—if they knew of him at all—as the creator of a popular website, Arts &amp; Letters Daily. To writers and editors, he was an influential arbiter of culture to whom we appealed to help promote our work. The reality is that he did more for serious cultural criticism than any other figure in the Internet age. Dutton's life was rich and varied—he was, often concurrently, a professor, philosopher, writer, editor and entrepreneur. But it is for his website, launched in 1998, that he will be remembered.At first glance, Dutton's legacy may seem unassuming. Every day, Arts &amp; Letters Daily (ALD to its fans) offers three or four fresh links to nonfiction writing from English-language periodicals and websites around the world, each introduced by a witty 25-word "teaser." The links themselves—remaining on the site for weeks and thus allowing the reader, cumulatively, to choose among dozens of major pieces of writing with a single visit—appear in three columns, organized under the headings "Articles of Note," "New Books" and "Essays and Opinions."The teasers are no slapdash summary but constitute Dutton's personal rebuttal to academic obscurantism. They lure readers of diverse temperaments into subjects equally diverse. For example: "Niccolo Machiavelli was an amoebic being: imperialist, proto-libertarian, atheist, neo-pagan, Christian, lover of freedom, tutor to despots, armchair strategist." Or: "A greener world may eliminate some risks we face, but it will create new ones. Electric cars will require lithium. And guess where the world's lithium deposits are?" Often they provide a chuckle on their own: "For fans, Gustav Mahler was more than a composer. He was a seer who foretold Auschwitz, McCarthyism, killing JFK, Vietnam. Yeah, whatever . . ."The appeal of Arts &amp; Letters Daily is in its reliability and lack of fuss. The site has few ads and no bells or whistles. Bucking the Internet habit of spreading content maddeningly over numerous pages—to inflate "page views" and thus appear more attractive to advertisers—ALD is almost entirely contained on a single scrollable page, modeled, Dutton said, on the 18th-century broadsheet. His aim, first and foremost, was to make the site suitable to its purpose. He tried to instill Arts &amp; Letters Daily with the atmosphere of a Victorian reading room or an athenaeum—a place for reading and thinking, free from distractions.As the site grew in prestige and reach, Dutton gained leverage with the editors whose content he was posting, allowing him to insist on certain specifications. Discussing a possible link with Richard Starr, the deputy editor of the Weekly Standard, Dutton first waved the carrot: "I can promise you 15,000 readers you would not otherwise have had, plus new subscribers out of that. (Just ask The American Scholar, which has built a shrine to me with burning incense in their D.C. office, because I've given them so much traffic and so many subscribers. Well, they said they were going to.)" Then came the stick: "There's a condition, however. I need a formatted single-page version of the article, just like the New Yorker, Slate, Boston Globe, NYT, etc. etc. offer. We do not inflict on our readers four or five page multi-links for a single article." Mr. Starr notes that the Weekly Standard was happy to  rejigger its online set-up to accommodate the request. (At the moment, ALD averages around 3 million visits from more than 350,000 unique visitors each month.) Clearly Dutton was particular about design and presentation. According to Evan Goldstein, an editor at the Chronicle of Higher Education (which now owns ALD), Dutton tweaked and edited a teaser until the lines broke in exactly the right manner, and he gave attention to the minute details of italic and boldface type onscreen. "All of this, he insisted many times, aided readability and added to the experience of visiting ALD," Mr. Goldstein says.But Dutton's greatest service to readers was in sorting through the Internet's infinite verbiage. The writer and editor Joseph Epstein likens Dutton's efforts to those of corporate assistants who assiduously cull the daily wires for busy executives. "Under Denis Dutton, Arts &amp; Letters Daily performed a similar function for those of us who are not so important but still haven't time to read the vast amount of printed material released, avalanche fashion, on the world everyday."If readers benefitted, writers and critics did even more, thanks to Dutton's unparalleled ability to bring small intellectual venues to the attention of wide audiences. Indeed, it is this amplifying effect that makes Arts &amp; Letters Daily so culturally significant. Dutton's judicious deployment of links amounted to a rare and extraordinary form of patronage.Links are the Internet's currency. Usually they are of a base metal, allowing the like-minded merely to note each other's perspicacity. But ALD's links are gold, attracting tens of thousands of new readers to articles whose readership might otherwise be painfully small. Of course, even big and well-known venues covet an ALD link. But the windfall is almost epochal for little magazines. Little magazines are vital to intellectual discourse, not least for the new and iconoclastic voices they present, but in most cases they toil in short-lived obscurity. As Frederick Crews noted in 1978: "Ephemerality is the little magazine's generic fate." Such magazines find their audience by filling a niche, typically one based on political ideology. This can lend them a fatal air of parochialism and group think.The same is true for various precincts of the Internet, though for slightly different reasons. Here the white noise of blogs and chat forums and automated aggregators is so deafening that new voices can make themselves heard only by sounding dog-whistles to targeted groups. Despite its vastness, much of the Internet is fiercely tribalist, with most links traded jealously among similar folks. Dutton's approach was quite different: eclectic and rigorous, but wide-ranging and broad-minded too, without the rancor of faction or partisanship.I was lucky enough to learn firsthand the value of Dutton's sensibility. In 2007, two friends and I launched the online journal Open Letters Monthly. We had no connections or financial backing (total outlay: $300)—nothing but a desire to produce sparkling long-form criticism. Dutton linked to our second issue, giving us our first real readership. In a light-handed manner that contrasted with the influence he wielded, he was with us at nearly every step of our growth. He advised us to change the background to make our pieces more readable. One of his links brought in so much traffic that it crashed our server and prompted us to redesign the site. A link from July 2010 sent more than 14,000 visitors to Open Letters and led to one particular article being linked by dozens of other magazines and blogs, adding up to well over 20,000 new unique visitors in that month alone.For a small magazine, that is an enormous number. The Paris Review, for instance, has roughly 16,000 subscribers. The New Criterion 6,000. Granta and the London Review of Books around 50,000 each. The 108-year-old Times Literary Supplement, the leading periodical of the Anglophone literary world, has only 32,000 subscribers. For all these magazines, ALD was a godsend.Unestablished intellectual ventures caught Mr. Dutton's eye because his criteria were almost anachronistically elemental: An article or review must be lucid, opinionated and conspicuous for the quality of its argument, the felicity of its prose and the individuality of its thought. Such criteria brought parity between little magazines and their bigger rivals. Brendan O'Neill, the editor of the online journal Spiked, notes: "Denis recognized that brilliant ideas are as likely to be found in small but serious online magazines as they are in longstanding print publications. On Arts &amp; Letters Daily, a magazine that occupies two tiny, newspaper-strewn rooms in London with four full-time staff—like Spiked—became the equal of the New Yorker." The Dutton imprimatur bestowed immediate relevancy on a journal otherwise buried in the Internet's undergrowth. According to Jason Wilson, the editor of Drexel University's online review the Smart Set, "getting on Denis Dutton's radar was extremely important. Certainly it meant we'd receive lots of traffic. But it was more than that. It meant, for a fledgling journal like ours, that we were being taken seriously. For cultural criticism, it was like a Good Housekeeping Seal of Approval or a high rating in Consumer Reports." Just as it treats with equal seriousness large and small publications, and those in print or online, ALD links to both liberal and conservative articles or to articles with no political coloration at all. Dutton had a penchant for skeptics and debunkers, but even so there was no way to predict what he would link to and so no way for publications to ingratiate themselves with him. Editors were encouraged to publish pieces that they believed in, and readers were encouraged to read with an open mind.Mr. O'Neill calls the result an "elite meritocracy." Arts &amp; Letters Daily joins old, aristocratic concepts of excellence with the Internet's promise of globalism and connectedness. The critic Adam  Kirsch likens being linked by the site to joining a republic of letters: "When you're featured on Arts &amp; Letters, you'll often find references in blogs around the world. The republic of letters is an old-fashioned, 18th-century notion that Denis used a 21st-century technology to create." "People used to say that the great thing about the Internet was that it had no gatekeepers," Dutton said to  Virginia Postrel in 1999. "They were right, of course, except that the worst thing about the Internet is also that it has no gatekeepers." Arts &amp; Letters Daily shows that the Internet need not be a wilderness inhospitable to intellectual endeavors. It can be colonized under a system of  Enlightenment values, and people will eagerly participate in the reborn civilization it offers. Just weeks ago I emailed Dutton with news of another issue of Open Letters. He advised me to be sure to copy such notices to Evan Goldstein and Tran Huu Dung, an economics professor whom Dutton had invited to co-edit the site in 2000. (They are now managing the site and seamlessly continuing its work.) It was impossible to discern from his note that he was in the last stages of cancer. His response was like all the others from him: immediate, gracious and to the point. It ended: "Thank you, DD." The thanks should all go the other way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Walled Wide Web for Nervous Autocrats</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Down With Comforters!</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Design &amp; Decorating</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Why Chinese Mothers Are Superior</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Essay</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>In China, Not All Practice Tough Love</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Life &amp; Style</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>(See Corrections &amp; Amplifications item below.)Parenting advice in China has long stressed discipline and authority. Those lessons are reinforced in best-selling books like "Harvard Girl Liu Yiting," a how-to manual published in 2000 by the parents of a student who won a coveted spot at the Ivy League school. Among the character-building exercises to which they subjected their daughter was having her hold ice cubes in her hands for long stretches.In recent years, however, books that encourage parents to nurture their children's independence and confidence, as opposed to focusing exclusively on high academic achievement, have grown increasingly popular. They reflect a quiet shift in the parenting style of middle-class families, especially in China's growing cities.The current best-selling parenting book, "A Good Mom Is Better Than a Good Teacher," by former Beijing public school teacher Yin Jianli, has sold more than two million copies since it was published in January 2009. Ms. Yin advocates listening to kids and developing their potential without forcing them to obey authority. Chinese parents rarely question the decisions of teachers, but Ms. Yin sometimes offered to do homework for her daughter. In one case, a teacher had asked the girl to copy the same words over a dozen times one night as punishment for failing to memorize them. Ms. Yin believes that such tasks hurt children's interest in studying.Another best-seller, "Catching Children's Sensitive Periods" by Sun Ruixue, follows a similar approach. Ms. Sun writes that she "aims to help more parents understand their kids and let every kid grow up healthily in love and freedom." It is a sequel to her 2000 book "Love and Freedom," which focused on the idea of discovering a child's "true nature," as developed by the Italian physician and education reformer Maria Montessori. In "My Kid Is a Medium-Ranking Student," author Fang Gang stresses that children don't necessarily need the highest test scores to enjoy a happy and successful life. "Our society, to some extent, remains a society full of ranking-related prejudice," he writes. But among the students with the top test scores, he asks, "how many have kept independent thinking, creativity and their unique characteristics?"Many readers of these books—parents in their 30s and 40s—were born during the Cultural Revolution that took place in China from 1966 to 1976. After the turmoil of that difficult period, traditional thinking about education persisted. At schools, teachers continued to evaluate students on the basis of test scores and how closely they followed instructions. As China has gradually opened up to the world, however,  Western ideas about education have spread, and many parents have started to question the traditional approach. Now, most of the best-selling parenting books listed on Dangdang.com, China's largest online book retailer, are written by authors from outside of mainland China, including South Korea, the U.S., Taiwan, Japan, Germany and the U.K. American imports on the list include John Gray's "Children Are From Heaven: Positive Parenting Skills for Raising Cooperative, Confident and Compassionate Children," and "How To Talk So Kids Will Listen &amp; Listen So Kids Will Talk," by Adele Faber and Elaine Mazlish.Another best seller, "One Must Not Fail in the Enterprise of Being a Father," is co-written by Alex Xu, an American businessman who was born in China's countryside and later received his master's degree in the U.S., and his daughter Ashley Xu, who was born and educated in the U.S. Mr. Xu, who runs a hotel chain in China and heads several other multinational companies, urges parents to ease the burden of their children's studies and to choose supplementary after-school activities based on their children's interests rather than on their own ambitions for them. Mr. Xu encouraged his daughter Ashley to be "as confident as a foreign kid," resisting the traditional Chinese emphasis on quiet deference to authority. Children shouldn't be arrogant, he says, but they also shouldn't be "overly modest." Corrections &amp; AmplificationsA graphic with this article referred to "Taiwan, China." The practice of The Wall Street Journal is to refer to the island as Taiwan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2011-01-07</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Platinum Partners Strikes Black Gold</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Markets</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>An Epidemic of Ignorance</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Busting Out of Musical Lockdown</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2011-01-06</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Simon Mann Writes a New Chapter</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Friday Night, Saturday Morning</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2011-01-06</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Satel and Brody: A Modest Proposal on Kidney Donation</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Last week, Mississippi Gov. Haley Barbour sparked considerable controversy when he suspended the life sentences of two sisters—both convicted in 1994 for their part in an $11 armed robbery—if one donated a kidney to the other. Gladys Scott had offered months earlier to donate to sister Jamie, who had been on dialysis since early 2010. But when their release was made conditional upon Gladys's going through with it—a kidney-for-freedom quid pro quo—critics condemned Gov. Barbour. As two people keen to motivate more people to donate organs (Dr. Satel received a donor kidney in 2006), and who unequivocally oppose coercive actions in donation, the case got us thinking about a promising way to encourage one sector of the population, prisoners, to consider it. Here is the idea: A prisoner donates a kidney and receives compensation only when his or her sentence is complete—no shortened sentences, no parole, no special considerations. The organ goes to the next person on the national transplant waiting-list, the way all organs from anonymous donors do.The advantages are considerable. First, a patient languishing on dialysis is rescued. Second, the government realizes tremendous savings; dialysis costs Medicare approximately $72,000 per person each year. Third, a cushion of financial security offers the prisoner a better chance at successful re-entry into society, a notoriously fragile period. We propose the following:Prisoners serving at least a five-year sentence would be eligible for donation. Why five years? To allay legitimate concerns that the individual is making a hasty decision to cash in. The individual would be fully aware that the donation would have no bearing on parole, thus neutralizing the concern that an inmate is relinquishing an organ to secure his or her release. The prospective donor must undergo rigorous informed consent regarding surgery and the risks of living with one kidney. There would be a several month "cooling off" period before surgery. Medical and psychological testing would be performed, as is standard for any kidney donor. Annual medical check-ups thereafter could be paid through a Medicaid voucher (which is not a regular feature of standard donation).For each patient removed from dialysis, the dialysis payer (e.g., Medicare, Medicaid, or a private insurer) would put $40,000 in an account for the prisoner. This would be managed by a state-approved agency and distributed to the prisoner on release as an annuity over a designated period of time. Like any proposal that would incentivize donation by promising material benefit in exchange for saving a life, our plan requires that Congress amend the 1984 National Organ Transplant Act (NOTA), so that it is no longer a felony for donors to receive compensation. The framers of NOTA were less concerned about incentives for donation than about the prospect of third-party brokers making a profit off the buying and selling of organs. They also loathed the idea of the wealthy buying organs from the poor. In our proposal, there is no broker, nor is any sick person in the position to purchase a kidney. The funds come from dialysis savings.Is it ethical to engage prisoners in such a program? Some will say no, that incarceration in and of itself is a coercive process that limits one's freedom to make a choice. An analogous situation—prisoner participation in medical research—has become a topic of much debate. When disturbing accounts of prison research conducted in the 1940s, '50s and '60s came to light, the federal government banned all but the least risky research involving prisoners in 1978.But in 2007, an Institute of Medicine panel revisited the ban. Members argued that prisoners (many of whom have cancer, hepatitis C or are HIV positive, for example) deserve the opportunity to enroll in research, particularly if they will benefit directly by participating. The analogy seems apt. Informed, willing and healthy prisoners should not be deprived of the opportunity to help the sick while improving their own prospects once they are free.Dr. Satel, a psychiatrist, is the editor of "When Altruism Isn't Enough: The Case for Compensating Kidney Donors" (AEI Press, 2009). Mr. Brody is a retired marketing executive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2011-01-06</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Henninger: Congress's Broken Windows</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Wonder Land</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2011-01-06</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>The Italy of Asia</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Review &amp; Outlook</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2011-01-06</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Digital Requiem for a Dear Salutation</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2011-01-06</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Many Travel Awards, but Who's Best?</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>The Middle Seat</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Gangsters' Paradise</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Photos</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Cowboys, Gangsters Aim at Each Other</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Facebook a Big Deal for DST</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>When States Default: 2011, Meet 1841</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>The Game</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2011-01-05</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>James C. Ho: Birthright Citizenship and the 14th Amendment</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Abheek Bhattacharya: Airing India's Airline Grievances</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Business Asia</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2011-01-05</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>To Dress Well, Shop Like a Man</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>On Style</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Brodeur's Devil of a Season</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>New York Sports</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Holiday Scenes From the Private-Jet Set</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Heard &amp; Scene</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2011-01-05</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Max Boot: Covert Action Makes a Comeback</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Are Americans Wusses or Fond of Trash Talk?</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Moving On</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>U.S. Boosts Afghan Surge</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>World News</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2011-01-05</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Son of Former Iran Shah Commits Suicide</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Middle East</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Student Loan Default Recovery Rates High</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>College Planning</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2011-01-05</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>In the Mortgage Mess, Agreement Might Be Part of the Problem</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Writing on the Wall</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2011-01-03</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Andy Kessler: How Videogames Are Changing the Economy</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2011-01-03</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Leading Pakistani Politician Killed</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2011-01-03</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>The Land of Three Currencies</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Review &amp; Outlook Asia</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2011-01-03</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Hot Money Roils Growth Currencies</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Year-End Review</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2011-01-02</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>How to Conquer Self-Doubt</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Health Journal</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2011-01-04</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Stephens: Egypt's Prison of Hate</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Global View</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2011-01-05</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>A Chinese Stealth Challenge?</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Playing With Sand, Wind and Fire</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Fine Art</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Kouros Gallery
+	23 E. 73rd St., (212) 288-5888
+			Through Jan. 29In Kouros Gallery's concurrent solo surveys of two native New York artists, the painter, sculptor and printmaker Stanley Boxer (1926-2000) and the painter and illustrator Guy Danella (1928-2006), we move, through nearly two dozen pictures spanning half a century, from Impressionism, Cubism and biomorphic abstraction to Abstract Expressionism; from Symbolist- and Surrealist-inspired figuration to Color Field painting.Mr. Boxer, the more prolific and varied of the two, is represented only by paintings and collages, which does a disservice to his range. I prefer the purity of his spare, classical, abstract sculptures in marble, wood and steel—influenced by David Smith, Jean Arp and Constantin Brancusi—to his late mixed-media paintings, which dominate here. These iridescent and mystical pictures combine glitter, pigment, bits of broken crockery, fabric, paper and sand into dense, phosphorescent fields of free-floating form and atmosphere. Yet their fussed-over surfaces and lack of internal structure can make them more akin to natural phenomena than paintings. But the mini-retrospective also includes Mr. Boxer's strong, washy, Cubist "Bathers" (1947); the Impressionistic "Still Life" (1951), resembling a Claude Monet landscape; the gorgeous, enigmatic Cubist-derived abstraction "Interior Still Life With A Red" (1960); and the biomorphic "Willowsnowpond" (1972), which fuses sky, water, flora and snake.Mr. Danella began his painting career creating Paul Klee-inspired abstractions, including the small, substantial figurative gouache "Nail Biter" (1955) and the ambitious, tessellating "magic square" painting "Sunday Afternoon" (1951). In mostly yellows, "Sunday Afternoon" holds the plane nearly everywhere except in its smattering of black rectangles. Later, Mr. Danella moved into the mystical and macabre. Kouros has a number of these moody, captivating late works. In the landscape "Sister Confessor" (1999), a gaggle of nuns (some flying) convene for supplication and confession at a window hollowed out of a tree. In the courtyard of "Blessed Sacrament School" (1995), nuns, angels and children surround a gigantic lion that cradles a chalice of wine or blood. Despite this show's shortcomings, its inspired pairing of two distinctly talented artists illuminates the breadth of American Modernism.Causey Contemporary
+	92 Wythe Ave., Brooklyn, (718) 218-8939
+			Through Jan. 31Eastern exoticism has inspired Western artists for centuries. And the influence of Asia, from the painterly pictograms of Chinese calligraphy to the cartoonish high jinks of Takashi Murakami, is increasingly prevalent in American art. Abstract painter Elise Freda works in encaustic and straddles a world somewhere between East and West. Her flat, hard-edged, single-color rectangles cite European Modernism, and her gestural brushstrokes nod to Asian calligraphy. Meditating on her surroundings—the Catskills' fields, light, mountains and sky—Ms. Freda infuses suggestions of natural elements (the movement of wind through branches; the color of fall foliage; a moonlit night) into her pared-down palette and calligraphic strokes. In most of Ms. Freda's 29 pictures (all from 2010) there is discordance among the severe geometries, layered wax grounds and expressionistic strokes. But occasionally—as in the fleeting black and white "Night Light," the rustling orange "Tilled Field," the delicate winter sunset "Western Sky" and the bold, muscular dance of blood and fire that is "Red Sky at Night"—Ms. Freda, internalizing and synthesizing a range of influences, achieves brevity, poetry.Katharina Rich Perlow Gallery
+	980 Madison Ave., Third Floor, (212) 644-7171
+			Through Feb. 10In the 1970s, Brooklyn native George McNeil abandoned abstraction for Neo-Expressionist figuration. He wasn't alone. But Mr. McNeil—invoking graffiti, CBGB's and Studio 54—had enough painterly chops to be more than merely fashionable. This show of five paintings, suggesting a crosspollination among James Ensor, Edvard Munch, George Grosz, Jean-Michel Basquiat, Georges Rouault and Willem de Kooning, demonstrates that Mr. McNeil, who cut his teeth as an Abstract Expressionist, could will, break or bend his figures—sometimes seemingly chew them—into knotted, nearly abstract submission. In these oils and mixed-media works, depicting nudes, dancers, holidays and fever dreams—and which at times resemble scenes of ritual sacrifice—he thinks like an abstractionist and moves like a contortionist. The central female in "Dingbat Disco" (1982)—boogieing down, her face distorted between frontal and profile views—looks skinned to the bloody bone. Her head is made of sand; her hair is collaged out of twine and cracked mud; an apparition is her dance partner. Crude, veering at times more toward the childish than the childlike, Mr. McNeil's paintings play fast and loose. If his drawing were stronger, more precise—if contours gave more volume to his figures—these pictures could be as dynamic as the era they depict.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Sutton Place: If Only Ritzy Is Good Enough</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Open House</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2011-01-08</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Standing Out Among the Wilde Scenery</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>New York Culture</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2011-01-07</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>A Picasso and a Yoga Room</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>The Home Front</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2011-01-19</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An Ad Man's Foray Into 'Green' Media </t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>How I Built It</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Long-time ad man Joel Babbit of Atlanta isn't new to entrepreneurship. In the late '80s, he built advertising agency Babbit &amp; Reiman into a dominant player in the Southeast, eventually selling the firm and opening a second agency, 360, which heavyweight Grey Global acquired in 2002. That's when Mr. Babbit, who stayed on to manage large accounts, noticed a keen interest in green advertising. After raising $10 million in start-up funds – all in one day – he quit and launched Mother Nature Network, an environmental news site, in January 2009. Mr. Babbit used his sales skills to persuade five companies, including Dell Inc. DELL 4.09%increase; green up pointing triangle and Miller Brewing Co., to sign up as advertisers on day one. Advertisers each pay $300,000 a year to sponsor categories on the site (everything from green gadgets to organic farming) and content is written by about 20 in-house journalists and 80 freelancers. The site now pulls in more than two million visitors a month, and expects $6.5 million in revenue for 2010. Mr. Babbit, 57 years old, serves as chief executive – and remains the sole member of Mother Nature Network's sales department.Edited interview excerpts follow.Q. How did you come up with the idea for the company?A. All of our clients [at Grey Global] started spending more money on communicating the environmental message. I'd be sitting in a meeting when the environment was being discussed. I had no idea what they were talking about, but I'd nod my head as if I did. I'd run back to look at the Internet. I was amazed at the lack of resources for someone like myself. It was technical and academic. It was all over my head and also boring. Q. So you saw an opportunity to start your own green site. A. I would look at these charts [at client meetings] and see the huge number of people interested in the environment. What had started as a small group of experts, scientists and activists had turned into a mainstream audience. I figured they were going through the same disappointment as I was. They'd go to the Internet for clarity, but it was too technical. Q. How did you raise $10 million in start-up funds – in a single day?A. I was having lunch with Tom Bell, former chairman and CEO of Young &amp; Rubicam, who's a really brilliant guy. We're talking just typical chit-chat, and I said, 'I came across this opportunity.' He asked how much it would cost; I said, maybe $10 million. He said, 'If you do it, and you run it, I'll give you 20%.' Then he picks up the phone and calls Pete Correll, former chairman of Georgia-Pacific, who happened to be in the building next to us. We go see him. Pete asked, 'How much is Tom putting in?' When he heard $2 million, he said, 'OK, I'll put in $2 million.'Q. Then what?A. That night I was having dinner with Doug Hertz, a childhood friend who owns United Distributors. I said, 'Doug, I had the craziest day.' I told him what happened. He wanted to see what I showed them. I said, 'I don't have anything to show!' But he liked the idea, and said he'd put in $2 million. So that night, I got home from dinner and called Chuck Leavell, keyboardist for the Rolling Stones and a tree farmer who's environmentally articulate. I knew him through business connections. So I described this to him, and we decided to put the rest of the money in between the two of us. Q. When did you actually start building Mother Nature Network?A. I gave notice [to Grey] the next day. I had woken up that prior morning without a clue. You never know what's going to take place in a 24-hour period. Q. How come you steered away from banner ads (that most sites use) and toward a sponsorship model?A. I use the example of the Nascar jacket, with all the messages popping off of it. It's ineffective. Our content is divided into categories – there is no marketing message from any other company except that sponsor. There's exclusivity.Q. You sometimes create videos or interactive graphics on behalf of advertisers. How do users tell what's "advertorial?"A. We mark it as advertisement and put it in a box. I think it's probably more defined than many other ad units [on other sites]. There is a very strict line between advertising or sponsorships, and editorial. If we don't report accurately and fairly, we'd lose our credibility. So we will report negatively on a sponsor if we have to, and everyone understands that.Q. How did you get the word out about Mother Nature Network?A. It's never one thing – it's always a combination. Having Chuck Leavell helped a great deal. He was the catalyst for a lot of positive press. I always joke that if it was just me, there might have only been a feature in my daughter's school newsletter. Q. When did you know this would be successful?A. I'm still nervous, 24 hours a day. I've seen too many times when a guy is sitting at a table in Vegas with a huge stack of chips – then you come back an hour later and he's got two or three left. I'm extremely confident. At the same time, fear is a great motivator. I'm Jewish, so it's somewhat genetic that I'm scared.Q. What's your best tip for other entrepreneurs?A. A lot of people come to me for advice in starting a new business. Many, many times they'll say something along the lines of, 'I was going to do it last month, but the timing wasn't good.' If you wait until the time is right, you'll never do it. There's never a good time to start a business and take a risk like that. You'll be waiting the rest of your life.And don't go into environmental news. I don't need any more competitors!Write to  Colleen DeBaise at colleen.debaise@wsj.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2011-01-15</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>The Shrinking Shirt Collar</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Fashion</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2011-01-01</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Kan Vows to Push for Free-Trade Deal</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Asia Business</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2011-01-26</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Men Ask: Are Pants in Boots Okay?</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Fashion</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>To tuck or not to tuck?With boot-wearing season in full swing, a vigorous debate is on the rise concerning the tucking of pant legs into boots. The tucked-in look was prevalent on the fall 2010 runways in the men's collections including Burberry, Dolce &amp; Gabbana and Michael Kors.Enough men have been taking the style out onto the streets to generate heated discussions on fashion blogs and on Twitter. It turns out that, for men, tucking pants in boots has become as polarizing and controversial a topic as popping collars on polo shirts or rolling up pants to show the ankle. Mordechai Rubinstein, style blogger at Mister Mort, took to Twitter, blasting tuckers as "lil girls." "What bothers me is how precious it is," he said in an interview. "Unless you're gardening or you're an SS officer, then it's just affected. You're protecting your precious jeans from the snow?"True, some men are probably  tucking pants in boots because they got the idea from runway images or because they want to show off their great new designer boots. What's the point of buying butt-kicking boots if they're only going to be buried under a pant leg, they theorize. But sometimes there are also more legitimate reasons to tuck."There is a certain prejudice in some more traditional parts of the fashion world against tucking, as being showoff-y or somehow pretentious, but to me when navigating slushy streets, tucking into your boots is a purely practical matter, that is protecting your pants from getting wet and dirty," says menswear historian Robert E. Bryan and author of the 2009 book "American Fashion Menswear."He says the tuck recalls military and sport dress of years gone by. "In the military, with the cavalry, or even foot soldiers, pants were tucked to keep the loose fabric from getting in the way," says Mr. Bryan. "And when macho cowboys are on horseback, most either tuck, or roll up their jeans, and no one would call them pretentious, simply because they do it for practical reasons."Even Mr. Rubinstein, the style blogger, allowed for tucking if a gentleman is wearing a nice pair of slacks. In December, Tyler Thoreson, editorial director of Gilt Man, devoted a spirited online forum to tucking, entitled "Tucking Pant Legs Into Boots: Ever Okay?" He doesn't advocate tucking, but isn't opposed to it when done in a certain way."If you're going to do it, you better make it look like it was an accident and not something you fussed over," Mr. Thoreson said in an interview. The pants just happening to fall into the boot rather than being neatly tucked "is that sort of serendipitous, happy accident of style effect you want to achieve."Write to                                     Ray A. Smith                 at ray.smith@wsj.com</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
